--- a/za_summary.xlsx
+++ b/za_summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,8 +154,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="601">
+  <cellStyleXfs count="609">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -766,7 +774,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="601">
+  <cellStyles count="609">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1067,6 +1075,10 @@
     <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="608" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1367,12 +1379,21 @@
     <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="597" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="607" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFC000"/>
+      <color rgb="FFCC3300"/>
+      <color rgb="FFF79646"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFB7DEE8"/>
       <color rgb="FF953735"/>
       <color rgb="FFD99694"/>
       <color rgb="FF33CC33"/>
@@ -1778,11 +1799,16 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.147363242599947"/>
-          <c:y val="0.0277777777777778"/>
+          <c:x val="0.136818427134218"/>
+          <c:y val="0.000750615632505397"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1809,6 +1835,16 @@
             <a:solidFill>
               <a:srgbClr val="33CC33"/>
             </a:solidFill>
+            <a:ln w="3175" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1896,12 +1932,15 @@
               <a:schemeClr val="bg1"/>
             </a:solidFill>
             <a:ln w="3175" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1991,6 +2030,13 @@
             <a:ln w="3175" cmpd="sng">
               <a:noFill/>
             </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2077,6 +2123,16 @@
             <a:solidFill>
               <a:srgbClr val="D99694"/>
             </a:solidFill>
+            <a:ln w="3175" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2163,6 +2219,16 @@
             <a:solidFill>
               <a:srgbClr val="953735"/>
             </a:solidFill>
+            <a:ln w="3175" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2249,6 +2315,16 @@
             <a:solidFill>
               <a:srgbClr val="F20884"/>
             </a:solidFill>
+            <a:ln w="3175" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2335,6 +2411,16 @@
             <a:solidFill>
               <a:srgbClr val="604A7B"/>
             </a:solidFill>
+            <a:ln w="3175" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2421,6 +2507,16 @@
             <a:solidFill>
               <a:srgbClr val="558ED5"/>
             </a:solidFill>
+            <a:ln w="3175" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2507,6 +2603,16 @@
             <a:solidFill>
               <a:srgbClr val="B7DEE8"/>
             </a:solidFill>
+            <a:ln w="3175" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2593,6 +2699,16 @@
             <a:solidFill>
               <a:srgbClr val="C4BD97"/>
             </a:solidFill>
+            <a:ln w="3175" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2768,11 +2884,16 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.147363242599947"/>
-          <c:y val="0.0277777777777778"/>
+          <c:x val="0.16493793504283"/>
+          <c:y val="0.00461161949350926"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2799,6 +2920,13 @@
             <a:solidFill>
               <a:srgbClr val="33CC33"/>
             </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2886,12 +3014,15 @@
               <a:schemeClr val="bg1"/>
             </a:solidFill>
             <a:ln w="3175" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2981,6 +3112,13 @@
             <a:ln w="3175" cmpd="sng">
               <a:noFill/>
             </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3067,6 +3205,16 @@
             <a:solidFill>
               <a:srgbClr val="D99694"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3153,6 +3301,16 @@
             <a:solidFill>
               <a:srgbClr val="953735"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3239,6 +3397,16 @@
             <a:solidFill>
               <a:srgbClr val="F20884"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3325,6 +3493,16 @@
             <a:solidFill>
               <a:srgbClr val="604A7B"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3411,6 +3589,16 @@
             <a:solidFill>
               <a:srgbClr val="558ED5"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3497,6 +3685,16 @@
             <a:solidFill>
               <a:srgbClr val="B7DEE8"/>
             </a:solidFill>
+            <a:ln w="3175" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3583,6 +3781,16 @@
             <a:solidFill>
               <a:srgbClr val="C4BD97"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -5704,6 +5912,4598 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Very Poor: Cash Expenditure</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.201844789172882"/>
+          <c:y val="0.000750615632505396"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>staple food</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF99"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$57:$J$57</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10446.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8660.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5550.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5448.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6780.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4800.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6840.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>non-staple food</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="CC3300"/>
+            </a:solidFill>
+            <a:ln w="3175" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$58:$J$58</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12220.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8616.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5821.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6746.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1140.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6042.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HH items</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:ln w="3175" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$59:$J$59</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2811.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2180.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2610.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1126.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>840.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>water</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="B9CDE5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$60:$J$60</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4320.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>inputs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="EBF1DE"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$61:$J$61</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1700.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>342.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>270.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>385.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>social serv.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F20884"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$62:$J$62</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1650.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1650.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>clothes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$63:$J$63</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1671.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1250.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tax &amp; gifts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="E6B9B8"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$64:$J$64</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>407.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>transport &amp; communication</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="262626"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$65:$J$65</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>953.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>636.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>875.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>840.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>470.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>other (entertainment, etc.)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="A99BBD"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$66:$J$66</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3071.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>840.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4780.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>income minus expenditure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$67:$J$67</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>25941.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7668.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10107.90831337667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15192.81517000872</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3837.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15567.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11340.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-1975384968"/>
+        <c:axId val="-1953018696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1975384968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1953018696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1953018696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1975384968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.740768027898095"/>
+          <c:y val="0.0733590733590734"/>
+          <c:w val="0.231958678715248"/>
+          <c:h val="0.852942267351716"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Poor: Cash Expenditure</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.252811397257241"/>
+          <c:y val="0.000750615632505396"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>staple food</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF99"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$40:$S$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$57:$S$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>7980.0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>2455.0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>5880.0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>5870.0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>5100.0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>6010.0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>9612.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>non-staple food</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="CC3300"/>
+            </a:solidFill>
+            <a:ln w="3175" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$40:$S$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$58:$S$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>17604.0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>4397.0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>7590.048000000001</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>11028.0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>5233.0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>4148.0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>7584.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HH items</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:ln w="3175" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$40:$S$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$59:$S$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>3742.0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>3227.0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>3910.0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>2550.0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>3510.0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>3610.0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>1680.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>water</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="B9CDE5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$40:$S$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$60:$S$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>inputs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="EBF1DE"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$40:$S$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$61:$S$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>1450.0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>2700.0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>1305.0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>1550.0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>social serv.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F20884"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$40:$S$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$62:$S$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>1450.0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>1750.0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>800.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>clothes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$40:$S$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$63:$S$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>1943.0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>1350.0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tax &amp; gifts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="E6B9B8"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$40:$S$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$64:$S$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>429.0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>1450.0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>648.0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>1140.0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>1440.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>transport &amp; communication</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="262626"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$40:$S$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$65:$S$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>987.0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>1296.0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>768.0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>1044.0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>1260.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>other (entertainment, etc.)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="A99BBD"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$40:$S$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$66:$S$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>3414.0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>1072.0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>9240.0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>1080.0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>5348.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>income minus expenditure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$40:$S$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$67:$S$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>37725.0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>36188.5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>18748.952</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>21948.0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>19729.90831337667</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>20683.66085440278</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>4016.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-1954394680"/>
+        <c:axId val="2143632376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1954394680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2143632376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2143632376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1954394680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.740768027898095"/>
+          <c:y val="0.0733590733590734"/>
+          <c:w val="0.231958678715248"/>
+          <c:h val="0.852942267351716"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Middle: Cash Expenditure</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.252811397257241"/>
+          <c:y val="0.000750615632505396"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>staple food</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF99"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$T$40:$AB$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$57:$AB$57</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8990.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5910.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7290.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3444.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4704.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7920.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5124.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>non-staple food</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="CC3300"/>
+            </a:solidFill>
+            <a:ln w="3175" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$T$40:$AB$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$58:$AB$58</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8642.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7968.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40707.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11004.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8219.664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12756.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8448.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HH items</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:ln w="3175" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$T$40:$AB$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$59:$AB$59</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>15880.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4040.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4686.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4653.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5280.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3880.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5430.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>water</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="B9CDE5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$T$40:$AB$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$60:$AB$60</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>720.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>inputs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="EBF1DE"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$T$40:$AB$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$61:$AB$61</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>25800.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21960.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10300.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23957.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11500.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20610.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>social serv.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F20884"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$T$40:$AB$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$62:$AB$62</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16487.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5381.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25800.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>480.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4700.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>clothes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$T$40:$AB$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$63:$AB$63</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4500.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5286.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4900.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tax &amp; gifts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="E6B9B8"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$T$40:$AB$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$64:$AB$64</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1640.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>950.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>transport &amp; communication</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="262626"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$T$40:$AB$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$65:$AB$65</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>13200.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3360.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21286.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3200.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2040.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9600.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4700.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>other (entertainment, etc.)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="A99BBD"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$T$40:$AB$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$66:$AB$66</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12800.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2700.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13717.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9700.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25800.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3840.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>income minus expenditure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$T$40:$AB$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$67:$AB$67</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>29463.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80824.90322580645</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12764.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55485.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30516.336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62084.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29006.92405063292</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2003332168"/>
+        <c:axId val="-2058837320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2003332168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2058837320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2058837320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2003332168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.740768027898095"/>
+          <c:y val="0.0733590733590734"/>
+          <c:w val="0.231958678715248"/>
+          <c:h val="0.852942267351716"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Middle: Cash Expenditure</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.252811397257241"/>
+          <c:y val="0.000750615632505396"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>staple food</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF99"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AC$40:$AK$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AC$57:$AK$57</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4470.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2940.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10920.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4224.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3444.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8390.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8010.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>non-staple food</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="CC3300"/>
+            </a:solidFill>
+            <a:ln w="3175" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AC$40:$AK$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AC$58:$AK$58</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9908.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14723.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17594.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13878.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18924.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9736.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40761.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HH items</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:ln w="3175" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AC$40:$AK$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AC$59:$AK$59</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4620.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8050.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7330.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9170.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5760.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7340.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>water</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="B9CDE5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AC$40:$AK$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AC$60:$AK$60</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>720.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>inputs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="EBF1DE"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AC$40:$AK$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AC$61:$AK$61</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>49180.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14740.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40070.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46900.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9900.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22855.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>social serv.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F20884"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AC$40:$AK$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AC$62:$AK$62</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11500.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14300.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55800.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31280.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>clothes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AC$40:$AK$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AC$63:$AK$63</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7986.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tax &amp; gifts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="E6B9B8"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AC$40:$AK$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AC$64:$AK$64</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3200.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1135.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3360.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13220.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>transport &amp; communication</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="262626"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AC$40:$AK$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AC$65:$AK$65</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9300.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27612.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29524.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>other (entertainment, etc.)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="A99BBD"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AC$40:$AK$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AC$66:$AK$66</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5180.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>155000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5840.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12600.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52800.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>income minus expenditure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$AC$40:$AK$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ZANOC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZAHMI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AC$67:$AK$67</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>234754.9032258064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34576.47999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55636.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>204856.9240506329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>147822.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27131.20000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46139.79999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-1952478776"/>
+        <c:axId val="-1956339560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1952478776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1956339560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1956339560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1952478776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.740768027898095"/>
+          <c:y val="0.0733590733590734"/>
+          <c:w val="0.231958678715248"/>
+          <c:h val="0.852942267351716"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -7573,6 +12373,16 @@
             <a:solidFill>
               <a:srgbClr val="33CC33"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -7665,6 +12475,16 @@
             <a:solidFill>
               <a:srgbClr val="77933C"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
@@ -7723,12 +12543,15 @@
               <a:schemeClr val="bg1"/>
             </a:solidFill>
             <a:ln w="3175" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
@@ -7786,6 +12609,16 @@
             <a:solidFill>
               <a:srgbClr val="948A54"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
@@ -7843,6 +12676,16 @@
             <a:solidFill>
               <a:srgbClr val="D99694"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
@@ -7900,6 +12743,16 @@
             <a:solidFill>
               <a:srgbClr val="FFFF99"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
@@ -7957,6 +12810,16 @@
             <a:solidFill>
               <a:srgbClr val="F79646"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
@@ -8014,6 +12877,16 @@
             <a:solidFill>
               <a:srgbClr val="558ED5"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
@@ -8071,6 +12944,16 @@
             <a:solidFill>
               <a:schemeClr val="accent4"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
@@ -11413,6 +16296,134 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11869,6 +16880,160 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="32">
+          <cell r="C32">
+            <v>4800</v>
+          </cell>
+          <cell r="D32">
+            <v>2455</v>
+          </cell>
+          <cell r="E32">
+            <v>3444</v>
+          </cell>
+          <cell r="F32">
+            <v>3444</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>1140</v>
+          </cell>
+          <cell r="D33">
+            <v>4397</v>
+          </cell>
+          <cell r="E33">
+            <v>11004</v>
+          </cell>
+          <cell r="F33">
+            <v>18924</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>2100</v>
+          </cell>
+          <cell r="D34">
+            <v>3227</v>
+          </cell>
+          <cell r="E34">
+            <v>4653</v>
+          </cell>
+          <cell r="F34">
+            <v>9170</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>0</v>
+          </cell>
+          <cell r="D35">
+            <v>0</v>
+          </cell>
+          <cell r="E35">
+            <v>0</v>
+          </cell>
+          <cell r="F35">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>385</v>
+          </cell>
+          <cell r="D36">
+            <v>1450</v>
+          </cell>
+          <cell r="E36">
+            <v>23957</v>
+          </cell>
+          <cell r="F36">
+            <v>46900</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>900</v>
+          </cell>
+          <cell r="D37">
+            <v>1450</v>
+          </cell>
+          <cell r="E37">
+            <v>5381</v>
+          </cell>
+          <cell r="F37">
+            <v>14300</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>800</v>
+          </cell>
+          <cell r="D38">
+            <v>1350</v>
+          </cell>
+          <cell r="E38">
+            <v>4900</v>
+          </cell>
+          <cell r="F38">
+            <v>7000</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>120</v>
+          </cell>
+          <cell r="D39">
+            <v>1450</v>
+          </cell>
+          <cell r="E39">
+            <v>500</v>
+          </cell>
+          <cell r="F39">
+            <v>3360</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>470</v>
+          </cell>
+          <cell r="D40">
+            <v>2400</v>
+          </cell>
+          <cell r="E40">
+            <v>3200</v>
+          </cell>
+          <cell r="F40">
+            <v>9300</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>210</v>
+          </cell>
+          <cell r="D41">
+            <v>1072</v>
+          </cell>
+          <cell r="E41">
+            <v>9700</v>
+          </cell>
+          <cell r="F41">
+            <v>12600</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43">
+            <v>15567</v>
+          </cell>
+          <cell r="D43">
+            <v>36188.5</v>
+          </cell>
+          <cell r="E43">
+            <v>55485</v>
+          </cell>
+          <cell r="F43">
+            <v>147822</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
@@ -13999,7 +19164,7 @@
             <v>480</v>
           </cell>
           <cell r="F37">
-            <v>120800</v>
+            <v>55800</v>
           </cell>
         </row>
         <row r="38">
@@ -14016,7 +19181,7 @@
             <v>1800</v>
           </cell>
           <cell r="F38">
-            <v>25000</v>
+            <v>10000</v>
           </cell>
         </row>
         <row r="39">
@@ -14033,7 +19198,7 @@
             <v>0</v>
           </cell>
           <cell r="F39">
-            <v>25000</v>
+            <v>13220</v>
           </cell>
         </row>
         <row r="40">
@@ -14050,7 +19215,7 @@
             <v>9600</v>
           </cell>
           <cell r="F40">
-            <v>87600</v>
+            <v>27612</v>
           </cell>
         </row>
         <row r="41">
@@ -14067,7 +19232,7 @@
             <v>0</v>
           </cell>
           <cell r="F41">
-            <v>91600</v>
+            <v>52800</v>
           </cell>
         </row>
         <row r="43">
@@ -14084,7 +19249,7 @@
             <v>62084</v>
           </cell>
           <cell r="F43">
-            <v>-163436.79999999999</v>
+            <v>27131.200000000012</v>
           </cell>
         </row>
       </sheetData>
@@ -16427,8 +21592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AT69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F95" workbookViewId="0">
-      <selection activeCell="G122" sqref="G122"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="AG68" sqref="AG68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -21583,6 +26748,10 @@
         <f>[6]Summ!$C32</f>
         <v>6780</v>
       </c>
+      <c r="H57" s="3">
+        <f>[10]Summ!$C32</f>
+        <v>4800</v>
+      </c>
       <c r="I57" s="3">
         <f>[5]Summ!C32</f>
         <v>6840</v>
@@ -21591,6 +26760,10 @@
         <f>[8]Summ!$D32</f>
         <v>7980</v>
       </c>
+      <c r="M57" s="3">
+        <f>[10]Summ!$D32</f>
+        <v>2455</v>
+      </c>
       <c r="N57" s="3">
         <f>[6]Summ!$D32</f>
         <v>5880</v>
@@ -21623,6 +26796,10 @@
         <f>[8]Summ!$E32</f>
         <v>7290</v>
       </c>
+      <c r="W57" s="3">
+        <f>[10]Summ!$E32</f>
+        <v>3444</v>
+      </c>
       <c r="X57" s="3">
         <f>[6]Summ!$E32</f>
         <v>4704</v>
@@ -21650,6 +26827,10 @@
       <c r="AF57" s="3">
         <f>[3]Summ!$F32</f>
         <v>4224</v>
+      </c>
+      <c r="AG57" s="3">
+        <f>[10]Summ!$F32</f>
+        <v>3444</v>
       </c>
       <c r="AI57" s="3">
         <f>[5]Summ!F32</f>
@@ -21685,6 +26866,10 @@
         <f>[6]Summ!$C33</f>
         <v>6746.4</v>
       </c>
+      <c r="H58" s="3">
+        <f>[10]Summ!$C33</f>
+        <v>1140</v>
+      </c>
       <c r="I58" s="3">
         <f>[5]Summ!C33</f>
         <v>6042</v>
@@ -21693,6 +26878,10 @@
         <f>[8]Summ!$D33</f>
         <v>17604</v>
       </c>
+      <c r="M58" s="3">
+        <f>[10]Summ!$D33</f>
+        <v>4397</v>
+      </c>
       <c r="N58" s="3">
         <f>[6]Summ!$D33</f>
         <v>7590.0480000000007</v>
@@ -21725,6 +26914,10 @@
         <f>[8]Summ!$E33</f>
         <v>40707.199999999997</v>
       </c>
+      <c r="W58" s="3">
+        <f>[10]Summ!$E33</f>
+        <v>11004</v>
+      </c>
       <c r="X58" s="3">
         <f>[6]Summ!$E33</f>
         <v>8219.6640000000007</v>
@@ -21752,6 +26945,10 @@
       <c r="AF58" s="3">
         <f>[3]Summ!$F33</f>
         <v>13878</v>
+      </c>
+      <c r="AG58" s="3">
+        <f>[10]Summ!$F33</f>
+        <v>18924</v>
       </c>
       <c r="AI58" s="3">
         <f>[5]Summ!F33</f>
@@ -21787,6 +26984,10 @@
         <f>[6]Summ!$C34</f>
         <v>1126</v>
       </c>
+      <c r="H59" s="3">
+        <f>[10]Summ!$C34</f>
+        <v>2100</v>
+      </c>
       <c r="I59" s="3">
         <f>[5]Summ!C34</f>
         <v>840</v>
@@ -21795,6 +26996,10 @@
         <f>[8]Summ!$D34</f>
         <v>3742</v>
       </c>
+      <c r="M59" s="3">
+        <f>[10]Summ!$D34</f>
+        <v>3227</v>
+      </c>
       <c r="N59" s="3">
         <f>[6]Summ!$D34</f>
         <v>3910</v>
@@ -21827,6 +27032,10 @@
         <f>[8]Summ!$E34</f>
         <v>4686</v>
       </c>
+      <c r="W59" s="3">
+        <f>[10]Summ!$E34</f>
+        <v>4653</v>
+      </c>
       <c r="X59" s="3">
         <f>[6]Summ!$E34</f>
         <v>5280</v>
@@ -21854,6 +27063,10 @@
       <c r="AF59" s="3">
         <f>[3]Summ!$F34</f>
         <v>7330</v>
+      </c>
+      <c r="AG59" s="3">
+        <f>[10]Summ!$F34</f>
+        <v>9170</v>
       </c>
       <c r="AI59" s="3">
         <f>[5]Summ!F34</f>
@@ -21889,6 +27102,10 @@
         <f>[6]Summ!$C35</f>
         <v>0</v>
       </c>
+      <c r="H60" s="3">
+        <f>[10]Summ!$C35</f>
+        <v>0</v>
+      </c>
       <c r="I60" s="3">
         <f>[5]Summ!C35</f>
         <v>0</v>
@@ -21897,6 +27114,10 @@
         <f>[8]Summ!$D35</f>
         <v>360</v>
       </c>
+      <c r="M60" s="3">
+        <f>[10]Summ!$D35</f>
+        <v>0</v>
+      </c>
       <c r="N60" s="3">
         <f>[6]Summ!$D35</f>
         <v>0</v>
@@ -21929,6 +27150,10 @@
         <f>[8]Summ!$E35</f>
         <v>720</v>
       </c>
+      <c r="W60" s="3">
+        <f>[10]Summ!$E35</f>
+        <v>0</v>
+      </c>
       <c r="X60" s="3">
         <f>[6]Summ!$E35</f>
         <v>0</v>
@@ -21955,6 +27180,10 @@
       </c>
       <c r="AF60" s="3">
         <f>[3]Summ!$F35</f>
+        <v>0</v>
+      </c>
+      <c r="AG60" s="3">
+        <f>[10]Summ!$F35</f>
         <v>0</v>
       </c>
       <c r="AI60" s="3">
@@ -21991,6 +27220,10 @@
         <f>[6]Summ!$C36</f>
         <v>0</v>
       </c>
+      <c r="H61" s="3">
+        <f>[10]Summ!$C36</f>
+        <v>385</v>
+      </c>
       <c r="I61" s="3">
         <f>[5]Summ!C36</f>
         <v>0</v>
@@ -21998,6 +27231,10 @@
       <c r="K61" s="3">
         <f>[8]Summ!$D36</f>
         <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <f>[10]Summ!$D36</f>
+        <v>1450</v>
       </c>
       <c r="N61" s="3">
         <f>[6]Summ!$D36</f>
@@ -22031,6 +27268,10 @@
         <f>[8]Summ!$E36</f>
         <v>10300</v>
       </c>
+      <c r="W61" s="3">
+        <f>[10]Summ!$E36</f>
+        <v>23957</v>
+      </c>
       <c r="X61" s="3">
         <f>[6]Summ!$E36</f>
         <v>11500</v>
@@ -22058,6 +27299,10 @@
       <c r="AF61" s="3">
         <f>[3]Summ!$F36</f>
         <v>40070</v>
+      </c>
+      <c r="AG61" s="3">
+        <f>[10]Summ!$F36</f>
+        <v>46900</v>
       </c>
       <c r="AI61" s="3">
         <f>[5]Summ!F36</f>
@@ -22093,6 +27338,10 @@
         <f>[6]Summ!$C37</f>
         <v>1650</v>
       </c>
+      <c r="H62" s="3">
+        <f>[10]Summ!$C37</f>
+        <v>900</v>
+      </c>
       <c r="I62" s="3">
         <f>[5]Summ!C37</f>
         <v>0</v>
@@ -22101,6 +27350,10 @@
         <f>[8]Summ!$D37</f>
         <v>1000</v>
       </c>
+      <c r="M62" s="3">
+        <f>[10]Summ!$D37</f>
+        <v>1450</v>
+      </c>
       <c r="N62" s="3">
         <f>[6]Summ!$D37</f>
         <v>1600</v>
@@ -22133,6 +27386,10 @@
         <f>[8]Summ!$E37</f>
         <v>16487</v>
       </c>
+      <c r="W62" s="3">
+        <f>[10]Summ!$E37</f>
+        <v>5381</v>
+      </c>
       <c r="X62" s="3">
         <f>[6]Summ!$E37</f>
         <v>25800</v>
@@ -22161,9 +27418,13 @@
         <f>[3]Summ!$F37</f>
         <v>11500</v>
       </c>
+      <c r="AG62" s="3">
+        <f>[10]Summ!$F37</f>
+        <v>14300</v>
+      </c>
       <c r="AI62" s="3">
         <f>[5]Summ!F37</f>
-        <v>120800</v>
+        <v>55800</v>
       </c>
       <c r="AJ62" s="3">
         <f>[8]Summ!$F37</f>
@@ -22195,6 +27456,10 @@
         <f>[6]Summ!$C38</f>
         <v>1500</v>
       </c>
+      <c r="H63" s="3">
+        <f>[10]Summ!$C38</f>
+        <v>800</v>
+      </c>
       <c r="I63" s="3">
         <f>[5]Summ!C38</f>
         <v>0</v>
@@ -22203,6 +27468,10 @@
         <f>[8]Summ!$D38</f>
         <v>1943</v>
       </c>
+      <c r="M63" s="3">
+        <f>[10]Summ!$D38</f>
+        <v>1350</v>
+      </c>
       <c r="N63" s="3">
         <f>[6]Summ!$D38</f>
         <v>2000</v>
@@ -22235,6 +27504,10 @@
         <f>[8]Summ!$E38</f>
         <v>5286</v>
       </c>
+      <c r="W63" s="3">
+        <f>[10]Summ!$E38</f>
+        <v>4900</v>
+      </c>
       <c r="X63" s="3">
         <f>[6]Summ!$E38</f>
         <v>4000</v>
@@ -22263,9 +27536,13 @@
         <f>[3]Summ!$F38</f>
         <v>5000</v>
       </c>
+      <c r="AG63" s="3">
+        <f>[10]Summ!$F38</f>
+        <v>7000</v>
+      </c>
       <c r="AI63" s="3">
         <f>[5]Summ!F38</f>
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="AJ63" s="3">
         <f>[8]Summ!$F38</f>
@@ -22297,6 +27574,10 @@
         <f>[6]Summ!$C39</f>
         <v>20</v>
       </c>
+      <c r="H64" s="3">
+        <f>[10]Summ!$C39</f>
+        <v>120</v>
+      </c>
       <c r="I64" s="3">
         <f>[5]Summ!C39</f>
         <v>0</v>
@@ -22305,6 +27586,10 @@
         <f>[8]Summ!$D39</f>
         <v>429</v>
       </c>
+      <c r="M64" s="3">
+        <f>[10]Summ!$D39</f>
+        <v>1450</v>
+      </c>
       <c r="N64" s="3">
         <f>[6]Summ!$D39</f>
         <v>25</v>
@@ -22337,6 +27622,10 @@
         <f>[8]Summ!$E39</f>
         <v>0</v>
       </c>
+      <c r="W64" s="3">
+        <f>[10]Summ!$E39</f>
+        <v>500</v>
+      </c>
       <c r="X64" s="3">
         <f>[6]Summ!$E39</f>
         <v>20</v>
@@ -22365,9 +27654,13 @@
         <f>[3]Summ!$F39</f>
         <v>1135</v>
       </c>
+      <c r="AG64" s="3">
+        <f>[10]Summ!$F39</f>
+        <v>3360</v>
+      </c>
       <c r="AI64" s="3">
         <f>[5]Summ!F39</f>
-        <v>25000</v>
+        <v>13220</v>
       </c>
       <c r="AJ64" s="3">
         <f>[8]Summ!$F39</f>
@@ -22399,6 +27692,10 @@
         <f>[6]Summ!$C40</f>
         <v>840</v>
       </c>
+      <c r="H65" s="3">
+        <f>[10]Summ!$C40</f>
+        <v>470</v>
+      </c>
       <c r="I65" s="3">
         <f>[5]Summ!C40</f>
         <v>78</v>
@@ -22407,6 +27704,10 @@
         <f>[8]Summ!$D40</f>
         <v>987</v>
       </c>
+      <c r="M65" s="3">
+        <f>[10]Summ!$D40</f>
+        <v>2400</v>
+      </c>
       <c r="N65" s="3">
         <f>[6]Summ!$D40</f>
         <v>1296</v>
@@ -22439,6 +27740,10 @@
         <f>[8]Summ!$E40</f>
         <v>21286</v>
       </c>
+      <c r="W65" s="3">
+        <f>[10]Summ!$E40</f>
+        <v>3200</v>
+      </c>
       <c r="X65" s="3">
         <f>[6]Summ!$E40</f>
         <v>2040</v>
@@ -22467,9 +27772,13 @@
         <f>[3]Summ!$F40</f>
         <v>6400</v>
       </c>
+      <c r="AG65" s="3">
+        <f>[10]Summ!$F40</f>
+        <v>9300</v>
+      </c>
       <c r="AI65" s="3">
         <f>[5]Summ!F40</f>
-        <v>87600</v>
+        <v>27612</v>
       </c>
       <c r="AJ65" s="3">
         <f>[8]Summ!$F40</f>
@@ -22501,6 +27810,10 @@
         <f>[6]Summ!$C41</f>
         <v>4780</v>
       </c>
+      <c r="H66" s="3">
+        <f>[10]Summ!$C41</f>
+        <v>210</v>
+      </c>
       <c r="I66" s="3">
         <f>[5]Summ!C41</f>
         <v>0</v>
@@ -22509,6 +27822,10 @@
         <f>[8]Summ!$D41</f>
         <v>3414</v>
       </c>
+      <c r="M66" s="3">
+        <f>[10]Summ!$D41</f>
+        <v>1072</v>
+      </c>
       <c r="N66" s="3">
         <f>[6]Summ!$D41</f>
         <v>9240</v>
@@ -22541,6 +27858,10 @@
         <f>[8]Summ!$E41</f>
         <v>13717</v>
       </c>
+      <c r="W66" s="3">
+        <f>[10]Summ!$E41</f>
+        <v>9700</v>
+      </c>
       <c r="X66" s="3">
         <f>[6]Summ!$E41</f>
         <v>25800</v>
@@ -22569,9 +27890,13 @@
         <f>[3]Summ!$F41</f>
         <v>5840</v>
       </c>
+      <c r="AG66" s="3">
+        <f>[10]Summ!$F41</f>
+        <v>12600</v>
+      </c>
       <c r="AI66" s="3">
         <f>[5]Summ!F41</f>
-        <v>91600</v>
+        <v>52800</v>
       </c>
       <c r="AJ66" s="3">
         <f>[8]Summ!$F41</f>
@@ -22603,6 +27928,10 @@
         <f>[6]Summ!$C43</f>
         <v>3837.5999999999985</v>
       </c>
+      <c r="H67" s="3">
+        <f>[10]Summ!$C43</f>
+        <v>15567</v>
+      </c>
       <c r="I67" s="3">
         <f>[5]Summ!C43</f>
         <v>11340</v>
@@ -22611,6 +27940,10 @@
         <f>[8]Summ!$D43</f>
         <v>37725</v>
       </c>
+      <c r="M67" s="3">
+        <f>[10]Summ!$D43</f>
+        <v>36188.5</v>
+      </c>
       <c r="N67" s="3">
         <f>[6]Summ!$D43</f>
         <v>18748.951999999997</v>
@@ -22643,6 +27976,10 @@
         <f>[8]Summ!$E43</f>
         <v>12764.800000000003</v>
       </c>
+      <c r="W67" s="3">
+        <f>[10]Summ!$E43</f>
+        <v>55485</v>
+      </c>
       <c r="X67" s="3">
         <f>[6]Summ!$E43</f>
         <v>30516.335999999996</v>
@@ -22671,9 +28008,13 @@
         <f>[3]Summ!$F43</f>
         <v>204856.92405063292</v>
       </c>
+      <c r="AG67" s="3">
+        <f>[10]Summ!$F43</f>
+        <v>147822</v>
+      </c>
       <c r="AI67" s="3">
         <f>[5]Summ!F43</f>
-        <v>-163436.79999999999</v>
+        <v>27131.200000000012</v>
       </c>
       <c r="AJ67" s="3">
         <f>[8]Summ!$F43</f>
@@ -22704,6 +28045,10 @@
         <f>SUM(G57:G67)</f>
         <v>27280</v>
       </c>
+      <c r="H68" s="6">
+        <f>SUM(H57:H67)</f>
+        <v>26492</v>
+      </c>
       <c r="I68" s="6">
         <f>SUM(I57:I67)</f>
         <v>25140</v>
@@ -22712,6 +28057,10 @@
         <f>SUM(K57:K67)</f>
         <v>75184</v>
       </c>
+      <c r="M68" s="6">
+        <f>SUM(M57:M67)</f>
+        <v>55439.5</v>
+      </c>
       <c r="N68" s="6">
         <f>SUM(N57:N67)</f>
         <v>55290</v>
@@ -22744,6 +28093,10 @@
         <f>SUM(V57:V67)</f>
         <v>133244</v>
       </c>
+      <c r="W68" s="6">
+        <f>SUM(W57:W67)</f>
+        <v>122224</v>
+      </c>
       <c r="X68" s="6">
         <f>SUM(X57:X67)</f>
         <v>117880</v>
@@ -22771,6 +28124,10 @@
       <c r="AF68" s="6">
         <f>SUM(AF57:AF67)</f>
         <v>300233.92405063292</v>
+      </c>
+      <c r="AG68" s="6">
+        <f>SUM(AG57:AG67)</f>
+        <v>272820</v>
       </c>
       <c r="AI68" s="6">
         <f>SUM(AI57:AI67)</f>

--- a/za_summary.xlsx
+++ b/za_summary.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="24">
   <si>
     <t>Sources of food</t>
   </si>
@@ -154,8 +154,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="609">
+  <cellStyleXfs count="619">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -774,7 +784,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="609">
+  <cellStyles count="619">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1079,6 +1089,11 @@
     <cellStyle name="Followed Hyperlink" xfId="604" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="606" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1383,6 +1398,11 @@
     <cellStyle name="Hyperlink" xfId="603" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="605" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1849,42 +1869,42 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:f>Sheet1!$B$40:$I$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOF</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$43:$J$43</c:f>
+              <c:f>Sheet1!$B$43:$I$43</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -1895,10 +1915,10 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1138.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.0</c:v>
@@ -1945,53 +1965,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:f>Sheet1!$B$40:$I$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOF</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$44:$J$44</c:f>
+              <c:f>Sheet1!$B$44:$I$44</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1400.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.0</c:v>
@@ -2041,62 +2061,62 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:f>Sheet1!$B$40:$I$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOF</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$45:$J$45</c:f>
+              <c:f>Sheet1!$B$45:$I$45</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>4200.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>135.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
                 <c:pt idx="4">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.0</c:v>
@@ -2137,65 +2157,65 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:f>Sheet1!$B$40:$I$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOF</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$46:$J$46</c:f>
+              <c:f>Sheet1!$B$46:$I$46</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2880.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>7920.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>6010.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>7140.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>7335.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2700.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7580.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2233,42 +2253,42 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:f>Sheet1!$B$40:$I$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOF</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$47:$J$47</c:f>
+              <c:f>Sheet1!$B$47:$I$47</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>9000.0</c:v>
                 </c:pt>
@@ -2329,42 +2349,42 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:f>Sheet1!$B$40:$I$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOF</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$48:$J$48</c:f>
+              <c:f>Sheet1!$B$48:$I$48</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>13716.0</c:v>
                 </c:pt>
@@ -2372,22 +2392,22 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3600.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>5040.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>600.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2292.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2425,42 +2445,42 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:f>Sheet1!$B$40:$I$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOF</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$49:$J$49</c:f>
+              <c:f>Sheet1!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -2483,7 +2503,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1200.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2521,65 +2541,65 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:f>Sheet1!$B$40:$I$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOF</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$50:$J$50</c:f>
+              <c:f>Sheet1!$B$50:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>22484.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>36840.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>28440.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>19980.90831337667</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>20220.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>17095.81517000872</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>22980.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>16620.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23940.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2617,42 +2637,42 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:f>Sheet1!$B$40:$I$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOF</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$51:$J$51</c:f>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>9600.0</c:v>
                 </c:pt>
@@ -2660,10 +2680,10 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2850.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.0</c:v>
@@ -2713,42 +2733,42 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:f>Sheet1!$B$40:$I$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOF</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$52:$J$52</c:f>
+              <c:f>Sheet1!$B$52:$I$52</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -2756,13 +2776,13 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>640.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1340.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.0</c:v>
@@ -2933,7 +2953,7 @@
             <c:strRef>
               <c:f>Sheet1!$K$40:$S$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -2947,15 +2967,18 @@
                   <c:v>ZABOL</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
@@ -2980,7 +3003,7 @@
                   <c:v>350.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>2880.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.0</c:v>
@@ -2989,6 +3012,9 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3029,7 +3055,7 @@
             <c:strRef>
               <c:f>Sheet1!$K$40:$S$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -3043,15 +3069,18 @@
                   <c:v>ZABOL</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
@@ -3079,12 +3108,15 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2600.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3125,7 +3157,7 @@
             <c:strRef>
               <c:f>Sheet1!$K$40:$S$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -3139,15 +3171,18 @@
                   <c:v>ZABOL</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
@@ -3172,15 +3207,18 @@
                   <c:v>6400.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>4450.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>7600.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>198.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>3630.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3221,7 +3259,7 @@
             <c:strRef>
               <c:f>Sheet1!$K$40:$S$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -3235,15 +3273,18 @@
                   <c:v>ZABOL</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
@@ -3268,15 +3309,18 @@
                   <c:v>18000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>9460.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>9720.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>12050.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>12915.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>3600.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3317,7 +3361,7 @@
             <c:strRef>
               <c:f>Sheet1!$K$40:$S$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -3331,15 +3375,18 @@
                   <c:v>ZABOL</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
@@ -3373,6 +3420,9 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3413,7 +3463,7 @@
             <c:strRef>
               <c:f>Sheet1!$K$40:$S$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -3427,15 +3477,18 @@
                   <c:v>ZABOL</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
@@ -3463,12 +3516,15 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4100.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>5040.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3509,7 +3565,7 @@
             <c:strRef>
               <c:f>Sheet1!$K$40:$S$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -3523,15 +3579,18 @@
                   <c:v>ZABOL</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
@@ -3559,12 +3618,15 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>840.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>3600.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>7200.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3605,7 +3667,7 @@
             <c:strRef>
               <c:f>Sheet1!$K$40:$S$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -3619,15 +3681,18 @@
                   <c:v>ZABOL</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
@@ -3652,15 +3717,18 @@
                   <c:v>30180.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>35520.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>34944.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>20541.90831337667</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>18586.66085440279</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>21960.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3701,7 +3769,7 @@
             <c:strRef>
               <c:f>Sheet1!$K$40:$S$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -3715,15 +3783,18 @@
                   <c:v>ZABOL</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
@@ -3751,12 +3822,15 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>3600.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3797,7 +3871,7 @@
             <c:strRef>
               <c:f>Sheet1!$K$40:$S$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -3811,15 +3885,18 @@
                   <c:v>ZABOL</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
@@ -3847,12 +3924,15 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>640.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3997,13 +4077,23 @@
             <a:solidFill>
               <a:srgbClr val="33CC33"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$T$40:$AB$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZALCM</c:v>
                 </c:pt>
@@ -4017,15 +4107,18 @@
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZASLC</c:v>
                 </c:pt>
               </c:strCache>
@@ -4050,15 +4143,18 @@
                   <c:v>2804.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>46620.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>8330.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5375.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>4440.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>150.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4084,19 +4180,22 @@
               <a:schemeClr val="bg1"/>
             </a:solidFill>
             <a:ln w="3175" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$T$40:$AB$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZALCM</c:v>
                 </c:pt>
@@ -4110,15 +4209,18 @@
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZASLC</c:v>
                 </c:pt>
               </c:strCache>
@@ -4143,15 +4245,18 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>16200.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2800.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1600.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4179,13 +4284,20 @@
             <a:ln w="3175" cmpd="sng">
               <a:noFill/>
             </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$T$40:$AB$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZALCM</c:v>
                 </c:pt>
@@ -4199,15 +4311,18 @@
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZASLC</c:v>
                 </c:pt>
               </c:strCache>
@@ -4232,15 +4347,18 @@
                   <c:v>8600.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>7800.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>7850.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6000.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1200.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>6900.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4265,13 +4383,23 @@
             <a:solidFill>
               <a:srgbClr val="D99694"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$T$40:$AB$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZALCM</c:v>
                 </c:pt>
@@ -4285,15 +4413,18 @@
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZASLC</c:v>
                 </c:pt>
               </c:strCache>
@@ -4324,9 +4455,12 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>6000.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>980.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4351,13 +4485,23 @@
             <a:solidFill>
               <a:srgbClr val="953735"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$T$40:$AB$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZALCM</c:v>
                 </c:pt>
@@ -4371,15 +4515,18 @@
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZASLC</c:v>
                 </c:pt>
               </c:strCache>
@@ -4404,15 +4551,18 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>42240.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>70200.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>78000.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>48000.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>36000.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4437,13 +4587,23 @@
             <a:solidFill>
               <a:srgbClr val="F20884"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$T$40:$AB$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZALCM</c:v>
                 </c:pt>
@@ -4457,15 +4617,18 @@
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZASLC</c:v>
                 </c:pt>
               </c:strCache>
@@ -4493,12 +4656,15 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1200.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3600.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4523,13 +4689,23 @@
             <a:solidFill>
               <a:srgbClr val="604A7B"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$T$40:$AB$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZALCM</c:v>
                 </c:pt>
@@ -4543,15 +4719,18 @@
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZASLC</c:v>
                 </c:pt>
               </c:strCache>
@@ -4582,9 +4761,12 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>19200.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>7200.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4609,13 +4791,23 @@
             <a:solidFill>
               <a:srgbClr val="558ED5"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$T$40:$AB$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZALCM</c:v>
                 </c:pt>
@@ -4629,15 +4821,18 @@
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZASLC</c:v>
                 </c:pt>
               </c:strCache>
@@ -4662,15 +4857,18 @@
                   <c:v>7620.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>15300.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>7620.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>19980.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8078.924050632912</c:v>
                 </c:pt>
               </c:numCache>
@@ -4695,13 +4893,23 @@
             <a:solidFill>
               <a:srgbClr val="B7DEE8"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$T$40:$AB$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZALCM</c:v>
                 </c:pt>
@@ -4715,15 +4923,18 @@
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZASLC</c:v>
                 </c:pt>
               </c:strCache>
@@ -4757,6 +4968,9 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>24000.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4781,13 +4995,23 @@
             <a:solidFill>
               <a:srgbClr val="C4BD97"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$T$40:$AB$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZALCM</c:v>
                 </c:pt>
@@ -4801,15 +5025,18 @@
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZASLC</c:v>
                 </c:pt>
               </c:strCache>
@@ -4843,6 +5070,9 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4993,7 +5223,7 @@
             <c:strRef>
               <c:f>Sheet1!$AC$40:$AK$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZANOC</c:v>
                 </c:pt>
@@ -5016,6 +5246,9 @@
                   <c:v>ZALOC</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
               </c:strCache>
@@ -5049,6 +5282,9 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>61695.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5086,7 +5322,7 @@
             <c:strRef>
               <c:f>Sheet1!$AC$40:$AK$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZANOC</c:v>
                 </c:pt>
@@ -5109,6 +5345,9 @@
                   <c:v>ZALOC</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
               </c:strCache>
@@ -5142,6 +5381,9 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5175,7 +5417,7 @@
             <c:strRef>
               <c:f>Sheet1!$AC$40:$AK$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZANOC</c:v>
                 </c:pt>
@@ -5198,6 +5440,9 @@
                   <c:v>ZALOC</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
               </c:strCache>
@@ -5231,6 +5476,9 @@
                   <c:v>13050.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>22500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>19200.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5261,7 +5509,7 @@
             <c:strRef>
               <c:f>Sheet1!$AC$40:$AK$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZANOC</c:v>
                 </c:pt>
@@ -5284,6 +5532,9 @@
                   <c:v>ZALOC</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
               </c:strCache>
@@ -5317,6 +5568,9 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5347,7 +5601,7 @@
             <c:strRef>
               <c:f>Sheet1!$AC$40:$AK$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZANOC</c:v>
                 </c:pt>
@@ -5370,6 +5624,9 @@
                   <c:v>ZALOC</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
               </c:strCache>
@@ -5403,6 +5660,9 @@
                   <c:v>199200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>126000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>100800.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5433,7 +5693,7 @@
             <c:strRef>
               <c:f>Sheet1!$AC$40:$AK$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZANOC</c:v>
                 </c:pt>
@@ -5456,6 +5716,9 @@
                   <c:v>ZALOC</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
               </c:strCache>
@@ -5489,6 +5752,9 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5519,7 +5785,7 @@
             <c:strRef>
               <c:f>Sheet1!$AC$40:$AK$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZANOC</c:v>
                 </c:pt>
@@ -5542,6 +5808,9 @@
                   <c:v>ZALOC</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
               </c:strCache>
@@ -5575,6 +5844,9 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>91716.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5605,7 +5877,7 @@
             <c:strRef>
               <c:f>Sheet1!$AC$40:$AK$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZANOC</c:v>
                 </c:pt>
@@ -5628,6 +5900,9 @@
                   <c:v>ZALOC</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
               </c:strCache>
@@ -5661,6 +5936,9 @@
                   <c:v>8100.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>7800.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5691,7 +5969,7 @@
             <c:strRef>
               <c:f>Sheet1!$AC$40:$AK$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZANOC</c:v>
                 </c:pt>
@@ -5714,6 +5992,9 @@
                   <c:v>ZALOC</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
               </c:strCache>
@@ -5747,6 +6028,9 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5777,7 +6061,7 @@
             <c:strRef>
               <c:f>Sheet1!$AC$40:$AK$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZANOC</c:v>
                 </c:pt>
@@ -5800,6 +6084,9 @@
                   <c:v>ZALOC</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
               </c:strCache>
@@ -5833,6 +6120,9 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5996,62 +6286,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:f>Sheet1!$B$40:$I$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOF</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$57:$J$57</c:f>
+              <c:f>Sheet1!$B$57:$I$57</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="0">
                   <c:v>10446.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2" formatCode="0">
                   <c:v>8660.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3" formatCode="0">
                   <c:v>5550.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5" formatCode="0">
                   <c:v>5448.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0">
                   <c:v>6780.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7" formatCode="0">
                   <c:v>4800.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6840.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6089,62 +6376,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:f>Sheet1!$B$40:$I$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOF</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$58:$J$58</c:f>
+              <c:f>Sheet1!$B$58:$I$58</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="0">
                   <c:v>12220.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2" formatCode="0">
                   <c:v>8616.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3" formatCode="0">
                   <c:v>5821.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5" formatCode="0">
                   <c:v>1400.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0">
                   <c:v>6746.4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7" formatCode="0">
                   <c:v>1140.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6042.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6182,62 +6466,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:f>Sheet1!$B$40:$I$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOF</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$59:$J$59</c:f>
+              <c:f>Sheet1!$B$59:$I$59</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="0">
                   <c:v>2811.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2" formatCode="0">
                   <c:v>2180.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3" formatCode="0">
                   <c:v>2610.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5" formatCode="0">
                   <c:v>2010.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0">
                   <c:v>1126.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7" formatCode="0">
                   <c:v>2100.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>840.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6275,61 +6556,58 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:f>Sheet1!$B$40:$I$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOF</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$60:$J$60</c:f>
+              <c:f>Sheet1!$B$60:$I$60</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="0">
                   <c:v>360.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2" formatCode="0">
                   <c:v>360.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3" formatCode="0">
                   <c:v>4320.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="5" formatCode="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6368,62 +6646,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:f>Sheet1!$B$40:$I$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOF</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$61:$J$61</c:f>
+              <c:f>Sheet1!$B$61:$I$61</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
                   <c:v>1700.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3" formatCode="0">
                   <c:v>342.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5" formatCode="0">
                   <c:v>270.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
                   <c:v>385.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6461,62 +6736,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:f>Sheet1!$B$40:$I$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOF</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$62:$J$62</c:f>
+              <c:f>Sheet1!$B$62:$I$62</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="0">
                   <c:v>1000.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2" formatCode="0">
                   <c:v>2000.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3" formatCode="0">
                   <c:v>1400.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5" formatCode="0">
                   <c:v>1650.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0">
                   <c:v>1650.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7" formatCode="0">
                   <c:v>900.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6554,62 +6826,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:f>Sheet1!$B$40:$I$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOF</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$63:$J$63</c:f>
+              <c:f>Sheet1!$B$63:$I$63</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="0">
                   <c:v>1671.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2" formatCode="0">
                   <c:v>1500.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3" formatCode="0">
                   <c:v>1250.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5" formatCode="0">
                   <c:v>900.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0">
                   <c:v>1500.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7" formatCode="0">
                   <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6647,62 +6916,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:f>Sheet1!$B$40:$I$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOF</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$64:$J$64</c:f>
+              <c:f>Sheet1!$B$64:$I$64</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="0">
                   <c:v>407.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2" formatCode="0">
                   <c:v>720.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3" formatCode="0">
                   <c:v>600.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5" formatCode="0">
                   <c:v>900.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0">
                   <c:v>20.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7" formatCode="0">
                   <c:v>120.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6740,62 +7006,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:f>Sheet1!$B$40:$I$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOF</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$65:$J$65</c:f>
+              <c:f>Sheet1!$B$65:$I$65</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="0">
                   <c:v>953.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2" formatCode="0">
                   <c:v>636.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3" formatCode="0">
                   <c:v>875.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5" formatCode="0">
                   <c:v>1400.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0">
                   <c:v>840.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7" formatCode="0">
                   <c:v>470.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>78.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6833,62 +7096,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:f>Sheet1!$B$40:$I$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOF</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$66:$J$66</c:f>
+              <c:f>Sheet1!$B$66:$I$66</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="0">
                   <c:v>3071.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
                   <c:v>840.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5" formatCode="0">
                   <c:v>300.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0">
                   <c:v>4780.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7" formatCode="0">
                   <c:v>210.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6926,62 +7186,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$J$40</c:f>
+              <c:f>Sheet1!$B$40:$I$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOF</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$67:$J$67</c:f>
+              <c:f>Sheet1!$B$67:$I$67</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="0">
                   <c:v>25941.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2" formatCode="0">
                   <c:v>7668.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3" formatCode="0">
                   <c:v>10107.90831337667</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5" formatCode="0">
                   <c:v>15192.81517000872</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6" formatCode="0">
                   <c:v>3837.599999999999</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7" formatCode="0">
                   <c:v>15567.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11340.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7146,7 +7403,7 @@
             <c:strRef>
               <c:f>Sheet1!$K$40:$S$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -7160,15 +7417,18 @@
                   <c:v>ZABOL</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
@@ -7189,16 +7449,16 @@
                 <c:pt idx="3" formatCode="0">
                   <c:v>5880.0</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0">
+                <c:pt idx="5" formatCode="0">
                   <c:v>5870.0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="6" formatCode="0">
                   <c:v>5100.0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="7" formatCode="0">
                   <c:v>6010.0</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="8" formatCode="0">
                   <c:v>9612.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7239,7 +7499,7 @@
             <c:strRef>
               <c:f>Sheet1!$K$40:$S$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -7253,15 +7513,18 @@
                   <c:v>ZABOL</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
@@ -7282,16 +7545,16 @@
                 <c:pt idx="3" formatCode="0">
                   <c:v>7590.048000000001</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0">
+                <c:pt idx="5" formatCode="0">
                   <c:v>11028.0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="6" formatCode="0">
                   <c:v>5233.0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="7" formatCode="0">
                   <c:v>4148.0</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="8" formatCode="0">
                   <c:v>7584.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7332,7 +7595,7 @@
             <c:strRef>
               <c:f>Sheet1!$K$40:$S$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -7346,15 +7609,18 @@
                   <c:v>ZABOL</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
@@ -7375,16 +7641,16 @@
                 <c:pt idx="3" formatCode="0">
                   <c:v>3910.0</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0">
+                <c:pt idx="5" formatCode="0">
                   <c:v>2550.0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="6" formatCode="0">
                   <c:v>3510.0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="7" formatCode="0">
                   <c:v>3610.0</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="8" formatCode="0">
                   <c:v>1680.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7425,7 +7691,7 @@
             <c:strRef>
               <c:f>Sheet1!$K$40:$S$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -7439,15 +7705,18 @@
                   <c:v>ZABOL</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
@@ -7468,16 +7737,16 @@
                 <c:pt idx="3" formatCode="0">
                   <c:v>0.0</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0">
+                <c:pt idx="5" formatCode="0">
                   <c:v>600.0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="6" formatCode="0">
                   <c:v>2400.0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
                 <c:pt idx="7" formatCode="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7518,7 +7787,7 @@
             <c:strRef>
               <c:f>Sheet1!$K$40:$S$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -7532,15 +7801,18 @@
                   <c:v>ZABOL</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
@@ -7561,16 +7833,16 @@
                 <c:pt idx="3" formatCode="0">
                   <c:v>5000.0</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0">
+                <c:pt idx="5" formatCode="0">
                   <c:v>2700.0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="6" formatCode="0">
                   <c:v>1305.0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="7" formatCode="0">
                   <c:v>1550.0</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="8" formatCode="0">
                   <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7611,7 +7883,7 @@
             <c:strRef>
               <c:f>Sheet1!$K$40:$S$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -7625,15 +7897,18 @@
                   <c:v>ZABOL</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
@@ -7654,16 +7929,16 @@
                 <c:pt idx="3" formatCode="0">
                   <c:v>1600.0</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0">
+                <c:pt idx="5" formatCode="0">
                   <c:v>2000.0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="6" formatCode="0">
                   <c:v>2200.0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="7" formatCode="0">
                   <c:v>1750.0</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="8" formatCode="0">
                   <c:v>800.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7704,7 +7979,7 @@
             <c:strRef>
               <c:f>Sheet1!$K$40:$S$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -7718,15 +7993,18 @@
                   <c:v>ZABOL</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
@@ -7747,16 +8025,16 @@
                 <c:pt idx="3" formatCode="0">
                   <c:v>2000.0</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0">
+                <c:pt idx="5" formatCode="0">
                   <c:v>3000.0</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0">
-                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0">
                   <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
                   <c:v>1000.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7797,7 +8075,7 @@
             <c:strRef>
               <c:f>Sheet1!$K$40:$S$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -7811,15 +8089,18 @@
                   <c:v>ZABOL</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
@@ -7840,16 +8121,16 @@
                 <c:pt idx="3" formatCode="0">
                   <c:v>25.0</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0">
+                <c:pt idx="5" formatCode="0">
                   <c:v>1500.0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="6" formatCode="0">
                   <c:v>648.0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="7" formatCode="0">
                   <c:v>1140.0</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="8" formatCode="0">
                   <c:v>1440.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7890,7 +8171,7 @@
             <c:strRef>
               <c:f>Sheet1!$K$40:$S$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -7904,15 +8185,18 @@
                   <c:v>ZABOL</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
@@ -7933,16 +8217,16 @@
                 <c:pt idx="3" formatCode="0">
                   <c:v>1296.0</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0">
+                <c:pt idx="5" formatCode="0">
                   <c:v>768.0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="6" formatCode="0">
                   <c:v>1044.0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="7" formatCode="0">
                   <c:v>1800.0</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="8" formatCode="0">
                   <c:v>1260.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7983,7 +8267,7 @@
             <c:strRef>
               <c:f>Sheet1!$K$40:$S$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -7997,15 +8281,18 @@
                   <c:v>ZABOL</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
@@ -8026,16 +8313,16 @@
                 <c:pt idx="3" formatCode="0">
                   <c:v>9240.0</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0">
+                <c:pt idx="5" formatCode="0">
                   <c:v>300.0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="6" formatCode="0">
                   <c:v>1400.0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="7" formatCode="0">
                   <c:v>1080.0</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="8" formatCode="0">
                   <c:v>5348.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8076,7 +8363,7 @@
             <c:strRef>
               <c:f>Sheet1!$K$40:$S$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -8090,15 +8377,18 @@
                   <c:v>ZABOL</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZALCM</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZASLC</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZANOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
@@ -8119,16 +8409,16 @@
                 <c:pt idx="3" formatCode="0">
                   <c:v>18748.952</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0">
+                <c:pt idx="5" formatCode="0">
                   <c:v>21948.0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="6" formatCode="0">
                   <c:v>19729.90831337667</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="7" formatCode="0">
                   <c:v>20683.66085440278</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="8" formatCode="0">
                   <c:v>4016.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8294,7 +8584,7 @@
             <c:strRef>
               <c:f>Sheet1!$T$40:$AB$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZALCM</c:v>
                 </c:pt>
@@ -8308,15 +8598,18 @@
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZASLC</c:v>
                 </c:pt>
               </c:strCache>
@@ -8340,13 +8633,13 @@
                 <c:pt idx="3">
                   <c:v>3444.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4704.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7920.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>5124.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8387,7 +8680,7 @@
             <c:strRef>
               <c:f>Sheet1!$T$40:$AB$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZALCM</c:v>
                 </c:pt>
@@ -8401,15 +8694,18 @@
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZASLC</c:v>
                 </c:pt>
               </c:strCache>
@@ -8433,13 +8729,13 @@
                 <c:pt idx="3">
                   <c:v>11004.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>8219.664</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>12756.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8448.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8480,7 +8776,7 @@
             <c:strRef>
               <c:f>Sheet1!$T$40:$AB$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZALCM</c:v>
                 </c:pt>
@@ -8494,15 +8790,18 @@
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZASLC</c:v>
                 </c:pt>
               </c:strCache>
@@ -8526,13 +8825,13 @@
                 <c:pt idx="3">
                   <c:v>4653.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5280.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>3880.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>5430.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8573,7 +8872,7 @@
             <c:strRef>
               <c:f>Sheet1!$T$40:$AB$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZALCM</c:v>
                 </c:pt>
@@ -8587,15 +8886,18 @@
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZASLC</c:v>
                 </c:pt>
               </c:strCache>
@@ -8619,13 +8921,13 @@
                 <c:pt idx="3">
                   <c:v>0.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1200.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8666,7 +8968,7 @@
             <c:strRef>
               <c:f>Sheet1!$T$40:$AB$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZALCM</c:v>
                 </c:pt>
@@ -8680,15 +8982,18 @@
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZASLC</c:v>
                 </c:pt>
               </c:strCache>
@@ -8712,13 +9017,13 @@
                 <c:pt idx="3">
                   <c:v>23957.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>11500.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>300.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>20610.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8759,7 +9064,7 @@
             <c:strRef>
               <c:f>Sheet1!$T$40:$AB$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZALCM</c:v>
                 </c:pt>
@@ -8773,15 +9078,18 @@
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZASLC</c:v>
                 </c:pt>
               </c:strCache>
@@ -8805,13 +9113,13 @@
                 <c:pt idx="3">
                   <c:v>5381.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>25800.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>480.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>4700.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8852,7 +9160,7 @@
             <c:strRef>
               <c:f>Sheet1!$T$40:$AB$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZALCM</c:v>
                 </c:pt>
@@ -8866,15 +9174,18 @@
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZASLC</c:v>
                 </c:pt>
               </c:strCache>
@@ -8898,13 +9209,13 @@
                 <c:pt idx="3">
                   <c:v>4900.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4000.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1800.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>4500.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8945,7 +9256,7 @@
             <c:strRef>
               <c:f>Sheet1!$T$40:$AB$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZALCM</c:v>
                 </c:pt>
@@ -8959,15 +9270,18 @@
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZASLC</c:v>
                 </c:pt>
               </c:strCache>
@@ -8991,13 +9305,13 @@
                 <c:pt idx="3">
                   <c:v>500.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>20.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>950.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9038,7 +9352,7 @@
             <c:strRef>
               <c:f>Sheet1!$T$40:$AB$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZALCM</c:v>
                 </c:pt>
@@ -9052,15 +9366,18 @@
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZASLC</c:v>
                 </c:pt>
               </c:strCache>
@@ -9084,13 +9401,13 @@
                 <c:pt idx="3">
                   <c:v>3200.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2040.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>9600.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>4700.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9131,7 +9448,7 @@
             <c:strRef>
               <c:f>Sheet1!$T$40:$AB$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZALCM</c:v>
                 </c:pt>
@@ -9145,15 +9462,18 @@
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZASLC</c:v>
                 </c:pt>
               </c:strCache>
@@ -9177,13 +9497,13 @@
                 <c:pt idx="3">
                   <c:v>9700.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>25800.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3840.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9224,7 +9544,7 @@
             <c:strRef>
               <c:f>Sheet1!$T$40:$AB$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZALCM</c:v>
                 </c:pt>
@@ -9238,15 +9558,18 @@
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>ZALOI</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>ZALOC</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>ZASLC</c:v>
                 </c:pt>
               </c:strCache>
@@ -9270,13 +9593,13 @@
                 <c:pt idx="3">
                   <c:v>55485.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>30516.336</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>62084.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>29006.92405063292</c:v>
                 </c:pt>
               </c:numCache>
@@ -9440,7 +9763,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AC$40:$AK$40</c:f>
+              <c:f>Sheet1!$AC$40:$AJ$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -9465,7 +9788,7 @@
                   <c:v>ZALOC</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>ZAHMI</c:v>
+                  <c:v>ZAHIC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9494,7 +9817,7 @@
                 <c:pt idx="6">
                   <c:v>8390.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8010.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9533,7 +9856,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AC$40:$AK$40</c:f>
+              <c:f>Sheet1!$AC$40:$AJ$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -9558,7 +9881,7 @@
                   <c:v>ZALOC</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>ZAHMI</c:v>
+                  <c:v>ZAHIC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9587,7 +9910,7 @@
                 <c:pt idx="6">
                   <c:v>9736.799999999999</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>40761.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -9626,7 +9949,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AC$40:$AK$40</c:f>
+              <c:f>Sheet1!$AC$40:$AJ$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -9651,7 +9974,7 @@
                   <c:v>ZALOC</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>ZAHMI</c:v>
+                  <c:v>ZAHIC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9680,7 +10003,7 @@
                 <c:pt idx="6">
                   <c:v>5760.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>7340.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9719,7 +10042,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AC$40:$AK$40</c:f>
+              <c:f>Sheet1!$AC$40:$AJ$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -9744,7 +10067,7 @@
                   <c:v>ZALOC</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>ZAHMI</c:v>
+                  <c:v>ZAHIC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9773,7 +10096,7 @@
                 <c:pt idx="6">
                   <c:v>0.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>720.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9812,7 +10135,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AC$40:$AK$40</c:f>
+              <c:f>Sheet1!$AC$40:$AJ$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -9837,7 +10160,7 @@
                   <c:v>ZALOC</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>ZAHMI</c:v>
+                  <c:v>ZAHIC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9866,7 +10189,7 @@
                 <c:pt idx="6">
                   <c:v>9900.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>22855.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9905,7 +10228,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AC$40:$AK$40</c:f>
+              <c:f>Sheet1!$AC$40:$AJ$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -9930,7 +10253,7 @@
                   <c:v>ZALOC</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>ZAHMI</c:v>
+                  <c:v>ZAHIC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9959,7 +10282,7 @@
                 <c:pt idx="6">
                   <c:v>55800.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>31280.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9998,7 +10321,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AC$40:$AK$40</c:f>
+              <c:f>Sheet1!$AC$40:$AJ$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -10023,7 +10346,7 @@
                   <c:v>ZALOC</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>ZAHMI</c:v>
+                  <c:v>ZAHIC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10052,7 +10375,7 @@
                 <c:pt idx="6">
                   <c:v>10000.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>7986.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -10091,7 +10414,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AC$40:$AK$40</c:f>
+              <c:f>Sheet1!$AC$40:$AJ$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -10116,7 +10439,7 @@
                   <c:v>ZALOC</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>ZAHMI</c:v>
+                  <c:v>ZAHIC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10145,7 +10468,7 @@
                 <c:pt idx="6">
                   <c:v>13220.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -10184,7 +10507,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AC$40:$AK$40</c:f>
+              <c:f>Sheet1!$AC$40:$AJ$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -10209,7 +10532,7 @@
                   <c:v>ZALOC</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>ZAHMI</c:v>
+                  <c:v>ZAHIC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10238,7 +10561,7 @@
                 <c:pt idx="6">
                   <c:v>27612.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>29524.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -10277,7 +10600,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AC$40:$AK$40</c:f>
+              <c:f>Sheet1!$AC$40:$AJ$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -10302,7 +10625,7 @@
                   <c:v>ZALOC</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>ZAHMI</c:v>
+                  <c:v>ZAHIC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10331,7 +10654,7 @@
                 <c:pt idx="6">
                   <c:v>52800.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>17100.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -10370,7 +10693,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AC$40:$AK$40</c:f>
+              <c:f>Sheet1!$AC$40:$AJ$40</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -10395,7 +10718,7 @@
                   <c:v>ZALOC</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>ZAHMI</c:v>
+                  <c:v>ZAHIC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10424,7 +10747,7 @@
                 <c:pt idx="6">
                   <c:v>27131.20000000001</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>46139.79999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -21258,6 +21581,146 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="21">
+          <cell r="C21">
+            <v>0</v>
+          </cell>
+          <cell r="D21">
+            <v>2880</v>
+          </cell>
+          <cell r="E21">
+            <v>46620</v>
+          </cell>
+          <cell r="F21">
+            <v>61695</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>0</v>
+          </cell>
+          <cell r="D22">
+            <v>0</v>
+          </cell>
+          <cell r="E22">
+            <v>0</v>
+          </cell>
+          <cell r="F22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>1000</v>
+          </cell>
+          <cell r="D23">
+            <v>4450</v>
+          </cell>
+          <cell r="E23">
+            <v>7800</v>
+          </cell>
+          <cell r="F23">
+            <v>22500</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>7920</v>
+          </cell>
+          <cell r="D24">
+            <v>9460</v>
+          </cell>
+          <cell r="E24">
+            <v>0</v>
+          </cell>
+          <cell r="F24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>0</v>
+          </cell>
+          <cell r="D25">
+            <v>0</v>
+          </cell>
+          <cell r="E25">
+            <v>42240</v>
+          </cell>
+          <cell r="F25">
+            <v>126000</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>0</v>
+          </cell>
+          <cell r="D26">
+            <v>0</v>
+          </cell>
+          <cell r="E26">
+            <v>0</v>
+          </cell>
+          <cell r="F26">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>0</v>
+          </cell>
+          <cell r="D27">
+            <v>0</v>
+          </cell>
+          <cell r="E27">
+            <v>0</v>
+          </cell>
+          <cell r="F27">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>36840</v>
+          </cell>
+          <cell r="D28">
+            <v>35520</v>
+          </cell>
+          <cell r="E28">
+            <v>25500</v>
+          </cell>
+          <cell r="F28">
+            <v>7800</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>0</v>
+          </cell>
+          <cell r="D29">
+            <v>0</v>
+          </cell>
+          <cell r="E29">
+            <v>0</v>
+          </cell>
+          <cell r="F29">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>0</v>
+          </cell>
+          <cell r="D30">
+            <v>0</v>
+          </cell>
+          <cell r="E30">
+            <v>0</v>
+          </cell>
+          <cell r="F30">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
@@ -21592,8 +22055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AT69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="AG68" sqref="AG68"/>
+    <sheetView tabSelected="1" topLeftCell="S98" workbookViewId="0">
+      <selection activeCell="AD125" sqref="AD125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -25049,24 +25512,27 @@
         <v>17</v>
       </c>
       <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
         <v>14</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>16</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>19</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>15</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>13</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>18</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>21</v>
       </c>
       <c r="K40" t="s">
@@ -25082,15 +25548,18 @@
         <v>13</v>
       </c>
       <c r="O40" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" t="s">
         <v>14</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>16</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>15</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>21</v>
       </c>
       <c r="T40" t="s">
@@ -25106,15 +25575,18 @@
         <v>18</v>
       </c>
       <c r="X40" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y40" t="s">
         <v>13</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>19</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>21</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>16</v>
       </c>
       <c r="AC40" t="s">
@@ -25139,6 +25611,9 @@
         <v>21</v>
       </c>
       <c r="AJ40" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK40" t="s">
         <v>17</v>
       </c>
     </row>
@@ -25167,6 +25642,9 @@
       <c r="I41" t="s">
         <v>1</v>
       </c>
+      <c r="J41" t="s">
+        <v>1</v>
+      </c>
       <c r="K41" t="s">
         <v>2</v>
       </c>
@@ -25191,6 +25669,9 @@
       <c r="R41" t="s">
         <v>2</v>
       </c>
+      <c r="S41" t="s">
+        <v>2</v>
+      </c>
       <c r="T41" t="s">
         <v>3</v>
       </c>
@@ -25215,6 +25696,9 @@
       <c r="AA41" t="s">
         <v>3</v>
       </c>
+      <c r="AB41" t="s">
+        <v>3</v>
+      </c>
       <c r="AC41" t="s">
         <v>4</v>
       </c>
@@ -25237,6 +25721,9 @@
         <v>4</v>
       </c>
       <c r="AJ41" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK41" t="s">
         <v>4</v>
       </c>
     </row>
@@ -25255,30 +25742,34 @@
         <v>0</v>
       </c>
       <c r="C43" s="3">
+        <f>[9]Summ!$C21</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
         <f>[2]Summ!$C21</f>
         <v>0</v>
       </c>
-      <c r="D43" s="3">
+      <c r="E43" s="3">
         <f>[3]Summ!$C21</f>
         <v>0</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <f>[4]Summ!$C21</f>
         <v>1138</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <f>[7]Summ!$C21</f>
         <v>0</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <f>[6]Summ!$C21</f>
         <v>0</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <f>[10]Summ!$C21</f>
         <v>0</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <f>[5]Summ!$C21</f>
         <v>0</v>
       </c>
@@ -25299,18 +25790,22 @@
         <v>350</v>
       </c>
       <c r="O43" s="3">
+        <f>[9]Summ!$D21</f>
+        <v>2880</v>
+      </c>
+      <c r="P43" s="3">
         <f>[2]Summ!$D21</f>
         <v>0</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <f>[3]Summ!$D21</f>
         <v>0</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <f>[7]Summ!$D21</f>
         <v>0</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <f>[5]Summ!$D21</f>
         <v>0</v>
       </c>
@@ -25331,18 +25826,22 @@
         <v>2804</v>
       </c>
       <c r="X43" s="3">
+        <f>[9]Summ!$E21</f>
+        <v>46620</v>
+      </c>
+      <c r="Y43" s="3">
         <f>[6]Summ!$E21</f>
         <v>8330</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <f>[4]Summ!$E21</f>
         <v>5375</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <f>[5]Summ!$E21</f>
         <v>4440</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <f>[3]Summ!$E21</f>
         <v>150</v>
       </c>
@@ -25375,6 +25874,10 @@
         <v>0</v>
       </c>
       <c r="AJ43" s="3">
+        <f>[9]Summ!$F21</f>
+        <v>61695</v>
+      </c>
+      <c r="AK43" s="3">
         <f>[8]Summ!$F21</f>
         <v>0</v>
       </c>
@@ -25389,30 +25892,34 @@
         <v>0</v>
       </c>
       <c r="C44" s="3">
+        <f>[9]Summ!$C22</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
         <f>[2]Summ!$C22</f>
         <v>1400</v>
       </c>
-      <c r="D44" s="3">
+      <c r="E44" s="3">
         <f>[3]Summ!$C22</f>
         <v>500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <f>[4]Summ!$C22</f>
         <v>0</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <f>[7]Summ!$C22</f>
         <v>0</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <f>[6]Summ!$C22</f>
         <v>0</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <f>[10]Summ!$C22</f>
         <v>0</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <f>[5]Summ!$C22</f>
         <v>0</v>
       </c>
@@ -25433,18 +25940,22 @@
         <v>0</v>
       </c>
       <c r="O44" s="3">
+        <f>[9]Summ!$D22</f>
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
         <f>[2]Summ!$D22</f>
         <v>0</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <f>[3]Summ!$D22</f>
         <v>2600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <f>[7]Summ!$D22</f>
         <v>0</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <f>[5]Summ!$D22</f>
         <v>0</v>
       </c>
@@ -25465,18 +25976,22 @@
         <v>0</v>
       </c>
       <c r="X44" s="3">
+        <f>[9]Summ!$E22</f>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
         <f>[6]Summ!$E22</f>
         <v>16200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <f>[4]Summ!$E22</f>
         <v>2800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <f>[5]Summ!$E22</f>
         <v>0</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <f>[3]Summ!$E22</f>
         <v>1600</v>
       </c>
@@ -25509,6 +26024,10 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="3">
+        <f>[9]Summ!$F22</f>
+        <v>0</v>
+      </c>
+      <c r="AK44" s="3">
         <f>[8]Summ!$F22</f>
         <v>0</v>
       </c>
@@ -25523,30 +26042,34 @@
         <v>1200</v>
       </c>
       <c r="C45" s="3">
+        <f>[9]Summ!$C23</f>
+        <v>1000</v>
+      </c>
+      <c r="D45" s="3">
         <f>[2]Summ!$C23</f>
         <v>4200</v>
       </c>
-      <c r="D45" s="3">
+      <c r="E45" s="3">
         <f>[3]Summ!$C23</f>
         <v>135</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <f>[4]Summ!$C23</f>
         <v>0</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <f>[7]Summ!$C23</f>
         <v>0</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <f>[6]Summ!$C23</f>
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <f>[10]Summ!$C23</f>
         <v>0</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <f>[5]Summ!$C23</f>
         <v>0</v>
       </c>
@@ -25567,18 +26090,22 @@
         <v>6400</v>
       </c>
       <c r="O45" s="3">
+        <f>[9]Summ!$D23</f>
+        <v>4450</v>
+      </c>
+      <c r="P45" s="3">
         <f>[2]Summ!$D23</f>
         <v>7600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <f>[3]Summ!$D23</f>
         <v>198</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <f>[7]Summ!$D23</f>
         <v>3630</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <f>[5]Summ!$D23</f>
         <v>0</v>
       </c>
@@ -25599,18 +26126,22 @@
         <v>8600</v>
       </c>
       <c r="X45" s="3">
+        <f>[9]Summ!$E23</f>
+        <v>7800</v>
+      </c>
+      <c r="Y45" s="3">
         <f>[6]Summ!$E23</f>
         <v>7850</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <f>[4]Summ!$E23</f>
         <v>6000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <f>[5]Summ!$E23</f>
         <v>1200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <f>[3]Summ!$E23</f>
         <v>6900</v>
       </c>
@@ -25643,6 +26174,10 @@
         <v>13050</v>
       </c>
       <c r="AJ45" s="3">
+        <f>[9]Summ!$F23</f>
+        <v>22500</v>
+      </c>
+      <c r="AK45" s="3">
         <f>[8]Summ!$F23</f>
         <v>19200</v>
       </c>
@@ -25657,30 +26192,34 @@
         <v>2880</v>
       </c>
       <c r="C46" s="3">
+        <f>[9]Summ!$C24</f>
+        <v>7920</v>
+      </c>
+      <c r="D46" s="3">
         <f>[2]Summ!$C24</f>
         <v>0</v>
       </c>
-      <c r="D46" s="3">
+      <c r="E46" s="3">
         <f>[3]Summ!$C24</f>
         <v>6010</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <f>[4]Summ!$C24</f>
         <v>7140</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <f>[7]Summ!$C24</f>
         <v>7335</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <f>[6]Summ!$C24</f>
         <v>2700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <f>[10]Summ!$C24</f>
         <v>7580</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <f>[5]Summ!$C24</f>
         <v>0</v>
       </c>
@@ -25701,18 +26240,22 @@
         <v>18000</v>
       </c>
       <c r="O46" s="3">
+        <f>[9]Summ!$D24</f>
+        <v>9460</v>
+      </c>
+      <c r="P46" s="3">
         <f>[2]Summ!$D24</f>
         <v>9720</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <f>[3]Summ!$D24</f>
         <v>12050</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <f>[7]Summ!$D24</f>
         <v>12915</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <f>[5]Summ!$D24</f>
         <v>3600</v>
       </c>
@@ -25733,18 +26276,22 @@
         <v>0</v>
       </c>
       <c r="X46" s="3">
+        <f>[9]Summ!$E24</f>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
         <f>[6]Summ!$E24</f>
         <v>0</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <f>[4]Summ!$E24</f>
         <v>0</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <f>[5]Summ!$E24</f>
         <v>6000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <f>[3]Summ!$E24</f>
         <v>980</v>
       </c>
@@ -25777,6 +26324,10 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="3">
+        <f>[9]Summ!$F24</f>
+        <v>0</v>
+      </c>
+      <c r="AK46" s="3">
         <f>[8]Summ!$F24</f>
         <v>0</v>
       </c>
@@ -25791,30 +26342,34 @@
         <v>9000</v>
       </c>
       <c r="C47" s="3">
+        <f>[9]Summ!$C25</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
         <f>[2]Summ!$C25</f>
         <v>0</v>
       </c>
-      <c r="D47" s="3">
+      <c r="E47" s="3">
         <f>[3]Summ!$C25</f>
         <v>0</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <f>[4]Summ!$C25</f>
         <v>0</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <f>[7]Summ!$C25</f>
         <v>0</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <f>[6]Summ!$C25</f>
         <v>0</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <f>[10]Summ!$C25</f>
         <v>0</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <f>[5]Summ!$C25</f>
         <v>0</v>
       </c>
@@ -25835,18 +26390,22 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
+        <f>[9]Summ!$D25</f>
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <f>[2]Summ!$D25</f>
         <v>0</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <f>[3]Summ!$D25</f>
         <v>0</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <f>[7]Summ!$D25</f>
         <v>0</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <f>[5]Summ!$D25</f>
         <v>0</v>
       </c>
@@ -25867,18 +26426,22 @@
         <v>0</v>
       </c>
       <c r="X47" s="3">
+        <f>[9]Summ!$E25</f>
+        <v>42240</v>
+      </c>
+      <c r="Y47" s="3">
         <f>[6]Summ!$E25</f>
         <v>70200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <f>[4]Summ!$E25</f>
         <v>78000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <f>[5]Summ!$E25</f>
         <v>48000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <f>[3]Summ!$E25</f>
         <v>36000</v>
       </c>
@@ -25911,6 +26474,10 @@
         <v>199200</v>
       </c>
       <c r="AJ47" s="3">
+        <f>[9]Summ!$F25</f>
+        <v>126000</v>
+      </c>
+      <c r="AK47" s="3">
         <f>[8]Summ!$F25</f>
         <v>100800</v>
       </c>
@@ -25925,30 +26492,34 @@
         <v>13716</v>
       </c>
       <c r="C48" s="3">
+        <f>[9]Summ!$C26</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="3">
         <f>[2]Summ!$C26</f>
         <v>0</v>
       </c>
-      <c r="D48" s="3">
+      <c r="E48" s="3">
         <f>[3]Summ!$C26</f>
         <v>3600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <f>[4]Summ!$C26</f>
         <v>0</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <f>[7]Summ!$C26</f>
         <v>5040</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <f>[6]Summ!$C26</f>
         <v>600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <f>[10]Summ!$C26</f>
         <v>2292</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <f>[5]Summ!$C26</f>
         <v>0</v>
       </c>
@@ -25969,18 +26540,22 @@
         <v>360</v>
       </c>
       <c r="O48" s="3">
+        <f>[9]Summ!$D26</f>
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
         <f>[2]Summ!$D26</f>
         <v>0</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <f>[3]Summ!$D26</f>
         <v>4100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <f>[7]Summ!$D26</f>
         <v>5040</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <f>[5]Summ!$D26</f>
         <v>0</v>
       </c>
@@ -26001,18 +26576,22 @@
         <v>0</v>
       </c>
       <c r="X48" s="3">
+        <f>[9]Summ!$E26</f>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
         <f>[6]Summ!$E26</f>
         <v>0</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <f>[4]Summ!$E26</f>
         <v>1200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <f>[5]Summ!$E26</f>
         <v>0</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <f>[3]Summ!$E26</f>
         <v>3600</v>
       </c>
@@ -26045,11 +26624,15 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="3">
+        <f>[9]Summ!$F26</f>
+        <v>0</v>
+      </c>
+      <c r="AK48" s="3">
         <f>[8]Summ!$F26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:37">
       <c r="A49" s="3" t="str">
         <f>[5]Summ!A27</f>
         <v>small business</v>
@@ -26059,30 +26642,34 @@
         <v>0</v>
       </c>
       <c r="C49" s="3">
+        <f>[9]Summ!$C27</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
         <f>[2]Summ!$C27</f>
         <v>0</v>
       </c>
-      <c r="D49" s="3">
+      <c r="E49" s="3">
         <f>[3]Summ!$C27</f>
         <v>0</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <f>[4]Summ!$C27</f>
         <v>0</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <f>[7]Summ!$C27</f>
         <v>0</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <f>[6]Summ!$C27</f>
         <v>0</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <f>[10]Summ!$C27</f>
         <v>0</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <f>[5]Summ!$C27</f>
         <v>1200</v>
       </c>
@@ -26103,18 +26690,22 @@
         <v>0</v>
       </c>
       <c r="O49" s="3">
+        <f>[9]Summ!$D27</f>
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
         <f>[2]Summ!$D27</f>
         <v>0</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <f>[3]Summ!$D27</f>
         <v>840</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <f>[7]Summ!$D27</f>
         <v>3600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <f>[5]Summ!$D27</f>
         <v>7200</v>
       </c>
@@ -26135,18 +26726,22 @@
         <v>103200</v>
       </c>
       <c r="X49" s="3">
+        <f>[9]Summ!$E27</f>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
         <f>[6]Summ!$E27</f>
         <v>0</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <f>[4]Summ!$E27</f>
         <v>0</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <f>[5]Summ!$E27</f>
         <v>19200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <f>[3]Summ!$E27</f>
         <v>7200</v>
       </c>
@@ -26179,11 +26774,15 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="3">
+        <f>[9]Summ!$F27</f>
+        <v>0</v>
+      </c>
+      <c r="AK49" s="3">
         <f>[8]Summ!$F27</f>
         <v>91716</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:37">
       <c r="A50" s="3" t="str">
         <f>[5]Summ!A28</f>
         <v>formal cash transfers</v>
@@ -26193,30 +26792,34 @@
         <v>22484</v>
       </c>
       <c r="C50" s="3">
+        <f>[9]Summ!$C28</f>
+        <v>36840</v>
+      </c>
+      <c r="D50" s="3">
         <f>[2]Summ!$C28</f>
         <v>28440</v>
       </c>
-      <c r="D50" s="3">
+      <c r="E50" s="3">
         <f>[3]Summ!$C28</f>
         <v>19980.908313376669</v>
       </c>
-      <c r="E50" s="3">
+      <c r="F50" s="3">
         <f>[4]Summ!$C28</f>
         <v>20220</v>
       </c>
-      <c r="F50" s="3">
+      <c r="G50" s="3">
         <f>[7]Summ!$C28</f>
         <v>17095.815170008718</v>
       </c>
-      <c r="G50" s="3">
+      <c r="H50" s="3">
         <f>[6]Summ!$C28</f>
         <v>22980</v>
       </c>
-      <c r="H50" s="3">
+      <c r="I50" s="3">
         <f>[10]Summ!$C28</f>
         <v>16620</v>
       </c>
-      <c r="I50" s="3">
+      <c r="J50" s="3">
         <f>[5]Summ!$C28</f>
         <v>23940</v>
       </c>
@@ -26237,18 +26840,22 @@
         <v>30180</v>
       </c>
       <c r="O50" s="3">
+        <f>[9]Summ!$D28</f>
+        <v>35520</v>
+      </c>
+      <c r="P50" s="3">
         <f>[2]Summ!$D28</f>
         <v>34944</v>
       </c>
-      <c r="P50" s="3">
+      <c r="Q50" s="3">
         <f>[3]Summ!$D28</f>
         <v>20541.908313376669</v>
       </c>
-      <c r="Q50" s="3">
+      <c r="R50" s="3">
         <f>[7]Summ!$D28</f>
         <v>18586.660854402788</v>
       </c>
-      <c r="R50" s="3">
+      <c r="S50" s="3">
         <f>[5]Summ!$D28</f>
         <v>21960</v>
       </c>
@@ -26269,18 +26876,22 @@
         <v>7620</v>
       </c>
       <c r="X50" s="3">
+        <f>[9]Summ!$E28</f>
+        <v>25500</v>
+      </c>
+      <c r="Y50" s="3">
         <f>[6]Summ!$E28</f>
         <v>15300</v>
       </c>
-      <c r="Y50" s="3">
+      <c r="Z50" s="3">
         <f>[4]Summ!$E28</f>
         <v>7620</v>
       </c>
-      <c r="Z50" s="3">
+      <c r="AA50" s="3">
         <f>[5]Summ!$E28</f>
         <v>19980</v>
       </c>
-      <c r="AA50" s="3">
+      <c r="AB50" s="3">
         <f>[3]Summ!$E28</f>
         <v>8078.9240506329124</v>
       </c>
@@ -26313,11 +26924,15 @@
         <v>8100</v>
       </c>
       <c r="AJ50" s="3">
+        <f>[9]Summ!$F28</f>
+        <v>7800</v>
+      </c>
+      <c r="AK50" s="3">
         <f>[8]Summ!$F28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:37">
       <c r="A51" s="3" t="str">
         <f>[5]Summ!A29</f>
         <v>informal cash transfers (incl gifts, remittances)</v>
@@ -26327,30 +26942,34 @@
         <v>9600</v>
       </c>
       <c r="C51" s="3">
+        <f>[9]Summ!$C29</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="3">
         <f>[2]Summ!$C29</f>
         <v>0</v>
       </c>
-      <c r="D51" s="3">
+      <c r="E51" s="3">
         <f>[3]Summ!$C29</f>
         <v>2850</v>
       </c>
-      <c r="E51" s="3">
+      <c r="F51" s="3">
         <f>[4]Summ!$C29</f>
         <v>0</v>
       </c>
-      <c r="F51" s="3">
+      <c r="G51" s="3">
         <f>[7]Summ!$C29</f>
         <v>0</v>
       </c>
-      <c r="G51" s="3">
+      <c r="H51" s="3">
         <f>[6]Summ!$C29</f>
         <v>0</v>
       </c>
-      <c r="H51" s="3">
+      <c r="I51" s="3">
         <f>[10]Summ!$C29</f>
         <v>0</v>
       </c>
-      <c r="I51" s="3">
+      <c r="J51" s="3">
         <f>[5]Summ!$C29</f>
         <v>0</v>
       </c>
@@ -26371,18 +26990,22 @@
         <v>0</v>
       </c>
       <c r="O51" s="3">
+        <f>[9]Summ!$D29</f>
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
         <f>[2]Summ!$D29</f>
         <v>0</v>
       </c>
-      <c r="P51" s="3">
+      <c r="Q51" s="3">
         <f>[3]Summ!$D29</f>
         <v>3600</v>
       </c>
-      <c r="Q51" s="3">
+      <c r="R51" s="3">
         <f>[7]Summ!$D29</f>
         <v>0</v>
       </c>
-      <c r="R51" s="3">
+      <c r="S51" s="3">
         <f>[5]Summ!$D29</f>
         <v>0</v>
       </c>
@@ -26403,18 +27026,22 @@
         <v>0</v>
       </c>
       <c r="X51" s="3">
+        <f>[9]Summ!$E29</f>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
         <f>[6]Summ!$E29</f>
         <v>0</v>
       </c>
-      <c r="Y51" s="3">
+      <c r="Z51" s="3">
         <f>[4]Summ!$E29</f>
         <v>0</v>
       </c>
-      <c r="Z51" s="3">
+      <c r="AA51" s="3">
         <f>[5]Summ!$E29</f>
         <v>0</v>
       </c>
-      <c r="AA51" s="3">
+      <c r="AB51" s="3">
         <f>[3]Summ!$E29</f>
         <v>24000</v>
       </c>
@@ -26447,11 +27074,15 @@
         <v>0</v>
       </c>
       <c r="AJ51" s="3">
+        <f>[9]Summ!$F29</f>
+        <v>0</v>
+      </c>
+      <c r="AK51" s="3">
         <f>[8]Summ!$F29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:37">
       <c r="A52" s="3" t="str">
         <f>[5]Summ!A30</f>
         <v>other (gifts, wild food sales, fishing, etc)</v>
@@ -26461,30 +27092,34 @@
         <v>0</v>
       </c>
       <c r="C52" s="3">
+        <f>[9]Summ!$C30</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
         <f>[2]Summ!$C30</f>
         <v>0</v>
       </c>
-      <c r="D52" s="3">
+      <c r="E52" s="3">
         <f>[3]Summ!$C30</f>
         <v>640</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <f>[4]Summ!$C30</f>
         <v>1340</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <f>[7]Summ!$C30</f>
         <v>0</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <f>[6]Summ!$C30</f>
         <v>0</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <f>[10]Summ!$C30</f>
         <v>0</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <f>[5]Summ!$C30</f>
         <v>0</v>
       </c>
@@ -26505,18 +27140,22 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <f>[9]Summ!$D30</f>
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <f>[2]Summ!$D30</f>
         <v>0</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <f>[3]Summ!$D30</f>
         <v>640</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <f>[7]Summ!$D30</f>
         <v>0</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <f>[5]Summ!$D30</f>
         <v>0</v>
       </c>
@@ -26537,18 +27176,22 @@
         <v>0</v>
       </c>
       <c r="X52" s="3">
+        <f>[9]Summ!$E30</f>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
         <f>[6]Summ!$E30</f>
         <v>0</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <f>[4]Summ!$E30</f>
         <v>0</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <f>[5]Summ!$E30</f>
         <v>0</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <f>[3]Summ!$E30</f>
         <v>0</v>
       </c>
@@ -26581,48 +27224,56 @@
         <v>0</v>
       </c>
       <c r="AJ52" s="3">
+        <f>[9]Summ!$F30</f>
+        <v>0</v>
+      </c>
+      <c r="AK52" s="3">
         <f>[8]Summ!$F30</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:36" s="4" customFormat="1">
+    <row r="53" spans="1:37" s="4" customFormat="1">
       <c r="A53" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B53" s="6">
-        <f t="shared" ref="B53:I53" si="5">SUM(B43:B52)</f>
+        <f t="shared" ref="B53" si="5">SUM(B43:B52)</f>
         <v>58880</v>
       </c>
       <c r="C53" s="6">
-        <f t="shared" si="5"/>
+        <f>SUM(C43:C52)</f>
+        <v>45760</v>
+      </c>
+      <c r="D53" s="6">
+        <f>SUM(D43:D52)</f>
         <v>34040</v>
       </c>
-      <c r="D53" s="6">
-        <f t="shared" si="5"/>
+      <c r="E53" s="6">
+        <f>SUM(E43:E52)</f>
         <v>33715.908313376669</v>
       </c>
-      <c r="E53" s="6">
-        <f t="shared" si="5"/>
+      <c r="F53" s="6">
+        <f>SUM(F43:F52)</f>
         <v>29838</v>
       </c>
-      <c r="F53" s="6">
-        <f t="shared" si="5"/>
+      <c r="G53" s="6">
+        <f>SUM(G43:G52)</f>
         <v>29470.815170008718</v>
       </c>
-      <c r="G53" s="6">
-        <f t="shared" si="5"/>
+      <c r="H53" s="6">
+        <f>SUM(H43:H52)</f>
         <v>27280</v>
       </c>
-      <c r="H53" s="6">
-        <f t="shared" si="5"/>
+      <c r="I53" s="6">
+        <f>SUM(I43:I52)</f>
         <v>26492</v>
       </c>
-      <c r="I53" s="6">
-        <f t="shared" si="5"/>
+      <c r="J53" s="6">
+        <f>SUM(J43:J52)</f>
         <v>25140</v>
       </c>
       <c r="K53" s="6">
-        <f t="shared" ref="K53:R53" si="6">SUM(K43:K52)</f>
+        <f t="shared" ref="K53:S53" si="6">SUM(K43:K52)</f>
         <v>75184</v>
       </c>
       <c r="L53" s="6">
@@ -26638,23 +27289,27 @@
         <v>55290</v>
       </c>
       <c r="O53" s="6">
-        <f t="shared" si="6"/>
+        <f>SUM(O43:O52)</f>
+        <v>52310</v>
+      </c>
+      <c r="P53" s="6">
+        <f>SUM(P43:P52)</f>
         <v>52264</v>
       </c>
-      <c r="P53" s="6">
-        <f t="shared" si="6"/>
+      <c r="Q53" s="6">
+        <f>SUM(Q43:Q52)</f>
         <v>44569.908313376669</v>
       </c>
-      <c r="Q53" s="6">
-        <f t="shared" si="6"/>
+      <c r="R53" s="6">
+        <f>SUM(R43:R52)</f>
         <v>43771.660854402784</v>
       </c>
-      <c r="R53" s="6">
-        <f t="shared" si="6"/>
+      <c r="S53" s="6">
+        <f>SUM(S43:S52)</f>
         <v>32760</v>
       </c>
       <c r="T53" s="6">
-        <f t="shared" ref="T53:AA53" si="7">SUM(T43:T52)</f>
+        <f t="shared" ref="T53:AB53" si="7">SUM(T43:T52)</f>
         <v>179275</v>
       </c>
       <c r="U53" s="6">
@@ -26670,23 +27325,27 @@
         <v>122224</v>
       </c>
       <c r="X53" s="6">
-        <f t="shared" si="7"/>
+        <f>SUM(X43:X52)</f>
+        <v>122160</v>
+      </c>
+      <c r="Y53" s="6">
+        <f>SUM(Y43:Y52)</f>
         <v>117880</v>
       </c>
-      <c r="Y53" s="6">
-        <f t="shared" si="7"/>
+      <c r="Z53" s="6">
+        <f>SUM(Z43:Z52)</f>
         <v>100995</v>
       </c>
-      <c r="Z53" s="6">
-        <f t="shared" si="7"/>
+      <c r="AA53" s="6">
+        <f>SUM(AA43:AA52)</f>
         <v>98820</v>
       </c>
-      <c r="AA53" s="6">
-        <f t="shared" si="7"/>
+      <c r="AB53" s="6">
+        <f>SUM(AB43:AB52)</f>
         <v>88508.924050632922</v>
       </c>
       <c r="AC53" s="6">
-        <f t="shared" ref="AC53:AJ53" si="8">SUM(AC43:AC52)</f>
+        <f t="shared" ref="AC53:AK53" si="8">SUM(AC43:AC52)</f>
         <v>340312.90322580643</v>
       </c>
       <c r="AD53" s="6">
@@ -26714,16 +27373,20 @@
         <v>220350</v>
       </c>
       <c r="AJ53" s="6">
-        <f t="shared" si="8"/>
+        <f>SUM(AJ43:AJ52)</f>
+        <v>217995</v>
+      </c>
+      <c r="AK53" s="6">
+        <f>SUM(AK43:AK52)</f>
         <v>211716</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:37">
       <c r="A56" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:37">
       <c r="A57" s="3" t="str">
         <f>[5]Summ!A32</f>
         <v>staple food</v>
@@ -26732,27 +27395,27 @@
         <f>[8]Summ!$C32</f>
         <v>10446</v>
       </c>
-      <c r="C57" s="3">
+      <c r="D57" s="3">
         <f>[2]Summ!$C32</f>
         <v>8660</v>
       </c>
-      <c r="D57" s="3">
+      <c r="E57" s="3">
         <f>[3]Summ!$C32</f>
         <v>5550</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <f>[7]Summ!$C32</f>
         <v>5448</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <f>[6]Summ!$C32</f>
         <v>6780</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <f>[10]Summ!$C32</f>
         <v>4800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <f>[5]Summ!C32</f>
         <v>6840</v>
       </c>
@@ -26768,19 +27431,19 @@
         <f>[6]Summ!$D32</f>
         <v>5880</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <f>[2]Summ!$D32</f>
         <v>5870</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <f>[3]Summ!$D32</f>
         <v>5100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <f>[7]Summ!$D32</f>
         <v>6010</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <f>[5]Summ!D32</f>
         <v>9612</v>
       </c>
@@ -26800,15 +27463,15 @@
         <f>[10]Summ!$E32</f>
         <v>3444</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <f>[6]Summ!$E32</f>
         <v>4704</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <f>[5]Summ!E32</f>
         <v>7920</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <f>[3]Summ!$E32</f>
         <v>5124</v>
       </c>
@@ -26836,12 +27499,12 @@
         <f>[5]Summ!F32</f>
         <v>8390</v>
       </c>
-      <c r="AJ57" s="3">
+      <c r="AK57" s="3">
         <f>[8]Summ!$F32</f>
         <v>8010</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:37">
       <c r="A58" s="3" t="str">
         <f>[5]Summ!A33</f>
         <v>non-staple food</v>
@@ -26850,27 +27513,27 @@
         <f>[8]Summ!$C33</f>
         <v>12220</v>
       </c>
-      <c r="C58" s="3">
+      <c r="D58" s="3">
         <f>[2]Summ!$C33</f>
         <v>8616</v>
       </c>
-      <c r="D58" s="3">
+      <c r="E58" s="3">
         <f>[3]Summ!$C33</f>
         <v>5821</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <f>[7]Summ!$C33</f>
         <v>1400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <f>[6]Summ!$C33</f>
         <v>6746.4</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <f>[10]Summ!$C33</f>
         <v>1140</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <f>[5]Summ!C33</f>
         <v>6042</v>
       </c>
@@ -26886,19 +27549,19 @@
         <f>[6]Summ!$D33</f>
         <v>7590.0480000000007</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <f>[2]Summ!$D33</f>
         <v>11028</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <f>[3]Summ!$D33</f>
         <v>5233</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <f>[7]Summ!$D33</f>
         <v>4148</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <f>[5]Summ!D33</f>
         <v>7584</v>
       </c>
@@ -26918,15 +27581,15 @@
         <f>[10]Summ!$E33</f>
         <v>11004</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <f>[6]Summ!$E33</f>
         <v>8219.6640000000007</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <f>[5]Summ!E33</f>
         <v>12756</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <f>[3]Summ!$E33</f>
         <v>8448</v>
       </c>
@@ -26954,12 +27617,12 @@
         <f>[5]Summ!F33</f>
         <v>9736.7999999999993</v>
       </c>
-      <c r="AJ58" s="3">
+      <c r="AK58" s="3">
         <f>[8]Summ!$F33</f>
         <v>40761.199999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:37">
       <c r="A59" s="3" t="str">
         <f>[5]Summ!A34</f>
         <v>HH items</v>
@@ -26968,27 +27631,27 @@
         <f>[8]Summ!$C34</f>
         <v>2811</v>
       </c>
-      <c r="C59" s="3">
+      <c r="D59" s="3">
         <f>[2]Summ!$C34</f>
         <v>2180</v>
       </c>
-      <c r="D59" s="3">
+      <c r="E59" s="3">
         <f>[3]Summ!$C34</f>
         <v>2610</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <f>[7]Summ!$C34</f>
         <v>2010</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <f>[6]Summ!$C34</f>
         <v>1126</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <f>[10]Summ!$C34</f>
         <v>2100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <f>[5]Summ!C34</f>
         <v>840</v>
       </c>
@@ -27004,19 +27667,19 @@
         <f>[6]Summ!$D34</f>
         <v>3910</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <f>[2]Summ!$D34</f>
         <v>2550</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <f>[3]Summ!$D34</f>
         <v>3510</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <f>[7]Summ!$D34</f>
         <v>3610</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <f>[5]Summ!D34</f>
         <v>1680</v>
       </c>
@@ -27036,15 +27699,15 @@
         <f>[10]Summ!$E34</f>
         <v>4653</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <f>[6]Summ!$E34</f>
         <v>5280</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <f>[5]Summ!E34</f>
         <v>3880</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <f>[3]Summ!$E34</f>
         <v>5430</v>
       </c>
@@ -27072,12 +27735,12 @@
         <f>[5]Summ!F34</f>
         <v>5760</v>
       </c>
-      <c r="AJ59" s="3">
+      <c r="AK59" s="3">
         <f>[8]Summ!$F34</f>
         <v>7340</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:37">
       <c r="A60" s="3" t="str">
         <f>[5]Summ!A35</f>
         <v>water</v>
@@ -27086,27 +27749,27 @@
         <f>[8]Summ!$C35</f>
         <v>360</v>
       </c>
-      <c r="C60" s="3">
+      <c r="D60" s="3">
         <f>[2]Summ!$C35</f>
         <v>360</v>
       </c>
-      <c r="D60" s="3">
+      <c r="E60" s="3">
         <f>[3]Summ!$C35</f>
         <v>4320</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <f>[7]Summ!$C35</f>
         <v>0</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <f>[6]Summ!$C35</f>
         <v>0</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <f>[10]Summ!$C35</f>
         <v>0</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <f>[5]Summ!C35</f>
         <v>0</v>
       </c>
@@ -27122,19 +27785,19 @@
         <f>[6]Summ!$D35</f>
         <v>0</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <f>[2]Summ!$D35</f>
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <f>[3]Summ!$D35</f>
         <v>2400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <f>[7]Summ!$D35</f>
         <v>0</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <f>[5]Summ!D35</f>
         <v>0</v>
       </c>
@@ -27154,15 +27817,15 @@
         <f>[10]Summ!$E35</f>
         <v>0</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <f>[6]Summ!$E35</f>
         <v>0</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <f>[5]Summ!E35</f>
         <v>0</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <f>[3]Summ!$E35</f>
         <v>1200</v>
       </c>
@@ -27190,12 +27853,12 @@
         <f>[5]Summ!F35</f>
         <v>0</v>
       </c>
-      <c r="AJ60" s="3">
+      <c r="AK60" s="3">
         <f>[8]Summ!$F35</f>
         <v>720</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:37">
       <c r="A61" s="3" t="str">
         <f>[5]Summ!A36</f>
         <v>inputs</v>
@@ -27204,27 +27867,27 @@
         <f>[8]Summ!$C36</f>
         <v>0</v>
       </c>
-      <c r="C61" s="3">
+      <c r="D61" s="3">
         <f>[2]Summ!$C36</f>
         <v>1700</v>
       </c>
-      <c r="D61" s="3">
+      <c r="E61" s="3">
         <f>[3]Summ!$C36</f>
         <v>342</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <f>[7]Summ!$C36</f>
         <v>270</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <f>[6]Summ!$C36</f>
         <v>0</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <f>[10]Summ!$C36</f>
         <v>385</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <f>[5]Summ!C36</f>
         <v>0</v>
       </c>
@@ -27240,19 +27903,19 @@
         <f>[6]Summ!$D36</f>
         <v>5000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <f>[2]Summ!$D36</f>
         <v>2700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <f>[3]Summ!$D36</f>
         <v>1305</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <f>[7]Summ!$D36</f>
         <v>1550</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <f>[5]Summ!D36</f>
         <v>20</v>
       </c>
@@ -27272,15 +27935,15 @@
         <f>[10]Summ!$E36</f>
         <v>23957</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <f>[6]Summ!$E36</f>
         <v>11500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <f>[5]Summ!E36</f>
         <v>300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <f>[3]Summ!$E36</f>
         <v>20610</v>
       </c>
@@ -27308,12 +27971,12 @@
         <f>[5]Summ!F36</f>
         <v>9900</v>
       </c>
-      <c r="AJ61" s="3">
+      <c r="AK61" s="3">
         <f>[8]Summ!$F36</f>
         <v>22855</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:37">
       <c r="A62" s="3" t="str">
         <f>[5]Summ!A37</f>
         <v>social serv.</v>
@@ -27322,27 +27985,27 @@
         <f>[8]Summ!$C37</f>
         <v>1000</v>
       </c>
-      <c r="C62" s="3">
+      <c r="D62" s="3">
         <f>[2]Summ!$C37</f>
         <v>2000</v>
       </c>
-      <c r="D62" s="3">
+      <c r="E62" s="3">
         <f>[3]Summ!$C37</f>
         <v>1400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <f>[7]Summ!$C37</f>
         <v>1650</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <f>[6]Summ!$C37</f>
         <v>1650</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <f>[10]Summ!$C37</f>
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <f>[5]Summ!C37</f>
         <v>0</v>
       </c>
@@ -27358,19 +28021,19 @@
         <f>[6]Summ!$D37</f>
         <v>1600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <f>[2]Summ!$D37</f>
         <v>2000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <f>[3]Summ!$D37</f>
         <v>2200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <f>[7]Summ!$D37</f>
         <v>1750</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <f>[5]Summ!D37</f>
         <v>800</v>
       </c>
@@ -27390,15 +28053,15 @@
         <f>[10]Summ!$E37</f>
         <v>5381</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <f>[6]Summ!$E37</f>
         <v>25800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <f>[5]Summ!E37</f>
         <v>480</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <f>[3]Summ!$E37</f>
         <v>4700</v>
       </c>
@@ -27426,12 +28089,12 @@
         <f>[5]Summ!F37</f>
         <v>55800</v>
       </c>
-      <c r="AJ62" s="3">
+      <c r="AK62" s="3">
         <f>[8]Summ!$F37</f>
         <v>31280</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:37">
       <c r="A63" s="3" t="str">
         <f>[5]Summ!A38</f>
         <v>clothes</v>
@@ -27440,27 +28103,27 @@
         <f>[8]Summ!$C38</f>
         <v>1671</v>
       </c>
-      <c r="C63" s="3">
+      <c r="D63" s="3">
         <f>[2]Summ!$C38</f>
         <v>1500</v>
       </c>
-      <c r="D63" s="3">
+      <c r="E63" s="3">
         <f>[3]Summ!$C38</f>
         <v>1250</v>
       </c>
-      <c r="F63" s="3">
+      <c r="G63" s="3">
         <f>[7]Summ!$C38</f>
         <v>900</v>
       </c>
-      <c r="G63" s="3">
+      <c r="H63" s="3">
         <f>[6]Summ!$C38</f>
         <v>1500</v>
       </c>
-      <c r="H63" s="3">
+      <c r="I63" s="3">
         <f>[10]Summ!$C38</f>
         <v>800</v>
       </c>
-      <c r="I63" s="3">
+      <c r="J63" s="3">
         <f>[5]Summ!C38</f>
         <v>0</v>
       </c>
@@ -27476,19 +28139,19 @@
         <f>[6]Summ!$D38</f>
         <v>2000</v>
       </c>
-      <c r="O63" s="3">
+      <c r="P63" s="3">
         <f>[2]Summ!$D38</f>
         <v>3000</v>
       </c>
-      <c r="P63" s="3">
+      <c r="Q63" s="3">
         <f>[3]Summ!$D38</f>
         <v>2000</v>
       </c>
-      <c r="Q63" s="3">
+      <c r="R63" s="3">
         <f>[7]Summ!$D38</f>
         <v>2000</v>
       </c>
-      <c r="R63" s="3">
+      <c r="S63" s="3">
         <f>[5]Summ!D38</f>
         <v>1000</v>
       </c>
@@ -27508,15 +28171,15 @@
         <f>[10]Summ!$E38</f>
         <v>4900</v>
       </c>
-      <c r="X63" s="3">
+      <c r="Y63" s="3">
         <f>[6]Summ!$E38</f>
         <v>4000</v>
       </c>
-      <c r="Z63" s="3">
+      <c r="AA63" s="3">
         <f>[5]Summ!E38</f>
         <v>1800</v>
       </c>
-      <c r="AA63" s="3">
+      <c r="AB63" s="3">
         <f>[3]Summ!$E38</f>
         <v>4500</v>
       </c>
@@ -27544,12 +28207,12 @@
         <f>[5]Summ!F38</f>
         <v>10000</v>
       </c>
-      <c r="AJ63" s="3">
+      <c r="AK63" s="3">
         <f>[8]Summ!$F38</f>
         <v>7986</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:37">
       <c r="A64" s="3" t="str">
         <f>[5]Summ!A39</f>
         <v>tax &amp; gifts</v>
@@ -27558,27 +28221,27 @@
         <f>[8]Summ!$C39</f>
         <v>407</v>
       </c>
-      <c r="C64" s="3">
+      <c r="D64" s="3">
         <f>[2]Summ!$C39</f>
         <v>720</v>
       </c>
-      <c r="D64" s="3">
+      <c r="E64" s="3">
         <f>[3]Summ!$C39</f>
         <v>600</v>
       </c>
-      <c r="F64" s="3">
+      <c r="G64" s="3">
         <f>[7]Summ!$C39</f>
         <v>900</v>
       </c>
-      <c r="G64" s="3">
+      <c r="H64" s="3">
         <f>[6]Summ!$C39</f>
         <v>20</v>
       </c>
-      <c r="H64" s="3">
+      <c r="I64" s="3">
         <f>[10]Summ!$C39</f>
         <v>120</v>
       </c>
-      <c r="I64" s="3">
+      <c r="J64" s="3">
         <f>[5]Summ!C39</f>
         <v>0</v>
       </c>
@@ -27594,19 +28257,19 @@
         <f>[6]Summ!$D39</f>
         <v>25</v>
       </c>
-      <c r="O64" s="3">
+      <c r="P64" s="3">
         <f>[2]Summ!$D39</f>
         <v>1500</v>
       </c>
-      <c r="P64" s="3">
+      <c r="Q64" s="3">
         <f>[3]Summ!$D39</f>
         <v>648</v>
       </c>
-      <c r="Q64" s="3">
+      <c r="R64" s="3">
         <f>[7]Summ!$D39</f>
         <v>1140</v>
       </c>
-      <c r="R64" s="3">
+      <c r="S64" s="3">
         <f>[5]Summ!D39</f>
         <v>1440</v>
       </c>
@@ -27626,15 +28289,15 @@
         <f>[10]Summ!$E39</f>
         <v>500</v>
       </c>
-      <c r="X64" s="3">
+      <c r="Y64" s="3">
         <f>[6]Summ!$E39</f>
         <v>20</v>
       </c>
-      <c r="Z64" s="3">
+      <c r="AA64" s="3">
         <f>[5]Summ!E39</f>
         <v>0</v>
       </c>
-      <c r="AA64" s="3">
+      <c r="AB64" s="3">
         <f>[3]Summ!$E39</f>
         <v>950</v>
       </c>
@@ -27662,12 +28325,12 @@
         <f>[5]Summ!F39</f>
         <v>13220</v>
       </c>
-      <c r="AJ64" s="3">
+      <c r="AK64" s="3">
         <f>[8]Summ!$F39</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:37">
       <c r="A65" s="3" t="str">
         <f>[5]Summ!A40</f>
         <v>transport &amp; communication</v>
@@ -27676,27 +28339,27 @@
         <f>[8]Summ!$C40</f>
         <v>953</v>
       </c>
-      <c r="C65" s="3">
+      <c r="D65" s="3">
         <f>[2]Summ!$C40</f>
         <v>636</v>
       </c>
-      <c r="D65" s="3">
+      <c r="E65" s="3">
         <f>[3]Summ!$C40</f>
         <v>875</v>
       </c>
-      <c r="F65" s="3">
+      <c r="G65" s="3">
         <f>[7]Summ!$C40</f>
         <v>1400</v>
       </c>
-      <c r="G65" s="3">
+      <c r="H65" s="3">
         <f>[6]Summ!$C40</f>
         <v>840</v>
       </c>
-      <c r="H65" s="3">
+      <c r="I65" s="3">
         <f>[10]Summ!$C40</f>
         <v>470</v>
       </c>
-      <c r="I65" s="3">
+      <c r="J65" s="3">
         <f>[5]Summ!C40</f>
         <v>78</v>
       </c>
@@ -27712,19 +28375,19 @@
         <f>[6]Summ!$D40</f>
         <v>1296</v>
       </c>
-      <c r="O65" s="3">
+      <c r="P65" s="3">
         <f>[2]Summ!$D40</f>
         <v>768</v>
       </c>
-      <c r="P65" s="3">
+      <c r="Q65" s="3">
         <f>[3]Summ!$D40</f>
         <v>1044</v>
       </c>
-      <c r="Q65" s="3">
+      <c r="R65" s="3">
         <f>[7]Summ!$D40</f>
         <v>1800</v>
       </c>
-      <c r="R65" s="3">
+      <c r="S65" s="3">
         <f>[5]Summ!D40</f>
         <v>1260</v>
       </c>
@@ -27744,15 +28407,15 @@
         <f>[10]Summ!$E40</f>
         <v>3200</v>
       </c>
-      <c r="X65" s="3">
+      <c r="Y65" s="3">
         <f>[6]Summ!$E40</f>
         <v>2040</v>
       </c>
-      <c r="Z65" s="3">
+      <c r="AA65" s="3">
         <f>[5]Summ!E40</f>
         <v>9600</v>
       </c>
-      <c r="AA65" s="3">
+      <c r="AB65" s="3">
         <f>[3]Summ!$E40</f>
         <v>4700</v>
       </c>
@@ -27780,12 +28443,12 @@
         <f>[5]Summ!F40</f>
         <v>27612</v>
       </c>
-      <c r="AJ65" s="3">
+      <c r="AK65" s="3">
         <f>[8]Summ!$F40</f>
         <v>29524</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:37">
       <c r="A66" s="3" t="str">
         <f>[5]Summ!A41</f>
         <v>other (entertainment, etc.)</v>
@@ -27794,27 +28457,27 @@
         <f>[8]Summ!$C41</f>
         <v>3071</v>
       </c>
-      <c r="C66" s="3">
+      <c r="D66" s="3">
         <f>[2]Summ!$C41</f>
         <v>0</v>
       </c>
-      <c r="D66" s="3">
+      <c r="E66" s="3">
         <f>[3]Summ!$C41</f>
         <v>840</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <f>[7]Summ!$C41</f>
         <v>300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <f>[6]Summ!$C41</f>
         <v>4780</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <f>[10]Summ!$C41</f>
         <v>210</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <f>[5]Summ!C41</f>
         <v>0</v>
       </c>
@@ -27830,19 +28493,19 @@
         <f>[6]Summ!$D41</f>
         <v>9240</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <f>[2]Summ!$D41</f>
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <f>[3]Summ!$D41</f>
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <f>[7]Summ!$D41</f>
         <v>1080</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <f>[5]Summ!D41</f>
         <v>5348</v>
       </c>
@@ -27862,15 +28525,15 @@
         <f>[10]Summ!$E41</f>
         <v>9700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <f>[6]Summ!$E41</f>
         <v>25800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <f>[5]Summ!E41</f>
         <v>0</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <f>[3]Summ!$E41</f>
         <v>3840</v>
       </c>
@@ -27898,12 +28561,12 @@
         <f>[5]Summ!F41</f>
         <v>52800</v>
       </c>
-      <c r="AJ66" s="3">
+      <c r="AK66" s="3">
         <f>[8]Summ!$F41</f>
         <v>17100</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:37">
       <c r="A67" s="3" t="str">
         <f>[5]Summ!A43</f>
         <v>income minus expenditure</v>
@@ -27912,27 +28575,27 @@
         <f>[8]Summ!$C43</f>
         <v>25941</v>
       </c>
-      <c r="C67" s="3">
+      <c r="D67" s="3">
         <f>[2]Summ!$C43</f>
         <v>7668</v>
       </c>
-      <c r="D67" s="3">
+      <c r="E67" s="3">
         <f>[3]Summ!$C43</f>
         <v>10107.908313376669</v>
       </c>
-      <c r="F67" s="3">
+      <c r="G67" s="3">
         <f>[7]Summ!$C43</f>
         <v>15192.815170008718</v>
       </c>
-      <c r="G67" s="3">
+      <c r="H67" s="3">
         <f>[6]Summ!$C43</f>
         <v>3837.5999999999985</v>
       </c>
-      <c r="H67" s="3">
+      <c r="I67" s="3">
         <f>[10]Summ!$C43</f>
         <v>15567</v>
       </c>
-      <c r="I67" s="3">
+      <c r="J67" s="3">
         <f>[5]Summ!C43</f>
         <v>11340</v>
       </c>
@@ -27948,19 +28611,19 @@
         <f>[6]Summ!$D43</f>
         <v>18748.951999999997</v>
       </c>
-      <c r="O67" s="3">
+      <c r="P67" s="3">
         <f>[2]Summ!$D43</f>
         <v>21948</v>
       </c>
-      <c r="P67" s="3">
+      <c r="Q67" s="3">
         <f>[3]Summ!$D43</f>
         <v>19729.908313376669</v>
       </c>
-      <c r="Q67" s="3">
+      <c r="R67" s="3">
         <f>[7]Summ!$D43</f>
         <v>20683.660854402784</v>
       </c>
-      <c r="R67" s="3">
+      <c r="S67" s="3">
         <f>[5]Summ!D43</f>
         <v>4016</v>
       </c>
@@ -27980,15 +28643,15 @@
         <f>[10]Summ!$E43</f>
         <v>55485</v>
       </c>
-      <c r="X67" s="3">
+      <c r="Y67" s="3">
         <f>[6]Summ!$E43</f>
         <v>30516.335999999996</v>
       </c>
-      <c r="Z67" s="3">
+      <c r="AA67" s="3">
         <f>[5]Summ!E43</f>
         <v>62084</v>
       </c>
-      <c r="AA67" s="3">
+      <c r="AB67" s="3">
         <f>[3]Summ!$E43</f>
         <v>29006.924050632922</v>
       </c>
@@ -28016,12 +28679,12 @@
         <f>[5]Summ!F43</f>
         <v>27131.200000000012</v>
       </c>
-      <c r="AJ67" s="3">
+      <c r="AK67" s="3">
         <f>[8]Summ!$F43</f>
         <v>46139.799999999988</v>
       </c>
     </row>
-    <row r="68" spans="1:36" s="4" customFormat="1">
+    <row r="68" spans="1:37" s="4" customFormat="1">
       <c r="A68" s="6" t="s">
         <v>11</v>
       </c>
@@ -28029,28 +28692,28 @@
         <f>SUM(B57:B67)</f>
         <v>58880</v>
       </c>
-      <c r="C68" s="6">
-        <f>SUM(C57:C67)</f>
-        <v>34040</v>
-      </c>
       <c r="D68" s="6">
         <f>SUM(D57:D67)</f>
+        <v>34040</v>
+      </c>
+      <c r="E68" s="6">
+        <f>SUM(E57:E67)</f>
         <v>33715.908313376669</v>
-      </c>
-      <c r="F68" s="6">
-        <f>SUM(F57:F67)</f>
-        <v>29470.815170008718</v>
       </c>
       <c r="G68" s="6">
         <f>SUM(G57:G67)</f>
-        <v>27280</v>
+        <v>29470.815170008718</v>
       </c>
       <c r="H68" s="6">
         <f>SUM(H57:H67)</f>
-        <v>26492</v>
+        <v>27280</v>
       </c>
       <c r="I68" s="6">
         <f>SUM(I57:I67)</f>
+        <v>26492</v>
+      </c>
+      <c r="J68" s="6">
+        <f>SUM(J57:J67)</f>
         <v>25140</v>
       </c>
       <c r="K68" s="6">
@@ -28065,20 +28728,20 @@
         <f>SUM(N57:N67)</f>
         <v>55290</v>
       </c>
-      <c r="O68" s="6">
-        <f>SUM(O57:O67)</f>
-        <v>52264</v>
-      </c>
       <c r="P68" s="6">
         <f>SUM(P57:P67)</f>
-        <v>44569.908313376669</v>
+        <v>52264</v>
       </c>
       <c r="Q68" s="6">
         <f>SUM(Q57:Q67)</f>
-        <v>43771.660854402784</v>
+        <v>44569.908313376669</v>
       </c>
       <c r="R68" s="6">
         <f>SUM(R57:R67)</f>
+        <v>43771.660854402784</v>
+      </c>
+      <c r="S68" s="6">
+        <f>SUM(S57:S67)</f>
         <v>32760</v>
       </c>
       <c r="T68" s="6">
@@ -28097,16 +28760,16 @@
         <f>SUM(W57:W67)</f>
         <v>122224</v>
       </c>
-      <c r="X68" s="6">
-        <f>SUM(X57:X67)</f>
+      <c r="Y68" s="6">
+        <f>SUM(Y57:Y67)</f>
         <v>117880</v>
-      </c>
-      <c r="Z68" s="6">
-        <f>SUM(Z57:Z67)</f>
-        <v>98820</v>
       </c>
       <c r="AA68" s="6">
         <f>SUM(AA57:AA67)</f>
+        <v>98820</v>
+      </c>
+      <c r="AB68" s="6">
+        <f>SUM(AB57:AB67)</f>
         <v>88508.924050632922</v>
       </c>
       <c r="AC68" s="6">
@@ -28133,12 +28796,12 @@
         <f>SUM(AI57:AI67)</f>
         <v>220350</v>
       </c>
-      <c r="AJ68" s="6">
-        <f>SUM(AJ57:AJ67)</f>
+      <c r="AK68" s="6">
+        <f>SUM(AK57:AK67)</f>
         <v>211716</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:37">
       <c r="B69" s="3"/>
     </row>
   </sheetData>

--- a/za_summary.xlsx
+++ b/za_summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16780" tabRatio="500"/>
+    <workbookView xWindow="7040" yWindow="7040" windowWidth="18560" windowHeight="9020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,8 +154,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="619">
+  <cellStyleXfs count="635">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -784,7 +800,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="619">
+  <cellStyles count="635">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1094,6 +1110,14 @@
     <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="634" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1403,6 +1427,14 @@
     <cellStyle name="Hyperlink" xfId="613" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="615" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="633" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1731,11 +1763,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2142294456"/>
-        <c:axId val="2142291320"/>
+        <c:axId val="1552865640"/>
+        <c:axId val="1552868760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2142294456"/>
+        <c:axId val="1552865640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1744,7 +1776,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142291320"/>
+        <c:crossAx val="1552868760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1752,7 +1784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142291320"/>
+        <c:axId val="1552868760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1763,7 +1795,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142294456"/>
+        <c:crossAx val="1552865640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2807,11 +2839,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1974510696"/>
-        <c:axId val="-1957563656"/>
+        <c:axId val="1553259928"/>
+        <c:axId val="1553262872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1974510696"/>
+        <c:axId val="1553259928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2820,7 +2852,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1957563656"/>
+        <c:crossAx val="1553262872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2828,7 +2860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1957563656"/>
+        <c:axId val="1553262872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2839,7 +2871,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1974510696"/>
+        <c:crossAx val="1553259928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3949,11 +3981,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1811716520"/>
-        <c:axId val="1811719464"/>
+        <c:axId val="1553333832"/>
+        <c:axId val="1553336776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1811716520"/>
+        <c:axId val="1553333832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3962,7 +3994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1811719464"/>
+        <c:crossAx val="1553336776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3970,7 +4002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1811719464"/>
+        <c:axId val="1553336776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3981,7 +4013,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1811716520"/>
+        <c:crossAx val="1553333832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5089,11 +5121,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1811658904"/>
-        <c:axId val="1811661224"/>
+        <c:axId val="1553407112"/>
+        <c:axId val="1553410056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1811658904"/>
+        <c:axId val="1553407112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5102,7 +5134,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1811661224"/>
+        <c:crossAx val="1553410056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5110,7 +5142,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1811661224"/>
+        <c:axId val="1553410056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5121,7 +5153,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1811658904"/>
+        <c:crossAx val="1553407112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6139,11 +6171,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1957118152"/>
-        <c:axId val="-1952855592"/>
+        <c:axId val="1553475096"/>
+        <c:axId val="1553478008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1957118152"/>
+        <c:axId val="1553475096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6152,7 +6184,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1952855592"/>
+        <c:crossAx val="1553478008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6160,7 +6192,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1952855592"/>
+        <c:axId val="1553478008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6171,7 +6203,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1957118152"/>
+        <c:crossAx val="1553475096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6286,9 +6318,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$I$40</c:f>
+              <c:f>Sheet1!$B$40:$J$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -6312,33 +6344,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$57:$I$57</c:f>
+              <c:f>Sheet1!$B$57:$J$57</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0" formatCode="0">
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
                   <c:v>10446.0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="1">
+                  <c:v>14140.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>8660.0</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0">
+                <c:pt idx="3">
                   <c:v>5550.0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="4">
+                  <c:v>3840.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>5448.0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="6">
                   <c:v>6780.0</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="7">
                   <c:v>4800.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6840.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6376,9 +6420,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$I$40</c:f>
+              <c:f>Sheet1!$B$40:$J$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -6402,33 +6446,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$58:$I$58</c:f>
+              <c:f>Sheet1!$B$58:$J$58</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0" formatCode="0">
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
                   <c:v>12220.0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="1">
+                  <c:v>5386.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>8616.0</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0">
+                <c:pt idx="3">
                   <c:v>5821.0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="4">
+                  <c:v>4357.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1400.0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="6">
                   <c:v>6746.4</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="7">
                   <c:v>1140.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6042.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6466,9 +6522,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$I$40</c:f>
+              <c:f>Sheet1!$B$40:$J$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -6492,33 +6548,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$59:$I$59</c:f>
+              <c:f>Sheet1!$B$59:$J$59</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0" formatCode="0">
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
                   <c:v>2811.0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="1">
+                  <c:v>1220.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2180.0</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0">
+                <c:pt idx="3">
                   <c:v>2610.0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="4">
+                  <c:v>3020.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2010.0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="6">
                   <c:v>1126.0</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="7">
                   <c:v>2100.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>840.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6556,9 +6624,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$I$40</c:f>
+              <c:f>Sheet1!$B$40:$J$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -6582,32 +6650,44 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$60:$I$60</c:f>
+              <c:f>Sheet1!$B$60:$J$60</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0" formatCode="0">
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
                   <c:v>360.0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="1">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>360.0</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0">
+                <c:pt idx="3">
                   <c:v>4320.0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="4">
+                  <c:v>4680.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6646,9 +6726,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$I$40</c:f>
+              <c:f>Sheet1!$B$40:$J$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -6672,33 +6752,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$61:$I$61</c:f>
+              <c:f>Sheet1!$B$61:$J$61</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0" formatCode="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>480.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1700.0</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0">
+                <c:pt idx="3">
                   <c:v>342.0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="4">
+                  <c:v>795.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>270.0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>385.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6736,9 +6828,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$I$40</c:f>
+              <c:f>Sheet1!$B$40:$J$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -6762,33 +6854,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$62:$I$62</c:f>
+              <c:f>Sheet1!$B$62:$J$62</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0" formatCode="0">
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
                   <c:v>1000.0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="1">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2000.0</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0">
+                <c:pt idx="3">
                   <c:v>1400.0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="4">
+                  <c:v>780.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1650.0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="6">
                   <c:v>1650.0</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="7">
                   <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6826,9 +6930,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$I$40</c:f>
+              <c:f>Sheet1!$B$40:$J$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -6852,33 +6956,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$63:$I$63</c:f>
+              <c:f>Sheet1!$B$63:$J$63</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0" formatCode="0">
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
                   <c:v>1671.0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="1">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1500.0</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0">
+                <c:pt idx="3">
                   <c:v>1250.0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>900.0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="6">
                   <c:v>1500.0</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="7">
                   <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6916,9 +7032,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$I$40</c:f>
+              <c:f>Sheet1!$B$40:$J$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -6942,33 +7058,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$64:$I$64</c:f>
+              <c:f>Sheet1!$B$64:$J$64</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0" formatCode="0">
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
                   <c:v>407.0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="1">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>720.0</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0">
+                <c:pt idx="3">
                   <c:v>600.0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="4">
+                  <c:v>480.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>900.0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="6">
                   <c:v>20.0</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="7">
                   <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7006,9 +7134,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$I$40</c:f>
+              <c:f>Sheet1!$B$40:$J$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -7032,33 +7160,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$65:$I$65</c:f>
+              <c:f>Sheet1!$B$65:$J$65</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0" formatCode="0">
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
                   <c:v>953.0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="1">
+                  <c:v>2420.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>636.0</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0">
+                <c:pt idx="3">
                   <c:v>875.0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="4">
+                  <c:v>384.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1400.0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="6">
                   <c:v>840.0</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="7">
                   <c:v>470.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7096,9 +7236,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$I$40</c:f>
+              <c:f>Sheet1!$B$40:$J$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -7122,33 +7262,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$66:$I$66</c:f>
+              <c:f>Sheet1!$B$66:$J$66</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0" formatCode="0">
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
                   <c:v>3071.0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0">
+                <c:pt idx="1">
+                  <c:v>2400.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>840.0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="4">
+                  <c:v>1030.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>300.0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="6">
                   <c:v>4780.0</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="7">
                   <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7186,9 +7338,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$40:$I$40</c:f>
+              <c:f>Sheet1!$B$40:$J$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZAHMI</c:v>
                 </c:pt>
@@ -7212,33 +7364,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>ZALOF</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZALOC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$67:$I$67</c:f>
+              <c:f>Sheet1!$B$67:$J$67</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0" formatCode="0">
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
                   <c:v>25941.0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="1">
+                  <c:v>9513.880000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>7668.0</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0">
+                <c:pt idx="3">
                   <c:v>10107.90831337667</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="4">
+                  <c:v>9972.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>15192.81517000872</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="6">
                   <c:v>3837.599999999999</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="7">
                   <c:v>15567.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11340.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7254,11 +7418,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1975384968"/>
-        <c:axId val="-1953018696"/>
+        <c:axId val="1553554968"/>
+        <c:axId val="1553557912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1975384968"/>
+        <c:axId val="1553554968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7267,7 +7431,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1953018696"/>
+        <c:crossAx val="1553557912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7275,7 +7439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1953018696"/>
+        <c:axId val="1553557912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7286,7 +7450,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1975384968"/>
+        <c:crossAx val="1553554968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7438,27 +7602,33 @@
             <c:numRef>
               <c:f>Sheet1!$K$57:$S$57</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="0">
+                <c:pt idx="0">
                   <c:v>7980.0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="1">
+                  <c:v>4608.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2455.0</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0">
+                <c:pt idx="3">
                   <c:v>5880.0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="4">
+                  <c:v>12804.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>5870.0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="6">
                   <c:v>5100.0</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="7">
                   <c:v>6010.0</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0">
+                <c:pt idx="8">
                   <c:v>9612.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7534,27 +7704,33 @@
             <c:numRef>
               <c:f>Sheet1!$K$58:$S$58</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="0">
+                <c:pt idx="0">
                   <c:v>17604.0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="1">
+                  <c:v>5065.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>4397.0</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0">
+                <c:pt idx="3">
                   <c:v>7590.048000000001</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="4">
+                  <c:v>5940.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>11028.0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="6">
                   <c:v>5233.0</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="7">
                   <c:v>4148.0</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0">
+                <c:pt idx="8">
                   <c:v>7584.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7630,27 +7806,33 @@
             <c:numRef>
               <c:f>Sheet1!$K$59:$S$59</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="0">
+                <c:pt idx="0">
                   <c:v>3742.0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="1">
+                  <c:v>3700.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3227.0</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0">
+                <c:pt idx="3">
                   <c:v>3910.0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="4">
+                  <c:v>1320.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2550.0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="6">
                   <c:v>3510.0</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="7">
                   <c:v>3610.0</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0">
+                <c:pt idx="8">
                   <c:v>1680.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7726,27 +7908,33 @@
             <c:numRef>
               <c:f>Sheet1!$K$60:$S$60</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="0">
+                <c:pt idx="0">
                   <c:v>360.0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="1">
+                  <c:v>7200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>600.0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="6">
                   <c:v>2400.0</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0">
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7822,27 +8010,33 @@
             <c:numRef>
               <c:f>Sheet1!$K$61:$S$61</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2425.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1450.0</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0">
+                <c:pt idx="3">
                   <c:v>5000.0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="4">
+                  <c:v>950.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2700.0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="6">
                   <c:v>1305.0</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="7">
                   <c:v>1550.0</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0">
+                <c:pt idx="8">
                   <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7918,27 +8112,33 @@
             <c:numRef>
               <c:f>Sheet1!$K$62:$S$62</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="0">
+                <c:pt idx="0">
                   <c:v>1000.0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="1">
+                  <c:v>1530.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1450.0</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0">
+                <c:pt idx="3">
                   <c:v>1600.0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="4">
+                  <c:v>8400.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2000.0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="6">
                   <c:v>2200.0</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="7">
                   <c:v>1750.0</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0">
+                <c:pt idx="8">
                   <c:v>800.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8014,27 +8214,33 @@
             <c:numRef>
               <c:f>Sheet1!$K$63:$S$63</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="0">
+                <c:pt idx="0">
                   <c:v>1943.0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="1">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1350.0</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0">
+                <c:pt idx="3">
                   <c:v>2000.0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="4">
+                  <c:v>3800.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3000.0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="6">
                   <c:v>2000.0</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="7">
                   <c:v>2000.0</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0">
+                <c:pt idx="8">
                   <c:v>1000.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8110,27 +8316,33 @@
             <c:numRef>
               <c:f>Sheet1!$K$64:$S$64</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="0">
+                <c:pt idx="0">
                   <c:v>429.0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="1">
+                  <c:v>480.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1450.0</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0">
+                <c:pt idx="3">
                   <c:v>25.0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="4">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1500.0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="6">
                   <c:v>648.0</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="7">
                   <c:v>1140.0</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0">
+                <c:pt idx="8">
                   <c:v>1440.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8206,27 +8418,33 @@
             <c:numRef>
               <c:f>Sheet1!$K$65:$S$65</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="0">
+                <c:pt idx="0">
                   <c:v>987.0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="1">
+                  <c:v>780.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2400.0</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0">
+                <c:pt idx="3">
                   <c:v>1296.0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="4">
+                  <c:v>3600.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>768.0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="6">
                   <c:v>1044.0</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="7">
                   <c:v>1800.0</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0">
+                <c:pt idx="8">
                   <c:v>1260.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8302,27 +8520,33 @@
             <c:numRef>
               <c:f>Sheet1!$K$66:$S$66</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="0">
+                <c:pt idx="0">
                   <c:v>3414.0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="1">
+                  <c:v>1710.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1072.0</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0">
+                <c:pt idx="3">
                   <c:v>9240.0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="4">
+                  <c:v>2300.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>300.0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="6">
                   <c:v>1400.0</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="7">
                   <c:v>1080.0</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0">
+                <c:pt idx="8">
                   <c:v>5348.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8398,27 +8622,33 @@
             <c:numRef>
               <c:f>Sheet1!$K$67:$S$67</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="0">
+                <c:pt idx="0">
                   <c:v>37725.0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0">
+                <c:pt idx="1">
+                  <c:v>38391.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>36188.5</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0">
+                <c:pt idx="3">
                   <c:v>18748.952</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0">
+                <c:pt idx="4">
+                  <c:v>10495.88</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>21948.0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="6">
                   <c:v>19729.90831337667</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="7">
                   <c:v>20683.66085440278</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0">
+                <c:pt idx="8">
                   <c:v>4016.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8435,11 +8665,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1954394680"/>
-        <c:axId val="2143632376"/>
+        <c:axId val="1553636120"/>
+        <c:axId val="1553639064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1954394680"/>
+        <c:axId val="1553636120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8448,7 +8678,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143632376"/>
+        <c:crossAx val="1553639064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8456,7 +8686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143632376"/>
+        <c:axId val="1553639064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8467,7 +8697,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1954394680"/>
+        <c:crossAx val="1553636120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8633,8 +8863,14 @@
                 <c:pt idx="3">
                   <c:v>3444.0</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>7900.0</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>4704.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5760.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7920.0</c:v>
@@ -8729,8 +8965,14 @@
                 <c:pt idx="3">
                   <c:v>11004.0</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>10258.0</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>8219.664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10587.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>12756.0</c:v>
@@ -8825,8 +9067,14 @@
                 <c:pt idx="3">
                   <c:v>4653.0</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>2940.0</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>5280.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4950.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3880.0</c:v>
@@ -8921,8 +9169,14 @@
                 <c:pt idx="3">
                   <c:v>0.0</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>3900.0</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.0</c:v>
@@ -9017,8 +9271,14 @@
                 <c:pt idx="3">
                   <c:v>23957.0</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>10150.0</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>11500.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20920.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>300.0</c:v>
@@ -9113,8 +9373,14 @@
                 <c:pt idx="3">
                   <c:v>5381.0</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>33700.0</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>25800.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10040.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>480.0</c:v>
@@ -9209,8 +9475,14 @@
                 <c:pt idx="3">
                   <c:v>4900.0</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>5800.0</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4900.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1800.0</c:v>
@@ -9305,8 +9577,14 @@
                 <c:pt idx="3">
                   <c:v>500.0</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200.0</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>480.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.0</c:v>
@@ -9401,8 +9679,14 @@
                 <c:pt idx="3">
                   <c:v>3200.0</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>18640.0</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>2040.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2420.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>9600.0</c:v>
@@ -9497,8 +9781,14 @@
                 <c:pt idx="3">
                   <c:v>9700.0</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>9200.0</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>25800.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1885.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.0</c:v>
@@ -9593,8 +9883,14 @@
                 <c:pt idx="3">
                   <c:v>55485.0</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>18472.0</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>30516.336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13852.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>62084.0</c:v>
@@ -9616,11 +9912,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2003332168"/>
-        <c:axId val="-2058837320"/>
+        <c:axId val="1526027976"/>
+        <c:axId val="1526043176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2003332168"/>
+        <c:axId val="1526027976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9629,7 +9925,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2058837320"/>
+        <c:crossAx val="1526043176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9637,7 +9933,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2058837320"/>
+        <c:axId val="1526043176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9648,7 +9944,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2003332168"/>
+        <c:crossAx val="1526027976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9763,9 +10059,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AC$40:$AJ$40</c:f>
+              <c:f>Sheet1!$AC$40:$AK$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZANOC</c:v>
                 </c:pt>
@@ -9789,6 +10085,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZAHMI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9814,8 +10113,14 @@
                 <c:pt idx="4">
                   <c:v>3444.0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>3840.0</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>8390.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11340.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>8010.0</c:v>
@@ -9856,9 +10161,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AC$40:$AJ$40</c:f>
+              <c:f>Sheet1!$AC$40:$AK$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZANOC</c:v>
                 </c:pt>
@@ -9882,6 +10187,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZAHMI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9907,8 +10215,14 @@
                 <c:pt idx="4">
                   <c:v>18924.0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>11407.0</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>9736.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11568.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>40761.2</c:v>
@@ -9949,9 +10263,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AC$40:$AJ$40</c:f>
+              <c:f>Sheet1!$AC$40:$AK$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZANOC</c:v>
                 </c:pt>
@@ -9975,6 +10289,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZAHMI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10000,8 +10317,14 @@
                 <c:pt idx="4">
                   <c:v>9170.0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>9202.0</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>5760.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6660.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7340.0</c:v>
@@ -10042,9 +10365,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AC$40:$AJ$40</c:f>
+              <c:f>Sheet1!$AC$40:$AK$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZANOC</c:v>
                 </c:pt>
@@ -10068,6 +10391,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZAHMI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10093,7 +10419,13 @@
                 <c:pt idx="4">
                   <c:v>0.0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>33096.0</c:v>
+                </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
@@ -10135,9 +10467,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AC$40:$AJ$40</c:f>
+              <c:f>Sheet1!$AC$40:$AK$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZANOC</c:v>
                 </c:pt>
@@ -10161,6 +10493,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZAHMI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10186,8 +10521,14 @@
                 <c:pt idx="4">
                   <c:v>46900.0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>52500.0</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>9900.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41850.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>22855.0</c:v>
@@ -10228,9 +10569,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AC$40:$AJ$40</c:f>
+              <c:f>Sheet1!$AC$40:$AK$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZANOC</c:v>
                 </c:pt>
@@ -10254,6 +10595,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZAHMI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10279,8 +10623,14 @@
                 <c:pt idx="4">
                   <c:v>14300.0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>16800.0</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>55800.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59200.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>31280.0</c:v>
@@ -10321,9 +10671,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AC$40:$AJ$40</c:f>
+              <c:f>Sheet1!$AC$40:$AK$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZANOC</c:v>
                 </c:pt>
@@ -10347,6 +10697,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZAHMI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10372,7 +10725,13 @@
                 <c:pt idx="4">
                   <c:v>7000.0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>18000.0</c:v>
+                </c:pt>
                 <c:pt idx="6">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>10000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
@@ -10414,9 +10773,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AC$40:$AJ$40</c:f>
+              <c:f>Sheet1!$AC$40:$AK$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZANOC</c:v>
                 </c:pt>
@@ -10440,6 +10799,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZAHMI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10465,8 +10827,14 @@
                 <c:pt idx="4">
                   <c:v>3360.0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>480.0</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>13220.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.0</c:v>
@@ -10507,9 +10875,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AC$40:$AJ$40</c:f>
+              <c:f>Sheet1!$AC$40:$AK$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZANOC</c:v>
                 </c:pt>
@@ -10533,6 +10901,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZAHMI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10558,8 +10929,14 @@
                 <c:pt idx="4">
                   <c:v>9300.0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>9000.0</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>27612.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33280.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>29524.0</c:v>
@@ -10600,9 +10977,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AC$40:$AJ$40</c:f>
+              <c:f>Sheet1!$AC$40:$AK$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZANOC</c:v>
                 </c:pt>
@@ -10626,6 +11003,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZAHMI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10651,8 +11031,14 @@
                 <c:pt idx="4">
                   <c:v>12600.0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>6900.0</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>52800.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13100.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>17100.0</c:v>
@@ -10693,9 +11079,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$AC$40:$AJ$40</c:f>
+              <c:f>Sheet1!$AC$40:$AK$40</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>ZANOC</c:v>
                 </c:pt>
@@ -10719,6 +11105,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ZAHMI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10744,8 +11133,14 @@
                 <c:pt idx="4">
                   <c:v>147822.0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>69420.0</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>27131.20000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29797.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>46139.79999999999</c:v>
@@ -10764,11 +11159,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1952478776"/>
-        <c:axId val="-1956339560"/>
+        <c:axId val="1553716232"/>
+        <c:axId val="1553719176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1952478776"/>
+        <c:axId val="1553716232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10777,7 +11172,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1956339560"/>
+        <c:crossAx val="1553719176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10785,7 +11180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1956339560"/>
+        <c:axId val="1553719176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10796,7 +11191,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1952478776"/>
+        <c:crossAx val="1553716232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11224,11 +11619,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2142268648"/>
-        <c:axId val="2142265512"/>
+        <c:axId val="1552910520"/>
+        <c:axId val="1552913640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2142268648"/>
+        <c:axId val="1552910520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11237,7 +11632,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142265512"/>
+        <c:crossAx val="1552913640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11245,7 +11640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142265512"/>
+        <c:axId val="1552913640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11256,7 +11651,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142268648"/>
+        <c:crossAx val="1552910520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11675,11 +12070,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2142253368"/>
-        <c:axId val="2142250232"/>
+        <c:axId val="1533332648"/>
+        <c:axId val="1533335768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2142253368"/>
+        <c:axId val="1533332648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11688,7 +12083,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142250232"/>
+        <c:crossAx val="1533335768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11696,7 +12091,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142250232"/>
+        <c:axId val="1533335768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11707,7 +12102,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142253368"/>
+        <c:crossAx val="1533332648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12126,11 +12521,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2145736616"/>
-        <c:axId val="2145733480"/>
+        <c:axId val="1534371064"/>
+        <c:axId val="1520826568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2145736616"/>
+        <c:axId val="1534371064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12139,7 +12534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145733480"/>
+        <c:crossAx val="1520826568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12147,7 +12542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2145733480"/>
+        <c:axId val="1520826568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12158,7 +12553,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145736616"/>
+        <c:crossAx val="1534371064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12577,11 +12972,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2146885320"/>
-        <c:axId val="2146888440"/>
+        <c:axId val="1551986408"/>
+        <c:axId val="1551983272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2146885320"/>
+        <c:axId val="1551986408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12590,7 +12985,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146888440"/>
+        <c:crossAx val="1551983272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12598,7 +12993,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2146888440"/>
+        <c:axId val="1551983272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12609,7 +13004,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146885320"/>
+        <c:crossAx val="1551986408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13326,11 +13721,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2146944040"/>
-        <c:axId val="2146946952"/>
+        <c:axId val="1551908984"/>
+        <c:axId val="1551906024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2146944040"/>
+        <c:axId val="1551908984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13339,7 +13734,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146946952"/>
+        <c:crossAx val="1551906024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13347,7 +13742,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2146946952"/>
+        <c:axId val="1551906024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13358,7 +13753,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146944040"/>
+        <c:crossAx val="1551908984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14265,11 +14660,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1961865464"/>
-        <c:axId val="-1961559272"/>
+        <c:axId val="1534554168"/>
+        <c:axId val="1534557144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1961865464"/>
+        <c:axId val="1534554168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14278,7 +14673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1961559272"/>
+        <c:crossAx val="1534557144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14286,7 +14681,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1961559272"/>
+        <c:axId val="1534557144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14297,7 +14692,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1961865464"/>
+        <c:crossAx val="1534554168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15204,11 +15599,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2125746152"/>
-        <c:axId val="-2125757928"/>
+        <c:axId val="1553117192"/>
+        <c:axId val="1553120104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2125746152"/>
+        <c:axId val="1553117192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15217,7 +15612,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125757928"/>
+        <c:crossAx val="1553120104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15225,7 +15620,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125757928"/>
+        <c:axId val="1553120104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15236,7 +15631,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125746152"/>
+        <c:crossAx val="1553117192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16151,11 +16546,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1957298472"/>
-        <c:axId val="-2125756328"/>
+        <c:axId val="1553183288"/>
+        <c:axId val="1553186200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1957298472"/>
+        <c:axId val="1553183288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16164,7 +16559,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125756328"/>
+        <c:crossAx val="1553186200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16172,7 +16567,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125756328"/>
+        <c:axId val="1553186200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16183,7 +16578,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1957298472"/>
+        <c:crossAx val="1553183288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18910,6 +19305,160 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="32">
+          <cell r="C32">
+            <v>3840</v>
+          </cell>
+          <cell r="D32">
+            <v>4608</v>
+          </cell>
+          <cell r="E32">
+            <v>5760</v>
+          </cell>
+          <cell r="F32">
+            <v>3840</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>4357</v>
+          </cell>
+          <cell r="D33">
+            <v>5065.3999999999996</v>
+          </cell>
+          <cell r="E33">
+            <v>10587.8</v>
+          </cell>
+          <cell r="F33">
+            <v>11407</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>3020</v>
+          </cell>
+          <cell r="D34">
+            <v>3700</v>
+          </cell>
+          <cell r="E34">
+            <v>4950</v>
+          </cell>
+          <cell r="F34">
+            <v>9202</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>4680</v>
+          </cell>
+          <cell r="D35">
+            <v>7200</v>
+          </cell>
+          <cell r="E35">
+            <v>25200</v>
+          </cell>
+          <cell r="F35">
+            <v>33096</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>795</v>
+          </cell>
+          <cell r="D36">
+            <v>2425</v>
+          </cell>
+          <cell r="E36">
+            <v>20920</v>
+          </cell>
+          <cell r="F36">
+            <v>52500</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>780</v>
+          </cell>
+          <cell r="D37">
+            <v>1530</v>
+          </cell>
+          <cell r="E37">
+            <v>10040</v>
+          </cell>
+          <cell r="F37">
+            <v>16800</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>500</v>
+          </cell>
+          <cell r="D38">
+            <v>2000</v>
+          </cell>
+          <cell r="E38">
+            <v>4900</v>
+          </cell>
+          <cell r="F38">
+            <v>18000</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>480</v>
+          </cell>
+          <cell r="D39">
+            <v>480</v>
+          </cell>
+          <cell r="E39">
+            <v>480</v>
+          </cell>
+          <cell r="F39">
+            <v>480</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>384</v>
+          </cell>
+          <cell r="D40">
+            <v>780</v>
+          </cell>
+          <cell r="E40">
+            <v>2420</v>
+          </cell>
+          <cell r="F40">
+            <v>9000</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>1030</v>
+          </cell>
+          <cell r="D41">
+            <v>1710</v>
+          </cell>
+          <cell r="E41">
+            <v>1885</v>
+          </cell>
+          <cell r="F41">
+            <v>6900</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43">
+            <v>9972</v>
+          </cell>
+          <cell r="D43">
+            <v>38391.599999999999</v>
+          </cell>
+          <cell r="E43">
+            <v>13852.199999999997</v>
+          </cell>
+          <cell r="F43">
+            <v>69420</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
@@ -21719,6 +22268,160 @@
           </cell>
           <cell r="F30">
             <v>0</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>14140</v>
+          </cell>
+          <cell r="D32">
+            <v>12804</v>
+          </cell>
+          <cell r="E32">
+            <v>7900</v>
+          </cell>
+          <cell r="F32">
+            <v>11340</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>5386.12</v>
+          </cell>
+          <cell r="D33">
+            <v>5940.12</v>
+          </cell>
+          <cell r="E33">
+            <v>10258</v>
+          </cell>
+          <cell r="F33">
+            <v>11568</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>1220</v>
+          </cell>
+          <cell r="D34">
+            <v>1320</v>
+          </cell>
+          <cell r="E34">
+            <v>2940</v>
+          </cell>
+          <cell r="F34">
+            <v>6660</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>1200</v>
+          </cell>
+          <cell r="D35">
+            <v>1500</v>
+          </cell>
+          <cell r="E35">
+            <v>3900</v>
+          </cell>
+          <cell r="F35">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>480</v>
+          </cell>
+          <cell r="D36">
+            <v>950</v>
+          </cell>
+          <cell r="E36">
+            <v>10150</v>
+          </cell>
+          <cell r="F36">
+            <v>41850</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>5000</v>
+          </cell>
+          <cell r="D37">
+            <v>8400</v>
+          </cell>
+          <cell r="E37">
+            <v>33700</v>
+          </cell>
+          <cell r="F37">
+            <v>59200</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>2800</v>
+          </cell>
+          <cell r="D38">
+            <v>3800</v>
+          </cell>
+          <cell r="E38">
+            <v>5800</v>
+          </cell>
+          <cell r="F38">
+            <v>10000</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>1200</v>
+          </cell>
+          <cell r="D39">
+            <v>1200</v>
+          </cell>
+          <cell r="E39">
+            <v>1200</v>
+          </cell>
+          <cell r="F39">
+            <v>1200</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>2420</v>
+          </cell>
+          <cell r="D40">
+            <v>3600</v>
+          </cell>
+          <cell r="E40">
+            <v>18640</v>
+          </cell>
+          <cell r="F40">
+            <v>33280</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>2400</v>
+          </cell>
+          <cell r="D41">
+            <v>2300</v>
+          </cell>
+          <cell r="E41">
+            <v>9200</v>
+          </cell>
+          <cell r="F41">
+            <v>13100</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43">
+            <v>9513.8800000000047</v>
+          </cell>
+          <cell r="D43">
+            <v>10495.880000000005</v>
+          </cell>
+          <cell r="E43">
+            <v>18472</v>
+          </cell>
+          <cell r="F43">
+            <v>29797</v>
           </cell>
         </row>
       </sheetData>
@@ -22055,8 +22758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AT69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S98" workbookViewId="0">
-      <selection activeCell="AD125" sqref="AD125"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -27241,51 +27944,51 @@
         <v>58880</v>
       </c>
       <c r="C53" s="6">
-        <f>SUM(C43:C52)</f>
+        <f t="shared" ref="C53:J53" si="6">SUM(C43:C52)</f>
         <v>45760</v>
       </c>
       <c r="D53" s="6">
-        <f>SUM(D43:D52)</f>
+        <f t="shared" si="6"/>
         <v>34040</v>
       </c>
       <c r="E53" s="6">
-        <f>SUM(E43:E52)</f>
+        <f t="shared" si="6"/>
         <v>33715.908313376669</v>
       </c>
       <c r="F53" s="6">
-        <f>SUM(F43:F52)</f>
+        <f t="shared" si="6"/>
         <v>29838</v>
       </c>
       <c r="G53" s="6">
-        <f>SUM(G43:G52)</f>
+        <f t="shared" si="6"/>
         <v>29470.815170008718</v>
       </c>
       <c r="H53" s="6">
-        <f>SUM(H43:H52)</f>
+        <f t="shared" si="6"/>
         <v>27280</v>
       </c>
       <c r="I53" s="6">
-        <f>SUM(I43:I52)</f>
+        <f t="shared" si="6"/>
         <v>26492</v>
       </c>
       <c r="J53" s="6">
-        <f>SUM(J43:J52)</f>
+        <f t="shared" si="6"/>
         <v>25140</v>
       </c>
       <c r="K53" s="6">
-        <f t="shared" ref="K53:S53" si="6">SUM(K43:K52)</f>
+        <f t="shared" ref="K53:N53" si="7">SUM(K43:K52)</f>
         <v>75184</v>
       </c>
       <c r="L53" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>67890</v>
       </c>
       <c r="M53" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>55439.5</v>
       </c>
       <c r="N53" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>55290</v>
       </c>
       <c r="O53" s="6">
@@ -27309,19 +28012,19 @@
         <v>32760</v>
       </c>
       <c r="T53" s="6">
-        <f t="shared" ref="T53:AB53" si="7">SUM(T43:T52)</f>
+        <f t="shared" ref="T53:W53" si="8">SUM(T43:T52)</f>
         <v>179275</v>
       </c>
       <c r="U53" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>136102.90322580645</v>
       </c>
       <c r="V53" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>133244</v>
       </c>
       <c r="W53" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>122224</v>
       </c>
       <c r="X53" s="6">
@@ -27345,31 +28048,31 @@
         <v>88508.924050632922</v>
       </c>
       <c r="AC53" s="6">
-        <f t="shared" ref="AC53:AK53" si="8">SUM(AC43:AC52)</f>
+        <f t="shared" ref="AC53:AI53" si="9">SUM(AC43:AC52)</f>
         <v>340312.90322580643</v>
       </c>
       <c r="AD53" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>309500</v>
       </c>
       <c r="AE53" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>302250</v>
       </c>
       <c r="AF53" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>300233.92405063292</v>
       </c>
       <c r="AG53" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>272820</v>
       </c>
       <c r="AH53" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>230645</v>
       </c>
       <c r="AI53" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>220350</v>
       </c>
       <c r="AJ53" s="6">
@@ -27395,6 +28098,10 @@
         <f>[8]Summ!$C32</f>
         <v>10446</v>
       </c>
+      <c r="C57" s="3">
+        <f>[9]Summ!$C32</f>
+        <v>14140</v>
+      </c>
       <c r="D57" s="3">
         <f>[2]Summ!$C32</f>
         <v>8660</v>
@@ -27403,6 +28110,10 @@
         <f>[3]Summ!$C32</f>
         <v>5550</v>
       </c>
+      <c r="F57" s="3">
+        <f>[4]Summ!$C32</f>
+        <v>3840</v>
+      </c>
       <c r="G57" s="3">
         <f>[7]Summ!$C32</f>
         <v>5448</v>
@@ -27423,6 +28134,10 @@
         <f>[8]Summ!$D32</f>
         <v>7980</v>
       </c>
+      <c r="L57" s="3">
+        <f>[4]Summ!$D32</f>
+        <v>4608</v>
+      </c>
       <c r="M57" s="3">
         <f>[10]Summ!$D32</f>
         <v>2455</v>
@@ -27431,6 +28146,10 @@
         <f>[6]Summ!$D32</f>
         <v>5880</v>
       </c>
+      <c r="O57" s="3">
+        <f>[9]Summ!$D32</f>
+        <v>12804</v>
+      </c>
       <c r="P57" s="3">
         <f>[2]Summ!$D32</f>
         <v>5870</v>
@@ -27463,10 +28182,18 @@
         <f>[10]Summ!$E32</f>
         <v>3444</v>
       </c>
+      <c r="X57" s="3">
+        <f>[9]Summ!$E32</f>
+        <v>7900</v>
+      </c>
       <c r="Y57" s="3">
         <f>[6]Summ!$E32</f>
         <v>4704</v>
       </c>
+      <c r="Z57" s="3">
+        <f>[4]Summ!$E32</f>
+        <v>5760</v>
+      </c>
       <c r="AA57" s="3">
         <f>[5]Summ!E32</f>
         <v>7920</v>
@@ -27495,9 +28222,17 @@
         <f>[10]Summ!$F32</f>
         <v>3444</v>
       </c>
+      <c r="AH57" s="3">
+        <f>[4]Summ!$F32</f>
+        <v>3840</v>
+      </c>
       <c r="AI57" s="3">
         <f>[5]Summ!F32</f>
         <v>8390</v>
+      </c>
+      <c r="AJ57" s="3">
+        <f>[9]Summ!$F32</f>
+        <v>11340</v>
       </c>
       <c r="AK57" s="3">
         <f>[8]Summ!$F32</f>
@@ -27513,6 +28248,10 @@
         <f>[8]Summ!$C33</f>
         <v>12220</v>
       </c>
+      <c r="C58" s="3">
+        <f>[9]Summ!$C33</f>
+        <v>5386.12</v>
+      </c>
       <c r="D58" s="3">
         <f>[2]Summ!$C33</f>
         <v>8616</v>
@@ -27521,6 +28260,10 @@
         <f>[3]Summ!$C33</f>
         <v>5821</v>
       </c>
+      <c r="F58" s="3">
+        <f>[4]Summ!$C33</f>
+        <v>4357</v>
+      </c>
       <c r="G58" s="3">
         <f>[7]Summ!$C33</f>
         <v>1400</v>
@@ -27541,6 +28284,10 @@
         <f>[8]Summ!$D33</f>
         <v>17604</v>
       </c>
+      <c r="L58" s="3">
+        <f>[4]Summ!$D33</f>
+        <v>5065.3999999999996</v>
+      </c>
       <c r="M58" s="3">
         <f>[10]Summ!$D33</f>
         <v>4397</v>
@@ -27549,6 +28296,10 @@
         <f>[6]Summ!$D33</f>
         <v>7590.0480000000007</v>
       </c>
+      <c r="O58" s="3">
+        <f>[9]Summ!$D33</f>
+        <v>5940.12</v>
+      </c>
       <c r="P58" s="3">
         <f>[2]Summ!$D33</f>
         <v>11028</v>
@@ -27581,10 +28332,18 @@
         <f>[10]Summ!$E33</f>
         <v>11004</v>
       </c>
+      <c r="X58" s="3">
+        <f>[9]Summ!$E33</f>
+        <v>10258</v>
+      </c>
       <c r="Y58" s="3">
         <f>[6]Summ!$E33</f>
         <v>8219.6640000000007</v>
       </c>
+      <c r="Z58" s="3">
+        <f>[4]Summ!$E33</f>
+        <v>10587.8</v>
+      </c>
       <c r="AA58" s="3">
         <f>[5]Summ!E33</f>
         <v>12756</v>
@@ -27613,9 +28372,17 @@
         <f>[10]Summ!$F33</f>
         <v>18924</v>
       </c>
+      <c r="AH58" s="3">
+        <f>[4]Summ!$F33</f>
+        <v>11407</v>
+      </c>
       <c r="AI58" s="3">
         <f>[5]Summ!F33</f>
         <v>9736.7999999999993</v>
+      </c>
+      <c r="AJ58" s="3">
+        <f>[9]Summ!$F33</f>
+        <v>11568</v>
       </c>
       <c r="AK58" s="3">
         <f>[8]Summ!$F33</f>
@@ -27631,6 +28398,10 @@
         <f>[8]Summ!$C34</f>
         <v>2811</v>
       </c>
+      <c r="C59" s="3">
+        <f>[9]Summ!$C34</f>
+        <v>1220</v>
+      </c>
       <c r="D59" s="3">
         <f>[2]Summ!$C34</f>
         <v>2180</v>
@@ -27639,6 +28410,10 @@
         <f>[3]Summ!$C34</f>
         <v>2610</v>
       </c>
+      <c r="F59" s="3">
+        <f>[4]Summ!$C34</f>
+        <v>3020</v>
+      </c>
       <c r="G59" s="3">
         <f>[7]Summ!$C34</f>
         <v>2010</v>
@@ -27659,6 +28434,10 @@
         <f>[8]Summ!$D34</f>
         <v>3742</v>
       </c>
+      <c r="L59" s="3">
+        <f>[4]Summ!$D34</f>
+        <v>3700</v>
+      </c>
       <c r="M59" s="3">
         <f>[10]Summ!$D34</f>
         <v>3227</v>
@@ -27667,6 +28446,10 @@
         <f>[6]Summ!$D34</f>
         <v>3910</v>
       </c>
+      <c r="O59" s="3">
+        <f>[9]Summ!$D34</f>
+        <v>1320</v>
+      </c>
       <c r="P59" s="3">
         <f>[2]Summ!$D34</f>
         <v>2550</v>
@@ -27699,10 +28482,18 @@
         <f>[10]Summ!$E34</f>
         <v>4653</v>
       </c>
+      <c r="X59" s="3">
+        <f>[9]Summ!$E34</f>
+        <v>2940</v>
+      </c>
       <c r="Y59" s="3">
         <f>[6]Summ!$E34</f>
         <v>5280</v>
       </c>
+      <c r="Z59" s="3">
+        <f>[4]Summ!$E34</f>
+        <v>4950</v>
+      </c>
       <c r="AA59" s="3">
         <f>[5]Summ!E34</f>
         <v>3880</v>
@@ -27731,9 +28522,17 @@
         <f>[10]Summ!$F34</f>
         <v>9170</v>
       </c>
+      <c r="AH59" s="3">
+        <f>[4]Summ!$F34</f>
+        <v>9202</v>
+      </c>
       <c r="AI59" s="3">
         <f>[5]Summ!F34</f>
         <v>5760</v>
+      </c>
+      <c r="AJ59" s="3">
+        <f>[9]Summ!$F34</f>
+        <v>6660</v>
       </c>
       <c r="AK59" s="3">
         <f>[8]Summ!$F34</f>
@@ -27749,6 +28548,10 @@
         <f>[8]Summ!$C35</f>
         <v>360</v>
       </c>
+      <c r="C60" s="3">
+        <f>[9]Summ!$C35</f>
+        <v>1200</v>
+      </c>
       <c r="D60" s="3">
         <f>[2]Summ!$C35</f>
         <v>360</v>
@@ -27757,6 +28560,10 @@
         <f>[3]Summ!$C35</f>
         <v>4320</v>
       </c>
+      <c r="F60" s="3">
+        <f>[4]Summ!$C35</f>
+        <v>4680</v>
+      </c>
       <c r="G60" s="3">
         <f>[7]Summ!$C35</f>
         <v>0</v>
@@ -27777,6 +28584,10 @@
         <f>[8]Summ!$D35</f>
         <v>360</v>
       </c>
+      <c r="L60" s="3">
+        <f>[4]Summ!$D35</f>
+        <v>7200</v>
+      </c>
       <c r="M60" s="3">
         <f>[10]Summ!$D35</f>
         <v>0</v>
@@ -27784,6 +28595,10 @@
       <c r="N60" s="3">
         <f>[6]Summ!$D35</f>
         <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <f>[9]Summ!$D35</f>
+        <v>1500</v>
       </c>
       <c r="P60" s="3">
         <f>[2]Summ!$D35</f>
@@ -27817,9 +28632,17 @@
         <f>[10]Summ!$E35</f>
         <v>0</v>
       </c>
+      <c r="X60" s="3">
+        <f>[9]Summ!$E35</f>
+        <v>3900</v>
+      </c>
       <c r="Y60" s="3">
         <f>[6]Summ!$E35</f>
         <v>0</v>
+      </c>
+      <c r="Z60" s="3">
+        <f>[4]Summ!$E35</f>
+        <v>25200</v>
       </c>
       <c r="AA60" s="3">
         <f>[5]Summ!E35</f>
@@ -27849,8 +28672,16 @@
         <f>[10]Summ!$F35</f>
         <v>0</v>
       </c>
+      <c r="AH60" s="3">
+        <f>[4]Summ!$F35</f>
+        <v>33096</v>
+      </c>
       <c r="AI60" s="3">
         <f>[5]Summ!F35</f>
+        <v>0</v>
+      </c>
+      <c r="AJ60" s="3">
+        <f>[9]Summ!$F35</f>
         <v>0</v>
       </c>
       <c r="AK60" s="3">
@@ -27867,6 +28698,10 @@
         <f>[8]Summ!$C36</f>
         <v>0</v>
       </c>
+      <c r="C61" s="3">
+        <f>[9]Summ!$C36</f>
+        <v>480</v>
+      </c>
       <c r="D61" s="3">
         <f>[2]Summ!$C36</f>
         <v>1700</v>
@@ -27875,6 +28710,10 @@
         <f>[3]Summ!$C36</f>
         <v>342</v>
       </c>
+      <c r="F61" s="3">
+        <f>[4]Summ!$C36</f>
+        <v>795</v>
+      </c>
       <c r="G61" s="3">
         <f>[7]Summ!$C36</f>
         <v>270</v>
@@ -27895,6 +28734,10 @@
         <f>[8]Summ!$D36</f>
         <v>0</v>
       </c>
+      <c r="L61" s="3">
+        <f>[4]Summ!$D36</f>
+        <v>2425</v>
+      </c>
       <c r="M61" s="3">
         <f>[10]Summ!$D36</f>
         <v>1450</v>
@@ -27903,6 +28746,10 @@
         <f>[6]Summ!$D36</f>
         <v>5000</v>
       </c>
+      <c r="O61" s="3">
+        <f>[9]Summ!$D36</f>
+        <v>950</v>
+      </c>
       <c r="P61" s="3">
         <f>[2]Summ!$D36</f>
         <v>2700</v>
@@ -27935,10 +28782,18 @@
         <f>[10]Summ!$E36</f>
         <v>23957</v>
       </c>
+      <c r="X61" s="3">
+        <f>[9]Summ!$E36</f>
+        <v>10150</v>
+      </c>
       <c r="Y61" s="3">
         <f>[6]Summ!$E36</f>
         <v>11500</v>
       </c>
+      <c r="Z61" s="3">
+        <f>[4]Summ!$E36</f>
+        <v>20920</v>
+      </c>
       <c r="AA61" s="3">
         <f>[5]Summ!E36</f>
         <v>300</v>
@@ -27967,9 +28822,17 @@
         <f>[10]Summ!$F36</f>
         <v>46900</v>
       </c>
+      <c r="AH61" s="3">
+        <f>[4]Summ!$F36</f>
+        <v>52500</v>
+      </c>
       <c r="AI61" s="3">
         <f>[5]Summ!F36</f>
         <v>9900</v>
+      </c>
+      <c r="AJ61" s="3">
+        <f>[9]Summ!$F36</f>
+        <v>41850</v>
       </c>
       <c r="AK61" s="3">
         <f>[8]Summ!$F36</f>
@@ -27985,6 +28848,10 @@
         <f>[8]Summ!$C37</f>
         <v>1000</v>
       </c>
+      <c r="C62" s="3">
+        <f>[9]Summ!$C37</f>
+        <v>5000</v>
+      </c>
       <c r="D62" s="3">
         <f>[2]Summ!$C37</f>
         <v>2000</v>
@@ -27993,6 +28860,10 @@
         <f>[3]Summ!$C37</f>
         <v>1400</v>
       </c>
+      <c r="F62" s="3">
+        <f>[4]Summ!$C37</f>
+        <v>780</v>
+      </c>
       <c r="G62" s="3">
         <f>[7]Summ!$C37</f>
         <v>1650</v>
@@ -28013,6 +28884,10 @@
         <f>[8]Summ!$D37</f>
         <v>1000</v>
       </c>
+      <c r="L62" s="3">
+        <f>[4]Summ!$D37</f>
+        <v>1530</v>
+      </c>
       <c r="M62" s="3">
         <f>[10]Summ!$D37</f>
         <v>1450</v>
@@ -28021,6 +28896,10 @@
         <f>[6]Summ!$D37</f>
         <v>1600</v>
       </c>
+      <c r="O62" s="3">
+        <f>[9]Summ!$D37</f>
+        <v>8400</v>
+      </c>
       <c r="P62" s="3">
         <f>[2]Summ!$D37</f>
         <v>2000</v>
@@ -28053,10 +28932,18 @@
         <f>[10]Summ!$E37</f>
         <v>5381</v>
       </c>
+      <c r="X62" s="3">
+        <f>[9]Summ!$E37</f>
+        <v>33700</v>
+      </c>
       <c r="Y62" s="3">
         <f>[6]Summ!$E37</f>
         <v>25800</v>
       </c>
+      <c r="Z62" s="3">
+        <f>[4]Summ!$E37</f>
+        <v>10040</v>
+      </c>
       <c r="AA62" s="3">
         <f>[5]Summ!E37</f>
         <v>480</v>
@@ -28085,9 +28972,17 @@
         <f>[10]Summ!$F37</f>
         <v>14300</v>
       </c>
+      <c r="AH62" s="3">
+        <f>[4]Summ!$F37</f>
+        <v>16800</v>
+      </c>
       <c r="AI62" s="3">
         <f>[5]Summ!F37</f>
         <v>55800</v>
+      </c>
+      <c r="AJ62" s="3">
+        <f>[9]Summ!$F37</f>
+        <v>59200</v>
       </c>
       <c r="AK62" s="3">
         <f>[8]Summ!$F37</f>
@@ -28103,6 +28998,10 @@
         <f>[8]Summ!$C38</f>
         <v>1671</v>
       </c>
+      <c r="C63" s="3">
+        <f>[9]Summ!$C38</f>
+        <v>2800</v>
+      </c>
       <c r="D63" s="3">
         <f>[2]Summ!$C38</f>
         <v>1500</v>
@@ -28111,6 +29010,10 @@
         <f>[3]Summ!$C38</f>
         <v>1250</v>
       </c>
+      <c r="F63" s="3">
+        <f>[4]Summ!$C38</f>
+        <v>500</v>
+      </c>
       <c r="G63" s="3">
         <f>[7]Summ!$C38</f>
         <v>900</v>
@@ -28131,6 +29034,10 @@
         <f>[8]Summ!$D38</f>
         <v>1943</v>
       </c>
+      <c r="L63" s="3">
+        <f>[4]Summ!$D38</f>
+        <v>2000</v>
+      </c>
       <c r="M63" s="3">
         <f>[10]Summ!$D38</f>
         <v>1350</v>
@@ -28139,6 +29046,10 @@
         <f>[6]Summ!$D38</f>
         <v>2000</v>
       </c>
+      <c r="O63" s="3">
+        <f>[9]Summ!$D38</f>
+        <v>3800</v>
+      </c>
       <c r="P63" s="3">
         <f>[2]Summ!$D38</f>
         <v>3000</v>
@@ -28171,10 +29082,18 @@
         <f>[10]Summ!$E38</f>
         <v>4900</v>
       </c>
+      <c r="X63" s="3">
+        <f>[9]Summ!$E38</f>
+        <v>5800</v>
+      </c>
       <c r="Y63" s="3">
         <f>[6]Summ!$E38</f>
         <v>4000</v>
       </c>
+      <c r="Z63" s="3">
+        <f>[4]Summ!$E38</f>
+        <v>4900</v>
+      </c>
       <c r="AA63" s="3">
         <f>[5]Summ!E38</f>
         <v>1800</v>
@@ -28203,8 +29122,16 @@
         <f>[10]Summ!$F38</f>
         <v>7000</v>
       </c>
+      <c r="AH63" s="3">
+        <f>[4]Summ!$F38</f>
+        <v>18000</v>
+      </c>
       <c r="AI63" s="3">
         <f>[5]Summ!F38</f>
+        <v>10000</v>
+      </c>
+      <c r="AJ63" s="3">
+        <f>[9]Summ!$F38</f>
         <v>10000</v>
       </c>
       <c r="AK63" s="3">
@@ -28221,6 +29148,10 @@
         <f>[8]Summ!$C39</f>
         <v>407</v>
       </c>
+      <c r="C64" s="3">
+        <f>[9]Summ!$C39</f>
+        <v>1200</v>
+      </c>
       <c r="D64" s="3">
         <f>[2]Summ!$C39</f>
         <v>720</v>
@@ -28229,6 +29160,10 @@
         <f>[3]Summ!$C39</f>
         <v>600</v>
       </c>
+      <c r="F64" s="3">
+        <f>[4]Summ!$C39</f>
+        <v>480</v>
+      </c>
       <c r="G64" s="3">
         <f>[7]Summ!$C39</f>
         <v>900</v>
@@ -28249,6 +29184,10 @@
         <f>[8]Summ!$D39</f>
         <v>429</v>
       </c>
+      <c r="L64" s="3">
+        <f>[4]Summ!$D39</f>
+        <v>480</v>
+      </c>
       <c r="M64" s="3">
         <f>[10]Summ!$D39</f>
         <v>1450</v>
@@ -28257,6 +29196,10 @@
         <f>[6]Summ!$D39</f>
         <v>25</v>
       </c>
+      <c r="O64" s="3">
+        <f>[9]Summ!$D39</f>
+        <v>1200</v>
+      </c>
       <c r="P64" s="3">
         <f>[2]Summ!$D39</f>
         <v>1500</v>
@@ -28289,10 +29232,18 @@
         <f>[10]Summ!$E39</f>
         <v>500</v>
       </c>
+      <c r="X64" s="3">
+        <f>[9]Summ!$E39</f>
+        <v>1200</v>
+      </c>
       <c r="Y64" s="3">
         <f>[6]Summ!$E39</f>
         <v>20</v>
       </c>
+      <c r="Z64" s="3">
+        <f>[4]Summ!$E39</f>
+        <v>480</v>
+      </c>
       <c r="AA64" s="3">
         <f>[5]Summ!E39</f>
         <v>0</v>
@@ -28321,9 +29272,17 @@
         <f>[10]Summ!$F39</f>
         <v>3360</v>
       </c>
+      <c r="AH64" s="3">
+        <f>[4]Summ!$F39</f>
+        <v>480</v>
+      </c>
       <c r="AI64" s="3">
         <f>[5]Summ!F39</f>
         <v>13220</v>
+      </c>
+      <c r="AJ64" s="3">
+        <f>[9]Summ!$F39</f>
+        <v>1200</v>
       </c>
       <c r="AK64" s="3">
         <f>[8]Summ!$F39</f>
@@ -28339,6 +29298,10 @@
         <f>[8]Summ!$C40</f>
         <v>953</v>
       </c>
+      <c r="C65" s="3">
+        <f>[9]Summ!$C40</f>
+        <v>2420</v>
+      </c>
       <c r="D65" s="3">
         <f>[2]Summ!$C40</f>
         <v>636</v>
@@ -28347,6 +29310,10 @@
         <f>[3]Summ!$C40</f>
         <v>875</v>
       </c>
+      <c r="F65" s="3">
+        <f>[4]Summ!$C40</f>
+        <v>384</v>
+      </c>
       <c r="G65" s="3">
         <f>[7]Summ!$C40</f>
         <v>1400</v>
@@ -28367,6 +29334,10 @@
         <f>[8]Summ!$D40</f>
         <v>987</v>
       </c>
+      <c r="L65" s="3">
+        <f>[4]Summ!$D40</f>
+        <v>780</v>
+      </c>
       <c r="M65" s="3">
         <f>[10]Summ!$D40</f>
         <v>2400</v>
@@ -28375,6 +29346,10 @@
         <f>[6]Summ!$D40</f>
         <v>1296</v>
       </c>
+      <c r="O65" s="3">
+        <f>[9]Summ!$D40</f>
+        <v>3600</v>
+      </c>
       <c r="P65" s="3">
         <f>[2]Summ!$D40</f>
         <v>768</v>
@@ -28407,10 +29382,18 @@
         <f>[10]Summ!$E40</f>
         <v>3200</v>
       </c>
+      <c r="X65" s="3">
+        <f>[9]Summ!$E40</f>
+        <v>18640</v>
+      </c>
       <c r="Y65" s="3">
         <f>[6]Summ!$E40</f>
         <v>2040</v>
       </c>
+      <c r="Z65" s="3">
+        <f>[4]Summ!$E40</f>
+        <v>2420</v>
+      </c>
       <c r="AA65" s="3">
         <f>[5]Summ!E40</f>
         <v>9600</v>
@@ -28439,9 +29422,17 @@
         <f>[10]Summ!$F40</f>
         <v>9300</v>
       </c>
+      <c r="AH65" s="3">
+        <f>[4]Summ!$F40</f>
+        <v>9000</v>
+      </c>
       <c r="AI65" s="3">
         <f>[5]Summ!F40</f>
         <v>27612</v>
+      </c>
+      <c r="AJ65" s="3">
+        <f>[9]Summ!$F40</f>
+        <v>33280</v>
       </c>
       <c r="AK65" s="3">
         <f>[8]Summ!$F40</f>
@@ -28457,6 +29448,10 @@
         <f>[8]Summ!$C41</f>
         <v>3071</v>
       </c>
+      <c r="C66" s="3">
+        <f>[9]Summ!$C41</f>
+        <v>2400</v>
+      </c>
       <c r="D66" s="3">
         <f>[2]Summ!$C41</f>
         <v>0</v>
@@ -28465,6 +29460,10 @@
         <f>[3]Summ!$C41</f>
         <v>840</v>
       </c>
+      <c r="F66" s="3">
+        <f>[4]Summ!$C41</f>
+        <v>1030</v>
+      </c>
       <c r="G66" s="3">
         <f>[7]Summ!$C41</f>
         <v>300</v>
@@ -28485,6 +29484,10 @@
         <f>[8]Summ!$D41</f>
         <v>3414</v>
       </c>
+      <c r="L66" s="3">
+        <f>[4]Summ!$D41</f>
+        <v>1710</v>
+      </c>
       <c r="M66" s="3">
         <f>[10]Summ!$D41</f>
         <v>1072</v>
@@ -28493,6 +29496,10 @@
         <f>[6]Summ!$D41</f>
         <v>9240</v>
       </c>
+      <c r="O66" s="3">
+        <f>[9]Summ!$D41</f>
+        <v>2300</v>
+      </c>
       <c r="P66" s="3">
         <f>[2]Summ!$D41</f>
         <v>300</v>
@@ -28525,10 +29532,18 @@
         <f>[10]Summ!$E41</f>
         <v>9700</v>
       </c>
+      <c r="X66" s="3">
+        <f>[9]Summ!$E41</f>
+        <v>9200</v>
+      </c>
       <c r="Y66" s="3">
         <f>[6]Summ!$E41</f>
         <v>25800</v>
       </c>
+      <c r="Z66" s="3">
+        <f>[4]Summ!$E41</f>
+        <v>1885</v>
+      </c>
       <c r="AA66" s="3">
         <f>[5]Summ!E41</f>
         <v>0</v>
@@ -28557,9 +29572,17 @@
         <f>[10]Summ!$F41</f>
         <v>12600</v>
       </c>
+      <c r="AH66" s="3">
+        <f>[4]Summ!$F41</f>
+        <v>6900</v>
+      </c>
       <c r="AI66" s="3">
         <f>[5]Summ!F41</f>
         <v>52800</v>
+      </c>
+      <c r="AJ66" s="3">
+        <f>[9]Summ!$F41</f>
+        <v>13100</v>
       </c>
       <c r="AK66" s="3">
         <f>[8]Summ!$F41</f>
@@ -28575,6 +29598,10 @@
         <f>[8]Summ!$C43</f>
         <v>25941</v>
       </c>
+      <c r="C67" s="3">
+        <f>[9]Summ!$C43</f>
+        <v>9513.8800000000047</v>
+      </c>
       <c r="D67" s="3">
         <f>[2]Summ!$C43</f>
         <v>7668</v>
@@ -28583,6 +29610,10 @@
         <f>[3]Summ!$C43</f>
         <v>10107.908313376669</v>
       </c>
+      <c r="F67" s="3">
+        <f>[4]Summ!$C43</f>
+        <v>9972</v>
+      </c>
       <c r="G67" s="3">
         <f>[7]Summ!$C43</f>
         <v>15192.815170008718</v>
@@ -28603,6 +29634,10 @@
         <f>[8]Summ!$D43</f>
         <v>37725</v>
       </c>
+      <c r="L67" s="3">
+        <f>[4]Summ!$D43</f>
+        <v>38391.599999999999</v>
+      </c>
       <c r="M67" s="3">
         <f>[10]Summ!$D43</f>
         <v>36188.5</v>
@@ -28611,6 +29646,10 @@
         <f>[6]Summ!$D43</f>
         <v>18748.951999999997</v>
       </c>
+      <c r="O67" s="3">
+        <f>[9]Summ!$D43</f>
+        <v>10495.880000000005</v>
+      </c>
       <c r="P67" s="3">
         <f>[2]Summ!$D43</f>
         <v>21948</v>
@@ -28643,10 +29682,18 @@
         <f>[10]Summ!$E43</f>
         <v>55485</v>
       </c>
+      <c r="X67" s="3">
+        <f>[9]Summ!$E43</f>
+        <v>18472</v>
+      </c>
       <c r="Y67" s="3">
         <f>[6]Summ!$E43</f>
         <v>30516.335999999996</v>
       </c>
+      <c r="Z67" s="3">
+        <f>[4]Summ!$E43</f>
+        <v>13852.199999999997</v>
+      </c>
       <c r="AA67" s="3">
         <f>[5]Summ!E43</f>
         <v>62084</v>
@@ -28675,9 +29722,17 @@
         <f>[10]Summ!$F43</f>
         <v>147822</v>
       </c>
+      <c r="AH67" s="3">
+        <f>[4]Summ!$F43</f>
+        <v>69420</v>
+      </c>
       <c r="AI67" s="3">
         <f>[5]Summ!F43</f>
         <v>27131.200000000012</v>
+      </c>
+      <c r="AJ67" s="3">
+        <f>[9]Summ!$F43</f>
+        <v>29797</v>
       </c>
       <c r="AK67" s="3">
         <f>[8]Summ!$F43</f>
@@ -28689,115 +29744,147 @@
         <v>11</v>
       </c>
       <c r="B68" s="6">
-        <f>SUM(B57:B67)</f>
+        <f t="shared" ref="B68:AK68" si="10">SUM(B57:B67)</f>
         <v>58880</v>
       </c>
+      <c r="C68" s="6">
+        <f t="shared" si="10"/>
+        <v>45760</v>
+      </c>
       <c r="D68" s="6">
-        <f>SUM(D57:D67)</f>
+        <f t="shared" si="10"/>
         <v>34040</v>
       </c>
       <c r="E68" s="6">
-        <f>SUM(E57:E67)</f>
+        <f t="shared" si="10"/>
         <v>33715.908313376669</v>
       </c>
+      <c r="F68" s="6">
+        <f t="shared" si="10"/>
+        <v>29838</v>
+      </c>
       <c r="G68" s="6">
-        <f>SUM(G57:G67)</f>
+        <f t="shared" si="10"/>
         <v>29470.815170008718</v>
       </c>
       <c r="H68" s="6">
-        <f>SUM(H57:H67)</f>
+        <f t="shared" si="10"/>
         <v>27280</v>
       </c>
       <c r="I68" s="6">
-        <f>SUM(I57:I67)</f>
+        <f t="shared" si="10"/>
         <v>26492</v>
       </c>
       <c r="J68" s="6">
-        <f>SUM(J57:J67)</f>
+        <f t="shared" si="10"/>
         <v>25140</v>
       </c>
       <c r="K68" s="6">
-        <f>SUM(K57:K67)</f>
+        <f t="shared" si="10"/>
         <v>75184</v>
       </c>
+      <c r="L68" s="6">
+        <f t="shared" si="10"/>
+        <v>67890</v>
+      </c>
       <c r="M68" s="6">
-        <f>SUM(M57:M67)</f>
+        <f t="shared" si="10"/>
         <v>55439.5</v>
       </c>
       <c r="N68" s="6">
-        <f>SUM(N57:N67)</f>
+        <f t="shared" si="10"/>
         <v>55290</v>
       </c>
+      <c r="O68" s="6">
+        <f t="shared" si="10"/>
+        <v>52310</v>
+      </c>
       <c r="P68" s="6">
-        <f>SUM(P57:P67)</f>
+        <f t="shared" si="10"/>
         <v>52264</v>
       </c>
       <c r="Q68" s="6">
-        <f>SUM(Q57:Q67)</f>
+        <f t="shared" si="10"/>
         <v>44569.908313376669</v>
       </c>
       <c r="R68" s="6">
-        <f>SUM(R57:R67)</f>
+        <f t="shared" si="10"/>
         <v>43771.660854402784</v>
       </c>
       <c r="S68" s="6">
-        <f>SUM(S57:S67)</f>
+        <f t="shared" si="10"/>
         <v>32760</v>
       </c>
       <c r="T68" s="6">
-        <f>SUM(T57:T67)</f>
+        <f t="shared" si="10"/>
         <v>179275</v>
       </c>
       <c r="U68" s="6">
-        <f>SUM(U57:U67)</f>
+        <f t="shared" si="10"/>
         <v>136102.90322580645</v>
       </c>
       <c r="V68" s="6">
-        <f>SUM(V57:V67)</f>
+        <f t="shared" si="10"/>
         <v>133244</v>
       </c>
       <c r="W68" s="6">
-        <f>SUM(W57:W67)</f>
+        <f t="shared" si="10"/>
         <v>122224</v>
       </c>
+      <c r="X68" s="6">
+        <f t="shared" si="10"/>
+        <v>122160</v>
+      </c>
       <c r="Y68" s="6">
-        <f>SUM(Y57:Y67)</f>
+        <f t="shared" si="10"/>
         <v>117880</v>
       </c>
+      <c r="Z68" s="6">
+        <f t="shared" si="10"/>
+        <v>100995</v>
+      </c>
       <c r="AA68" s="6">
-        <f>SUM(AA57:AA67)</f>
+        <f t="shared" si="10"/>
         <v>98820</v>
       </c>
       <c r="AB68" s="6">
-        <f>SUM(AB57:AB67)</f>
+        <f t="shared" si="10"/>
         <v>88508.924050632922</v>
       </c>
       <c r="AC68" s="6">
-        <f>SUM(AC57:AC67)</f>
+        <f t="shared" si="10"/>
         <v>340312.90322580643</v>
       </c>
       <c r="AD68" s="6">
-        <f>SUM(AD57:AD67)</f>
+        <f t="shared" si="10"/>
         <v>309500</v>
       </c>
       <c r="AE68" s="6">
-        <f>SUM(AE57:AE67)</f>
+        <f t="shared" si="10"/>
         <v>302250</v>
       </c>
       <c r="AF68" s="6">
-        <f>SUM(AF57:AF67)</f>
+        <f t="shared" si="10"/>
         <v>300233.92405063292</v>
       </c>
       <c r="AG68" s="6">
-        <f>SUM(AG57:AG67)</f>
+        <f t="shared" si="10"/>
         <v>272820</v>
       </c>
+      <c r="AH68" s="6">
+        <f t="shared" si="10"/>
+        <v>230645</v>
+      </c>
       <c r="AI68" s="6">
-        <f>SUM(AI57:AI67)</f>
+        <f t="shared" si="10"/>
         <v>220350</v>
       </c>
+      <c r="AJ68" s="6">
+        <f t="shared" si="10"/>
+        <v>217995</v>
+      </c>
       <c r="AK68" s="6">
-        <f>SUM(AK57:AK67)</f>
+        <f t="shared" si="10"/>
         <v>211716</v>
       </c>
     </row>

--- a/za_summary.xlsx
+++ b/za_summary.xlsx
@@ -154,8 +154,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="635">
+  <cellStyleXfs count="677">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -800,7 +842,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="635">
+  <cellStyles count="677">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1118,6 +1160,27 @@
     <cellStyle name="Followed Hyperlink" xfId="630" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="632" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="676" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1435,6 +1498,27 @@
     <cellStyle name="Hyperlink" xfId="629" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="631" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="675" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1496,19 +1580,19 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>ZALCM</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZASLC</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ZALOI</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ZALOC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ZABOL</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>ZANOC</c:v>
@@ -1532,19 +1616,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.4</c:v>
@@ -1583,19 +1667,19 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>ZALCM</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZASLC</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ZALOI</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ZALOC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ZABOL</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>ZANOC</c:v>
@@ -1619,19 +1703,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26</c:v>
+                  <c:v>0.28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.34</c:v>
@@ -1671,16 +1755,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.15</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.18</c:v>
@@ -1723,19 +1807,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.05</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.08</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.09</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>0.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.08</c:v>
@@ -1763,11 +1847,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1552865640"/>
-        <c:axId val="1552868760"/>
+        <c:axId val="-2061877816"/>
+        <c:axId val="-2061874632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1552865640"/>
+        <c:axId val="-2061877816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1776,7 +1860,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1552868760"/>
+        <c:crossAx val="-2061874632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1784,7 +1868,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1552868760"/>
+        <c:axId val="-2061874632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1795,7 +1879,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1552865640"/>
+        <c:crossAx val="-2061877816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1905,10 +1989,10 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZAHIC</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALCM</c:v>
@@ -2001,10 +2085,10 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZAHIC</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALCM</c:v>
@@ -2097,10 +2181,10 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZAHIC</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALCM</c:v>
@@ -2130,10 +2214,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1200.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4200.0</c:v>
@@ -2193,10 +2277,10 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZAHIC</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALCM</c:v>
@@ -2226,10 +2310,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2880.0</c:v>
+                  <c:v>7920.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7920.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.0</c:v>
@@ -2289,10 +2373,10 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZAHIC</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALCM</c:v>
@@ -2322,7 +2406,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>9000.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
@@ -2385,10 +2469,10 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZAHIC</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALCM</c:v>
@@ -2418,10 +2502,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>13716.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>11520.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.0</c:v>
@@ -2481,10 +2565,10 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZAHIC</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALCM</c:v>
@@ -2577,10 +2661,10 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZAHIC</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALCM</c:v>
@@ -2610,10 +2694,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>36840.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>22484.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36840.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>28440.0</c:v>
@@ -2673,10 +2757,10 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZAHIC</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALCM</c:v>
@@ -2706,10 +2790,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>9600.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.0</c:v>
@@ -2769,10 +2853,10 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZAHIC</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALCM</c:v>
@@ -2839,11 +2923,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1553259928"/>
-        <c:axId val="1553262872"/>
+        <c:axId val="-2062835240"/>
+        <c:axId val="-2062832296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1553259928"/>
+        <c:axId val="-2062835240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2852,7 +2936,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1553262872"/>
+        <c:crossAx val="-2062832296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2860,7 +2944,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1553262872"/>
+        <c:axId val="-2062832296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2871,7 +2955,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1553259928"/>
+        <c:crossAx val="-2062835240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2987,22 +3071,22 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZALOI</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ZAHIC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ZALCM</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>ZASLC</c:v>
@@ -3023,22 +3107,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>2675.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2675.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2880.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>350.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2880.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.0</c:v>
@@ -3089,22 +3173,22 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZALOI</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ZAHIC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ZALCM</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>ZASLC</c:v>
@@ -3125,10 +3209,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.0</c:v>
@@ -3191,22 +3275,22 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZALOI</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ZAHIC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ZALCM</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>ZASLC</c:v>
@@ -3227,22 +3311,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4200.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3728.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>4450.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7600.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>6400.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4450.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7600.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>198.0</c:v>
@@ -3293,22 +3377,22 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZALOI</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ZAHIC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ZALCM</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>ZASLC</c:v>
@@ -3329,22 +3413,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>9200.0</c:v>
+                  <c:v>14085.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14085.0</c:v>
+                  <c:v>9980.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12420.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18000.0</c:v>
+                  <c:v>9460.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9460.0</c:v>
+                  <c:v>9720.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9720.0</c:v>
+                  <c:v>10800.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>12050.0</c:v>
@@ -3395,22 +3479,22 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZALOI</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ZAHIC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ZALCM</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>ZASLC</c:v>
@@ -3431,10 +3515,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>14400.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14400.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12000.0</c:v>
@@ -3497,22 +3581,22 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZALOI</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ZAHIC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ZALCM</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>ZASLC</c:v>
@@ -3533,22 +3617,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>18300.0</c:v>
+                  <c:v>6420.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6420.0</c:v>
+                  <c:v>14400.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6290.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>360.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4100.0</c:v>
@@ -3599,22 +3683,22 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZALOI</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ZAHIC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ZALCM</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>ZASLC</c:v>
@@ -3635,10 +3719,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>960.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2040.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>960.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1920.0</c:v>
@@ -3701,22 +3785,22 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZALOI</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ZAHIC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ZALCM</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>ZASLC</c:v>
@@ -3737,22 +3821,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>41444.0</c:v>
+                  <c:v>20220.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20220.0</c:v>
+                  <c:v>30884.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>17181.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>35520.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34944.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>30180.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35520.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34944.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>20541.90831337667</c:v>
@@ -3803,22 +3887,22 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZALOI</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ZAHIC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ZALCM</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>ZASLC</c:v>
@@ -3839,10 +3923,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>4800.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4800.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1500.0</c:v>
@@ -3905,22 +3989,22 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZALOI</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ZAHIC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ZALCM</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>ZASLC</c:v>
@@ -3941,10 +4025,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>2330.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2330.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.0</c:v>
@@ -3981,11 +4065,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1553333832"/>
-        <c:axId val="1553336776"/>
+        <c:axId val="-2065835576"/>
+        <c:axId val="-2065832632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1553333832"/>
+        <c:axId val="-2065835576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3994,7 +4078,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1553336776"/>
+        <c:crossAx val="-2065832632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4002,7 +4086,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1553336776"/>
+        <c:axId val="-2065832632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4013,7 +4097,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1553333832"/>
+        <c:crossAx val="-2065835576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4490,7 +4574,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6000.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>980.0</c:v>
@@ -5121,11 +5205,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1553407112"/>
-        <c:axId val="1553410056"/>
+        <c:axId val="-2066207464"/>
+        <c:axId val="-2066211560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1553407112"/>
+        <c:axId val="-2066207464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5134,7 +5218,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1553410056"/>
+        <c:crossAx val="-2066211560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5142,7 +5226,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1553410056"/>
+        <c:axId val="-2066211560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5153,7 +5237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1553407112"/>
+        <c:crossAx val="-2066207464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6171,11 +6255,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1553475096"/>
-        <c:axId val="1553478008"/>
+        <c:axId val="-2066712920"/>
+        <c:axId val="-2066709976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1553475096"/>
+        <c:axId val="-2066712920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6184,7 +6268,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1553478008"/>
+        <c:crossAx val="-2066709976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6192,7 +6276,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1553478008"/>
+        <c:axId val="-2066709976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6203,7 +6287,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1553475096"/>
+        <c:crossAx val="-2066712920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6322,10 +6406,10 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZAHIC</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALCM</c:v>
@@ -6358,10 +6442,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10446.0</c:v>
+                  <c:v>14140.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14140.0</c:v>
+                  <c:v>10686.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8660.0</c:v>
@@ -6382,7 +6466,7 @@
                   <c:v>4800.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6840.0</c:v>
+                  <c:v>10260.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6424,10 +6508,10 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZAHIC</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALCM</c:v>
@@ -6460,10 +6544,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>5386.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>12220.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5386.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8616.0</c:v>
@@ -6526,10 +6610,10 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZAHIC</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALCM</c:v>
@@ -6562,10 +6646,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2811.0</c:v>
+                  <c:v>1220.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1220.0</c:v>
+                  <c:v>2830.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2180.0</c:v>
@@ -6628,10 +6712,10 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZAHIC</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALCM</c:v>
@@ -6664,10 +6748,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>360.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>360.0</c:v>
@@ -6730,10 +6814,10 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZAHIC</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALCM</c:v>
@@ -6766,10 +6850,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>480.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>480.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1700.0</c:v>
@@ -6790,7 +6874,7 @@
                   <c:v>385.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6832,10 +6916,10 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZAHIC</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALCM</c:v>
@@ -6868,10 +6952,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2000.0</c:v>
@@ -6892,7 +6976,7 @@
                   <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>650.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6934,10 +7018,10 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZAHIC</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALCM</c:v>
@@ -6970,10 +7054,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1671.0</c:v>
+                  <c:v>2800.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2800.0</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1500.0</c:v>
@@ -6994,7 +7078,7 @@
                   <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7036,10 +7120,10 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZAHIC</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALCM</c:v>
@@ -7072,10 +7156,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>407.0</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1200.0</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>720.0</c:v>
@@ -7096,7 +7180,7 @@
                   <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>2400.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7138,10 +7222,10 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZAHIC</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALCM</c:v>
@@ -7174,10 +7258,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>953.0</c:v>
+                  <c:v>2420.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2420.0</c:v>
+                  <c:v>950.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>636.0</c:v>
@@ -7198,7 +7282,7 @@
                   <c:v>470.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>78.0</c:v>
+                  <c:v>1260.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7240,10 +7324,10 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZAHIC</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALCM</c:v>
@@ -7276,10 +7360,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3071.0</c:v>
+                  <c:v>2400.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2400.0</c:v>
+                  <c:v>3200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.0</c:v>
@@ -7342,10 +7426,10 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZAHIC</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALCM</c:v>
@@ -7378,10 +7462,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>25941.0</c:v>
+                  <c:v>9513.880000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9513.880000000005</c:v>
+                  <c:v>11558.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7668.0</c:v>
@@ -7402,7 +7486,7 @@
                   <c:v>15567.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11340.0</c:v>
+                  <c:v>3688.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7418,11 +7502,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1553554968"/>
-        <c:axId val="1553557912"/>
+        <c:axId val="-2092472104"/>
+        <c:axId val="-2092469160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1553554968"/>
+        <c:axId val="-2092472104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7431,7 +7515,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1553557912"/>
+        <c:crossAx val="-2092469160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7439,7 +7523,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1553557912"/>
+        <c:axId val="-2092469160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7450,7 +7534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1553554968"/>
+        <c:crossAx val="-2092472104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7569,22 +7653,22 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZALOI</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ZAHIC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ZALCM</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>ZASLC</c:v>
@@ -7605,22 +7689,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>4608.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>7980.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4608.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2455.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>12804.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5870.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>5880.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12804.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5870.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5100.0</c:v>
@@ -7671,22 +7755,22 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZALOI</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ZAHIC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ZALCM</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>ZASLC</c:v>
@@ -7707,22 +7791,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>17604.0</c:v>
+                  <c:v>5065.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5065.4</c:v>
+                  <c:v>17607.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4397.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>5940.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11028.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>7590.048000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5940.12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11028.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5233.0</c:v>
@@ -7773,22 +7857,22 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZALOI</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ZAHIC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ZALCM</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>ZASLC</c:v>
@@ -7809,22 +7893,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3742.0</c:v>
+                  <c:v>3700.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3700.0</c:v>
+                  <c:v>3770.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3227.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1320.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2550.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3910.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1320.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2550.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3510.0</c:v>
@@ -7875,22 +7959,22 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZALOI</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ZAHIC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ZALCM</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>ZASLC</c:v>
@@ -7911,22 +7995,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>7200.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>360.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>7200.0</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>1500.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500.0</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2400.0</c:v>
@@ -7977,22 +8061,22 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZALOI</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ZAHIC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ZALCM</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>ZASLC</c:v>
@@ -8013,22 +8097,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>2425.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2425.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1450.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>950.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2700.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>950.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2700.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1305.0</c:v>
@@ -8037,7 +8121,7 @@
                   <c:v>1550.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.0</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8079,22 +8163,22 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZALOI</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ZAHIC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ZALCM</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>ZASLC</c:v>
@@ -8115,22 +8199,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>1530.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1530.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1450.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>8400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1600.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8400.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2200.0</c:v>
@@ -8181,22 +8265,22 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZALOI</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ZAHIC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ZALCM</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>ZASLC</c:v>
@@ -8217,22 +8301,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1943.0</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>1900.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1350.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>3800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3800.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2000.0</c:v>
@@ -8283,22 +8367,22 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZALOI</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ZAHIC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ZALCM</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>ZASLC</c:v>
@@ -8319,22 +8403,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>429.0</c:v>
+                  <c:v>480.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>480.0</c:v>
+                  <c:v>450.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1450.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1200.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1500.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>648.0</c:v>
@@ -8343,7 +8427,7 @@
                   <c:v>1140.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1440.0</c:v>
+                  <c:v>2400.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8385,22 +8469,22 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZALOI</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ZAHIC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ZALCM</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>ZASLC</c:v>
@@ -8421,22 +8505,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>987.0</c:v>
+                  <c:v>780.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>780.0</c:v>
+                  <c:v>315.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2400.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>3600.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>768.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1296.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3600.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>768.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1044.0</c:v>
@@ -8487,22 +8571,22 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZALOI</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ZAHIC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ZALCM</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>ZASLC</c:v>
@@ -8523,22 +8607,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3414.0</c:v>
+                  <c:v>1710.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1710.0</c:v>
+                  <c:v>3500.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1072.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2300.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>9240.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2300.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1400.0</c:v>
@@ -8547,7 +8631,7 @@
                   <c:v>1080.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5348.0</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8589,22 +8673,22 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ZAHMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZALOI</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>ZALOF</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>ZAHIC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZALCM</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>ZABOL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ZAHIC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ZALCM</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>ZASLC</c:v>
@@ -8625,22 +8709,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>37725.0</c:v>
+                  <c:v>38391.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38391.6</c:v>
+                  <c:v>24622.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>36188.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18748.952</c:v>
+                  <c:v>10495.88</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10495.88</c:v>
+                  <c:v>21948.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21948.0</c:v>
+                  <c:v>11548.952</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>19729.90831337667</c:v>
@@ -8649,7 +8733,7 @@
                   <c:v>20683.66085440278</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4016.0</c:v>
+                  <c:v>5224.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8665,11 +8749,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1553636120"/>
-        <c:axId val="1553639064"/>
+        <c:axId val="-2065373624"/>
+        <c:axId val="-2065370872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1553636120"/>
+        <c:axId val="-2065373624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8678,7 +8762,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1553639064"/>
+        <c:crossAx val="-2065370872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8686,7 +8770,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1553639064"/>
+        <c:axId val="-2065370872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8697,7 +8781,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1553636120"/>
+        <c:crossAx val="-2065373624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8873,7 +8957,7 @@
                   <c:v>5760.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7920.0</c:v>
+                  <c:v>7740.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5124.0</c:v>
@@ -9281,7 +9365,7 @@
                   <c:v>20920.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>300.0</c:v>
+                  <c:v>5100.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>20610.0</c:v>
@@ -9383,7 +9467,7 @@
                   <c:v>10040.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>480.0</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4700.0</c:v>
@@ -9587,7 +9671,7 @@
                   <c:v>480.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>950.0</c:v>
@@ -9689,7 +9773,7 @@
                   <c:v>2420.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9600.0</c:v>
+                  <c:v>10600.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4700.0</c:v>
@@ -9791,7 +9875,7 @@
                   <c:v>1885.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>22000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3840.0</c:v>
@@ -9893,7 +9977,7 @@
                   <c:v>13852.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62084.0</c:v>
+                  <c:v>8944.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>29006.92405063292</c:v>
@@ -9912,11 +9996,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1526027976"/>
-        <c:axId val="1526043176"/>
+        <c:axId val="-2065607272"/>
+        <c:axId val="-2065604296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1526027976"/>
+        <c:axId val="-2065607272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9925,7 +10009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1526043176"/>
+        <c:crossAx val="-2065604296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9933,7 +10017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1526043176"/>
+        <c:axId val="-2065604296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9944,7 +10028,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1526027976"/>
+        <c:crossAx val="-2065607272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10525,7 +10609,7 @@
                   <c:v>52500.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9900.0</c:v>
+                  <c:v>14900.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>41850.0</c:v>
@@ -11035,7 +11119,7 @@
                   <c:v>6900.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52800.0</c:v>
+                  <c:v>49200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>13100.0</c:v>
@@ -11137,7 +11221,7 @@
                   <c:v>69420.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27131.20000000001</c:v>
+                  <c:v>25731.20000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>29797.0</c:v>
@@ -11159,11 +11243,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1553716232"/>
-        <c:axId val="1553719176"/>
+        <c:axId val="-2065513096"/>
+        <c:axId val="-2065510152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1553716232"/>
+        <c:axId val="-2065513096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11172,7 +11256,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1553719176"/>
+        <c:crossAx val="-2065510152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11180,7 +11264,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1553719176"/>
+        <c:axId val="-2065510152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11191,7 +11275,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1553716232"/>
+        <c:crossAx val="-2065513096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11281,19 +11365,19 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>ZALCM</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZASLC</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ZALOI</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ZALOC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ZABOL</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>ZANOC</c:v>
@@ -11368,19 +11452,19 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>ZALCM</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZASLC</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ZALOI</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ZALOC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ZABOL</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>ZANOC</c:v>
@@ -11455,19 +11539,19 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>ZALCM</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZASLC</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ZALOI</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ZALOC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ZABOL</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>ZANOC</c:v>
@@ -11542,19 +11626,19 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>ZASLC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ZALOI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZALOC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ZABOL</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>ZALCM</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ZASLC</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ZALOI</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ZALOC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ZABOL</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>ZANOC</c:v>
@@ -11619,11 +11703,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1552910520"/>
-        <c:axId val="1552913640"/>
+        <c:axId val="-2061822600"/>
+        <c:axId val="-2061819480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1552910520"/>
+        <c:axId val="-2061822600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11632,7 +11716,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1552913640"/>
+        <c:crossAx val="-2061819480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11640,7 +11724,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1552913640"/>
+        <c:axId val="-2061819480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11651,7 +11735,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1552910520"/>
+        <c:crossAx val="-2061822600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12070,11 +12154,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1533332648"/>
-        <c:axId val="1533335768"/>
+        <c:axId val="-2069349864"/>
+        <c:axId val="-2069346680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1533332648"/>
+        <c:axId val="-2069349864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12083,7 +12167,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1533335768"/>
+        <c:crossAx val="-2069346680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12091,7 +12175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1533335768"/>
+        <c:axId val="-2069346680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12102,7 +12186,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1533332648"/>
+        <c:crossAx val="-2069349864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12521,11 +12605,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1534371064"/>
-        <c:axId val="1520826568"/>
+        <c:axId val="-2092220936"/>
+        <c:axId val="-2092473416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1534371064"/>
+        <c:axId val="-2092220936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12534,7 +12618,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1520826568"/>
+        <c:crossAx val="-2092473416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12542,7 +12626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1520826568"/>
+        <c:axId val="-2092473416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12553,7 +12637,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1534371064"/>
+        <c:crossAx val="-2092220936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12763,7 +12847,7 @@
                   <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.0</c:v>
@@ -12972,11 +13056,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1551986408"/>
-        <c:axId val="1551983272"/>
+        <c:axId val="-2066043640"/>
+        <c:axId val="-2066040520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1551986408"/>
+        <c:axId val="-2066043640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12985,7 +13069,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1551983272"/>
+        <c:crossAx val="-2066040520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12993,7 +13077,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1551983272"/>
+        <c:axId val="-2066040520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13004,7 +13088,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1551986408"/>
+        <c:crossAx val="-2066043640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13498,7 +13582,7 @@
                   <c:v>0.664785685180573</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.745594731684754</c:v>
+                  <c:v>0.765873263974382</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.426525870485679</c:v>
@@ -13721,11 +13805,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1551908984"/>
-        <c:axId val="1551906024"/>
+        <c:axId val="-2064803224"/>
+        <c:axId val="-2068994840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1551908984"/>
+        <c:axId val="-2064803224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13734,7 +13818,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1551906024"/>
+        <c:crossAx val="-2068994840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13742,7 +13826,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1551906024"/>
+        <c:axId val="-2068994840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13753,7 +13837,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1551908984"/>
+        <c:crossAx val="-2064803224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14660,11 +14744,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1534554168"/>
-        <c:axId val="1534557144"/>
+        <c:axId val="-2062915560"/>
+        <c:axId val="-2062912616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1534554168"/>
+        <c:axId val="-2062915560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14673,7 +14757,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1534557144"/>
+        <c:crossAx val="-2062912616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14681,7 +14765,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1534557144"/>
+        <c:axId val="-2062912616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14692,7 +14776,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1534554168"/>
+        <c:crossAx val="-2062915560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15599,11 +15683,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1553117192"/>
-        <c:axId val="1553120104"/>
+        <c:axId val="-2065979128"/>
+        <c:axId val="-2065976184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1553117192"/>
+        <c:axId val="-2065979128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15612,7 +15696,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1553120104"/>
+        <c:crossAx val="-2065976184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15620,7 +15704,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1553120104"/>
+        <c:axId val="-2065976184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15631,7 +15715,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1553117192"/>
+        <c:crossAx val="-2065979128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16546,11 +16630,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1553183288"/>
-        <c:axId val="1553186200"/>
+        <c:axId val="-2065887080"/>
+        <c:axId val="-2065884136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1553183288"/>
+        <c:axId val="-2065887080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16559,7 +16643,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1553186200"/>
+        <c:crossAx val="-2065884136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16567,7 +16651,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1553186200"/>
+        <c:axId val="-2065884136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16578,7 +16662,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1553183288"/>
+        <c:crossAx val="-2065887080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17783,22 +17867,22 @@
       <sheetData sheetId="1">
         <row r="9">
           <cell r="CK9">
-            <v>0.5</v>
+            <v>0.4</v>
           </cell>
         </row>
         <row r="10">
           <cell r="CK10">
-            <v>0.3</v>
+            <v>0.35</v>
           </cell>
         </row>
         <row r="11">
           <cell r="CK11">
-            <v>0.15</v>
+            <v>0.18</v>
           </cell>
         </row>
         <row r="12">
           <cell r="CK12">
-            <v>0.05</v>
+            <v>7.0000000000000007E-2</v>
           </cell>
         </row>
         <row r="14">
@@ -19823,13 +19907,13 @@
             <v>casual labour</v>
           </cell>
           <cell r="C24">
-            <v>0</v>
+            <v>1200</v>
           </cell>
           <cell r="D24">
             <v>3600</v>
           </cell>
           <cell r="E24">
-            <v>6000</v>
+            <v>0</v>
           </cell>
           <cell r="F24">
             <v>0</v>
@@ -19942,13 +20026,13 @@
             <v>staple food</v>
           </cell>
           <cell r="C32">
-            <v>6840</v>
+            <v>10260</v>
           </cell>
           <cell r="D32">
             <v>9612</v>
           </cell>
           <cell r="E32">
-            <v>7920</v>
+            <v>7740</v>
           </cell>
           <cell r="F32">
             <v>8390</v>
@@ -20010,16 +20094,16 @@
             <v>inputs</v>
           </cell>
           <cell r="C36">
-            <v>0</v>
+            <v>200</v>
           </cell>
           <cell r="D36">
-            <v>20</v>
+            <v>200</v>
           </cell>
           <cell r="E36">
-            <v>300</v>
+            <v>5100</v>
           </cell>
           <cell r="F36">
-            <v>9900</v>
+            <v>14900</v>
           </cell>
         </row>
         <row r="37">
@@ -20027,13 +20111,13 @@
             <v>social serv.</v>
           </cell>
           <cell r="C37">
-            <v>0</v>
+            <v>650</v>
           </cell>
           <cell r="D37">
             <v>800</v>
           </cell>
           <cell r="E37">
-            <v>480</v>
+            <v>16000</v>
           </cell>
           <cell r="F37">
             <v>55800</v>
@@ -20044,7 +20128,7 @@
             <v>clothes</v>
           </cell>
           <cell r="C38">
-            <v>0</v>
+            <v>1000</v>
           </cell>
           <cell r="D38">
             <v>1000</v>
@@ -20061,13 +20145,13 @@
             <v>tax &amp; gifts</v>
           </cell>
           <cell r="C39">
-            <v>0</v>
+            <v>2400</v>
           </cell>
           <cell r="D39">
-            <v>1440</v>
+            <v>2400</v>
           </cell>
           <cell r="E39">
-            <v>0</v>
+            <v>4000</v>
           </cell>
           <cell r="F39">
             <v>13220</v>
@@ -20078,13 +20162,13 @@
             <v>transport &amp; communication</v>
           </cell>
           <cell r="C40">
-            <v>78</v>
+            <v>1260</v>
           </cell>
           <cell r="D40">
             <v>1260</v>
           </cell>
           <cell r="E40">
-            <v>9600</v>
+            <v>10600</v>
           </cell>
           <cell r="F40">
             <v>27612</v>
@@ -20098,13 +20182,13 @@
             <v>0</v>
           </cell>
           <cell r="D41">
-            <v>5348</v>
+            <v>3000</v>
           </cell>
           <cell r="E41">
-            <v>0</v>
+            <v>22000</v>
           </cell>
           <cell r="F41">
-            <v>52800</v>
+            <v>49200</v>
           </cell>
         </row>
         <row r="43">
@@ -20112,16 +20196,16 @@
             <v>income minus expenditure</v>
           </cell>
           <cell r="C43">
-            <v>11340</v>
+            <v>3688</v>
           </cell>
           <cell r="D43">
-            <v>4016</v>
+            <v>5224</v>
           </cell>
           <cell r="E43">
-            <v>62084</v>
+            <v>8944</v>
           </cell>
           <cell r="F43">
-            <v>27131.200000000012</v>
+            <v>25731.200000000012</v>
           </cell>
         </row>
       </sheetData>
@@ -20260,7 +20344,7 @@
         </row>
         <row r="110">
           <cell r="CK110">
-            <v>4</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="118">
@@ -20452,7 +20536,7 @@
             <v>2700</v>
           </cell>
           <cell r="D24">
-            <v>18000</v>
+            <v>10800</v>
           </cell>
           <cell r="E24">
             <v>0</v>
@@ -20690,7 +20774,7 @@
             <v>3837.5999999999985</v>
           </cell>
           <cell r="D43">
-            <v>18748.951999999997</v>
+            <v>11548.951999999997</v>
           </cell>
           <cell r="E43">
             <v>30516.335999999996</v>
@@ -21501,7 +21585,7 @@
         </row>
         <row r="16">
           <cell r="C16">
-            <v>0.74559473168475365</v>
+            <v>0.76587326397438182</v>
           </cell>
           <cell r="D16">
             <v>0.63808751033623901</v>
@@ -21599,10 +21683,10 @@
         </row>
         <row r="24">
           <cell r="C24">
-            <v>2880</v>
+            <v>0</v>
           </cell>
           <cell r="D24">
-            <v>9200</v>
+            <v>9980</v>
           </cell>
           <cell r="E24">
             <v>0</v>
@@ -21613,7 +21697,7 @@
         </row>
         <row r="25">
           <cell r="C25">
-            <v>9000</v>
+            <v>0</v>
           </cell>
           <cell r="D25">
             <v>0</v>
@@ -21627,10 +21711,10 @@
         </row>
         <row r="26">
           <cell r="C26">
-            <v>13716</v>
+            <v>11520</v>
           </cell>
           <cell r="D26">
-            <v>18300</v>
+            <v>14400</v>
           </cell>
           <cell r="E26">
             <v>0</v>
@@ -21658,7 +21742,7 @@
             <v>22484</v>
           </cell>
           <cell r="D28">
-            <v>41444</v>
+            <v>30884</v>
           </cell>
           <cell r="E28">
             <v>9524</v>
@@ -21697,7 +21781,7 @@
         </row>
         <row r="32">
           <cell r="C32">
-            <v>10446</v>
+            <v>10686</v>
           </cell>
           <cell r="D32">
             <v>7980</v>
@@ -21714,7 +21798,7 @@
             <v>12220</v>
           </cell>
           <cell r="D33">
-            <v>17604</v>
+            <v>17607</v>
           </cell>
           <cell r="E33">
             <v>40707.199999999997</v>
@@ -21725,10 +21809,10 @@
         </row>
         <row r="34">
           <cell r="C34">
-            <v>2811</v>
+            <v>2830</v>
           </cell>
           <cell r="D34">
-            <v>3742</v>
+            <v>3770</v>
           </cell>
           <cell r="E34">
             <v>4686</v>
@@ -21781,10 +21865,10 @@
         </row>
         <row r="38">
           <cell r="C38">
-            <v>1671</v>
+            <v>1600</v>
           </cell>
           <cell r="D38">
-            <v>1943</v>
+            <v>1900</v>
           </cell>
           <cell r="E38">
             <v>5286</v>
@@ -21795,10 +21879,10 @@
         </row>
         <row r="39">
           <cell r="C39">
-            <v>407</v>
+            <v>400</v>
           </cell>
           <cell r="D39">
-            <v>429</v>
+            <v>450</v>
           </cell>
           <cell r="E39">
             <v>0</v>
@@ -21809,10 +21893,10 @@
         </row>
         <row r="40">
           <cell r="C40">
-            <v>953</v>
+            <v>950</v>
           </cell>
           <cell r="D40">
-            <v>987</v>
+            <v>315</v>
           </cell>
           <cell r="E40">
             <v>21286</v>
@@ -21823,10 +21907,10 @@
         </row>
         <row r="41">
           <cell r="C41">
-            <v>3071</v>
+            <v>3200</v>
           </cell>
           <cell r="D41">
-            <v>3414</v>
+            <v>3500</v>
           </cell>
           <cell r="E41">
             <v>13717</v>
@@ -21837,10 +21921,10 @@
         </row>
         <row r="43">
           <cell r="C43">
-            <v>25941</v>
+            <v>11558</v>
           </cell>
           <cell r="D43">
-            <v>37725</v>
+            <v>24622</v>
           </cell>
           <cell r="E43">
             <v>12764.800000000003</v>
@@ -22758,8 +22842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AT69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57:C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -22769,20 +22853,20 @@
   <sheetData>
     <row r="2" spans="1:46">
       <c r="B2">
-        <v>59201</v>
+        <v>59203</v>
       </c>
       <c r="F2">
-        <v>59203</v>
-      </c>
-      <c r="J2">
         <f>[1]WB!$D$1</f>
         <v>59101</v>
       </c>
+      <c r="J2">
+        <v>59104</v>
+      </c>
       <c r="N2">
-        <v>59104</v>
+        <v>59202</v>
       </c>
       <c r="R2">
-        <v>59202</v>
+        <v>59201</v>
       </c>
       <c r="V2">
         <v>59205</v>
@@ -22799,20 +22883,20 @@
     </row>
     <row r="3" spans="1:46">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="N3" t="str">
+      <c r="J3" t="str">
         <f>[1]WB!$B$1</f>
         <v>ZALOC</v>
       </c>
+      <c r="N3" t="s">
+        <v>13</v>
+      </c>
       <c r="R3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V3" t="s">
         <v>15</v>
@@ -22942,84 +23026,84 @@
         <v>12</v>
       </c>
       <c r="B5" s="2">
-        <f>[2]WB!$CK$9</f>
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="2">
-        <f>[2]WB!$CK$10</f>
-        <v>0.3</v>
-      </c>
-      <c r="D5" s="2">
-        <f>[2]WB!$CK$11</f>
-        <v>0.15</v>
-      </c>
-      <c r="E5" s="2">
-        <f>[2]WB!$CK$12</f>
-        <v>0.05</v>
-      </c>
-      <c r="F5" s="2">
         <f>[3]WB!$CP$9</f>
         <v>0.49</v>
       </c>
-      <c r="G5" s="2">
+      <c r="C5" s="2">
         <f>[3]WB!$CP$10</f>
         <v>0.25</v>
       </c>
-      <c r="H5" s="2">
+      <c r="D5" s="2">
         <f>[3]WB!$CP$11</f>
         <v>0.18</v>
       </c>
-      <c r="I5" s="2">
+      <c r="E5" s="2">
         <f>[3]WB!$CP$12</f>
         <v>0.08</v>
       </c>
-      <c r="J5" s="2">
+      <c r="F5" s="2">
         <f>[4]WB!$CK$9</f>
         <v>0.47</v>
       </c>
-      <c r="K5" s="2">
+      <c r="G5" s="2">
         <f>[4]WB!$CK$10</f>
         <v>0.25</v>
       </c>
-      <c r="L5" s="2">
+      <c r="H5" s="2">
         <f>[4]WB!$CK$11</f>
         <v>0.18</v>
       </c>
-      <c r="M5" s="2">
+      <c r="I5" s="2">
         <f>[4]WB!$CK$12</f>
         <v>0.1</v>
       </c>
-      <c r="N5" s="2">
+      <c r="J5" s="2">
         <f>[5]WB!$CK$9</f>
         <v>0.45</v>
       </c>
-      <c r="O5" s="2">
+      <c r="K5" s="2">
         <f>[5]WB!$CK$10</f>
         <v>0.26</v>
       </c>
-      <c r="P5" s="2">
+      <c r="L5" s="2">
         <f>[5]WB!$CK$11</f>
         <v>0.2</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="M5" s="2">
         <f>[5]WB!$CK$12</f>
         <v>0.09</v>
       </c>
-      <c r="R5" s="2">
+      <c r="N5" s="2">
         <f>[6]WB!$CK$9</f>
         <v>0.44</v>
       </c>
-      <c r="S5" s="2">
+      <c r="O5" s="2">
         <f>[6]WB!$CK$10</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="T5" s="2">
+      <c r="P5" s="2">
         <f>[6]WB!$CK$11</f>
         <v>0.18</v>
       </c>
-      <c r="U5" s="2">
+      <c r="Q5" s="2">
         <f>[6]WB!$CK$12</f>
         <v>0.1</v>
+      </c>
+      <c r="R5" s="2">
+        <f>[2]WB!$CK$9</f>
+        <v>0.4</v>
+      </c>
+      <c r="S5" s="2">
+        <f>[2]WB!$CK$10</f>
+        <v>0.35</v>
+      </c>
+      <c r="T5" s="2">
+        <f>[2]WB!$CK$11</f>
+        <v>0.18</v>
+      </c>
+      <c r="U5" s="2">
+        <f>[2]WB!$CK$12</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="V5" s="2">
         <f>[7]WB!$CK$9</f>
@@ -24379,7 +24463,7 @@
       </c>
       <c r="K23">
         <f>[6]WB!$CK$110</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <f>[6]WB!$CK$118</f>
@@ -25461,7 +25545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:38">
       <c r="A33" t="str">
         <f>[5]Summ!$A16</f>
         <v>staple purchases</v>
@@ -25492,7 +25576,7 @@
       </c>
       <c r="H33" s="2">
         <f>[8]Summ!$C16</f>
-        <v>0.74559473168475365</v>
+        <v>0.76587326397438182</v>
       </c>
       <c r="I33" s="2">
         <f>[2]Summ!$C16</f>
@@ -25611,7 +25695,7 @@
         <v>0.67660356463262761</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:38">
       <c r="A34" t="str">
         <f>[5]Summ!$A17</f>
         <v>non-staple purchases</v>
@@ -25761,7 +25845,7 @@
         <v>0.17114115927272727</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:38">
       <c r="A35" t="str">
         <f>[5]Summ!$A18</f>
         <v>food aid</v>
@@ -25911,7 +25995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:38">
       <c r="A36" t="str">
         <f>[5]Summ!$A19</f>
         <v>other (gifts, etc)</v>
@@ -26061,7 +26145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" s="4" customFormat="1">
+    <row r="37" spans="1:38" s="4" customFormat="1">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
@@ -26091,7 +26175,7 @@
       </c>
       <c r="H37" s="5">
         <f t="shared" ref="H37:Y37" si="1">SUM(H28:H36)</f>
-        <v>1.0316950038071517</v>
+        <v>1.0519735360967799</v>
       </c>
       <c r="I37" s="5">
         <f t="shared" si="1"/>
@@ -26210,12 +26294,12 @@
         <v>1.3114341273922787</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:38">
       <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
         <v>17</v>
-      </c>
-      <c r="C40" t="s">
-        <v>20</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
@@ -26239,22 +26323,22 @@
         <v>21</v>
       </c>
       <c r="K40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L40" t="s">
         <v>17</v>
-      </c>
-      <c r="L40" t="s">
-        <v>19</v>
       </c>
       <c r="M40" t="s">
         <v>18</v>
       </c>
       <c r="N40" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" t="s">
+        <v>14</v>
+      </c>
+      <c r="P40" t="s">
         <v>13</v>
-      </c>
-      <c r="O40" t="s">
-        <v>20</v>
-      </c>
-      <c r="P40" t="s">
-        <v>14</v>
       </c>
       <c r="Q40" t="s">
         <v>16</v>
@@ -26320,7 +26404,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:38">
       <c r="B41" t="s">
         <v>1</v>
       </c>
@@ -26430,22 +26514,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:38">
       <c r="A42" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:38">
       <c r="A43" s="3" t="str">
         <f>[5]Summ!A21</f>
         <v>crop sales</v>
       </c>
       <c r="B43" s="3">
+        <f>[9]Summ!$C21</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="3">
         <f>[8]Summ!$C21</f>
-        <v>0</v>
-      </c>
-      <c r="C43" s="3">
-        <f>[9]Summ!$C21</f>
         <v>0</v>
       </c>
       <c r="D43" s="3">
@@ -26477,28 +26561,28 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <f>[8]Summ!$D21</f>
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
         <f>[4]Summ!$D21</f>
         <v>2675</v>
+      </c>
+      <c r="L43" s="3">
+        <f>[8]Summ!$D21</f>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <f>[10]Summ!$D21</f>
         <v>400</v>
       </c>
       <c r="N43" s="3">
+        <f>[9]Summ!$D21</f>
+        <v>2880</v>
+      </c>
+      <c r="O43" s="3">
+        <f>[2]Summ!$D21</f>
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <f>[6]Summ!$D21</f>
         <v>350</v>
-      </c>
-      <c r="O43" s="3">
-        <f>[9]Summ!$D21</f>
-        <v>2880</v>
-      </c>
-      <c r="P43" s="3">
-        <f>[2]Summ!$D21</f>
-        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <f>[3]Summ!$D21</f>
@@ -26584,18 +26668,19 @@
         <f>[8]Summ!$F21</f>
         <v>0</v>
       </c>
+      <c r="AL43" s="3"/>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:38">
       <c r="A44" s="3" t="str">
         <f>[5]Summ!A22</f>
         <v>livestock product sales</v>
       </c>
       <c r="B44" s="3">
+        <f>[9]Summ!$C22</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="3">
         <f>[8]Summ!$C22</f>
-        <v>0</v>
-      </c>
-      <c r="C44" s="3">
-        <f>[9]Summ!$C22</f>
         <v>0</v>
       </c>
       <c r="D44" s="3">
@@ -26627,27 +26712,27 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
-        <f>[8]Summ!$D22</f>
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
         <f>[4]Summ!$D22</f>
         <v>2000</v>
       </c>
+      <c r="L44" s="3">
+        <f>[8]Summ!$D22</f>
+        <v>0</v>
+      </c>
       <c r="M44" s="3">
         <f>[10]Summ!$D22</f>
         <v>0</v>
       </c>
       <c r="N44" s="3">
+        <f>[9]Summ!$D22</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <f>[2]Summ!$D22</f>
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
         <f>[6]Summ!$D22</f>
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <f>[9]Summ!$D22</f>
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <f>[2]Summ!$D22</f>
         <v>0</v>
       </c>
       <c r="Q44" s="3">
@@ -26734,19 +26819,20 @@
         <f>[8]Summ!$F22</f>
         <v>0</v>
       </c>
+      <c r="AL44" s="3"/>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:38">
       <c r="A45" s="3" t="str">
         <f>[5]Summ!A23</f>
         <v>livestock sales</v>
       </c>
       <c r="B45" s="3">
+        <f>[9]Summ!$C23</f>
+        <v>1000</v>
+      </c>
+      <c r="C45" s="3">
         <f>[8]Summ!$C23</f>
         <v>1200</v>
-      </c>
-      <c r="C45" s="3">
-        <f>[9]Summ!$C23</f>
-        <v>1000</v>
       </c>
       <c r="D45" s="3">
         <f>[2]Summ!$C23</f>
@@ -26777,28 +26863,28 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <f>[4]Summ!$D23</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <f>[8]Summ!$D23</f>
         <v>4200</v>
-      </c>
-      <c r="L45" s="3">
-        <f>[4]Summ!$D23</f>
-        <v>0</v>
       </c>
       <c r="M45" s="3">
         <f>[10]Summ!$D23</f>
         <v>3728.5</v>
       </c>
       <c r="N45" s="3">
+        <f>[9]Summ!$D23</f>
+        <v>4450</v>
+      </c>
+      <c r="O45" s="3">
+        <f>[2]Summ!$D23</f>
+        <v>7600</v>
+      </c>
+      <c r="P45" s="3">
         <f>[6]Summ!$D23</f>
         <v>6400</v>
-      </c>
-      <c r="O45" s="3">
-        <f>[9]Summ!$D23</f>
-        <v>4450</v>
-      </c>
-      <c r="P45" s="3">
-        <f>[2]Summ!$D23</f>
-        <v>7600</v>
       </c>
       <c r="Q45" s="3">
         <f>[3]Summ!$D23</f>
@@ -26884,19 +26970,20 @@
         <f>[8]Summ!$F23</f>
         <v>19200</v>
       </c>
+      <c r="AL45" s="3"/>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:38">
       <c r="A46" s="3" t="str">
         <f>[5]Summ!A24</f>
         <v>casual labour</v>
       </c>
       <c r="B46" s="3">
-        <f>[8]Summ!$C24</f>
-        <v>2880</v>
-      </c>
-      <c r="C46" s="3">
         <f>[9]Summ!$C24</f>
         <v>7920</v>
+      </c>
+      <c r="C46" s="3">
+        <f>[8]Summ!$C24</f>
+        <v>0</v>
       </c>
       <c r="D46" s="3">
         <f>[2]Summ!$C24</f>
@@ -26924,31 +27011,31 @@
       </c>
       <c r="J46" s="3">
         <f>[5]Summ!$C24</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="K46" s="3">
-        <f>[8]Summ!$D24</f>
-        <v>9200</v>
-      </c>
-      <c r="L46" s="3">
         <f>[4]Summ!$D24</f>
         <v>14085</v>
+      </c>
+      <c r="L46" s="3">
+        <f>[8]Summ!$D24</f>
+        <v>9980</v>
       </c>
       <c r="M46" s="3">
         <f>[10]Summ!$D24</f>
         <v>12420</v>
       </c>
       <c r="N46" s="3">
-        <f>[6]Summ!$D24</f>
-        <v>18000</v>
-      </c>
-      <c r="O46" s="3">
         <f>[9]Summ!$D24</f>
         <v>9460</v>
       </c>
-      <c r="P46" s="3">
+      <c r="O46" s="3">
         <f>[2]Summ!$D24</f>
         <v>9720</v>
+      </c>
+      <c r="P46" s="3">
+        <f>[6]Summ!$D24</f>
+        <v>10800</v>
       </c>
       <c r="Q46" s="3">
         <f>[3]Summ!$D24</f>
@@ -26992,7 +27079,7 @@
       </c>
       <c r="AA46" s="3">
         <f>[5]Summ!$E24</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AB46" s="3">
         <f>[3]Summ!$E24</f>
@@ -27034,18 +27121,19 @@
         <f>[8]Summ!$F24</f>
         <v>0</v>
       </c>
+      <c r="AL46" s="3"/>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:38">
       <c r="A47" s="3" t="str">
         <f>[5]Summ!A25</f>
         <v>formal employment</v>
       </c>
       <c r="B47" s="3">
+        <f>[9]Summ!$C25</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="3">
         <f>[8]Summ!$C25</f>
-        <v>9000</v>
-      </c>
-      <c r="C47" s="3">
-        <f>[9]Summ!$C25</f>
         <v>0</v>
       </c>
       <c r="D47" s="3">
@@ -27077,27 +27165,27 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <f>[8]Summ!$D25</f>
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
         <f>[4]Summ!$D25</f>
         <v>14400</v>
+      </c>
+      <c r="L47" s="3">
+        <f>[8]Summ!$D25</f>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
         <f>[10]Summ!$D25</f>
         <v>12000</v>
       </c>
       <c r="N47" s="3">
+        <f>[9]Summ!$D25</f>
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <f>[2]Summ!$D25</f>
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <f>[6]Summ!$D25</f>
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <f>[9]Summ!$D25</f>
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <f>[2]Summ!$D25</f>
         <v>0</v>
       </c>
       <c r="Q47" s="3">
@@ -27184,19 +27272,20 @@
         <f>[8]Summ!$F25</f>
         <v>100800</v>
       </c>
+      <c r="AL47" s="3"/>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:38">
       <c r="A48" s="3" t="str">
         <f>[5]Summ!A26</f>
         <v>self-employment (e.g. collecting, etc.)</v>
       </c>
       <c r="B48" s="3">
+        <f>[9]Summ!$C26</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="3">
         <f>[8]Summ!$C26</f>
-        <v>13716</v>
-      </c>
-      <c r="C48" s="3">
-        <f>[9]Summ!$C26</f>
-        <v>0</v>
+        <v>11520</v>
       </c>
       <c r="D48" s="3">
         <f>[2]Summ!$C26</f>
@@ -27227,28 +27316,28 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
-        <f>[8]Summ!$D26</f>
-        <v>18300</v>
-      </c>
-      <c r="L48" s="3">
         <f>[4]Summ!$D26</f>
         <v>6420</v>
+      </c>
+      <c r="L48" s="3">
+        <f>[8]Summ!$D26</f>
+        <v>14400</v>
       </c>
       <c r="M48" s="3">
         <f>[10]Summ!$D26</f>
         <v>6290</v>
       </c>
       <c r="N48" s="3">
+        <f>[9]Summ!$D26</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <f>[2]Summ!$D26</f>
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
         <f>[6]Summ!$D26</f>
         <v>360</v>
-      </c>
-      <c r="O48" s="3">
-        <f>[9]Summ!$D26</f>
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <f>[2]Summ!$D26</f>
-        <v>0</v>
       </c>
       <c r="Q48" s="3">
         <f>[3]Summ!$D26</f>
@@ -27334,18 +27423,19 @@
         <f>[8]Summ!$F26</f>
         <v>0</v>
       </c>
+      <c r="AL48" s="3"/>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:38">
       <c r="A49" s="3" t="str">
         <f>[5]Summ!A27</f>
         <v>small business</v>
       </c>
       <c r="B49" s="3">
+        <f>[9]Summ!$C27</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="3">
         <f>[8]Summ!$C27</f>
-        <v>0</v>
-      </c>
-      <c r="C49" s="3">
-        <f>[9]Summ!$C27</f>
         <v>0</v>
       </c>
       <c r="D49" s="3">
@@ -27377,27 +27467,27 @@
         <v>1200</v>
       </c>
       <c r="K49" s="3">
+        <f>[4]Summ!$D27</f>
+        <v>960</v>
+      </c>
+      <c r="L49" s="3">
         <f>[8]Summ!$D27</f>
         <v>2040</v>
-      </c>
-      <c r="L49" s="3">
-        <f>[4]Summ!$D27</f>
-        <v>960</v>
       </c>
       <c r="M49" s="3">
         <f>[10]Summ!$D27</f>
         <v>1920</v>
       </c>
       <c r="N49" s="3">
+        <f>[9]Summ!$D27</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <f>[2]Summ!$D27</f>
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
         <f>[6]Summ!$D27</f>
-        <v>0</v>
-      </c>
-      <c r="O49" s="3">
-        <f>[9]Summ!$D27</f>
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <f>[2]Summ!$D27</f>
         <v>0</v>
       </c>
       <c r="Q49" s="3">
@@ -27484,19 +27574,20 @@
         <f>[8]Summ!$F27</f>
         <v>91716</v>
       </c>
+      <c r="AL49" s="3"/>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:38">
       <c r="A50" s="3" t="str">
         <f>[5]Summ!A28</f>
         <v>formal cash transfers</v>
       </c>
       <c r="B50" s="3">
+        <f>[9]Summ!$C28</f>
+        <v>36840</v>
+      </c>
+      <c r="C50" s="3">
         <f>[8]Summ!$C28</f>
         <v>22484</v>
-      </c>
-      <c r="C50" s="3">
-        <f>[9]Summ!$C28</f>
-        <v>36840</v>
       </c>
       <c r="D50" s="3">
         <f>[2]Summ!$C28</f>
@@ -27527,28 +27618,28 @@
         <v>23940</v>
       </c>
       <c r="K50" s="3">
-        <f>[8]Summ!$D28</f>
-        <v>41444</v>
-      </c>
-      <c r="L50" s="3">
         <f>[4]Summ!$D28</f>
         <v>20220</v>
+      </c>
+      <c r="L50" s="3">
+        <f>[8]Summ!$D28</f>
+        <v>30884</v>
       </c>
       <c r="M50" s="3">
         <f>[10]Summ!$D28</f>
         <v>17181</v>
       </c>
       <c r="N50" s="3">
+        <f>[9]Summ!$D28</f>
+        <v>35520</v>
+      </c>
+      <c r="O50" s="3">
+        <f>[2]Summ!$D28</f>
+        <v>34944</v>
+      </c>
+      <c r="P50" s="3">
         <f>[6]Summ!$D28</f>
         <v>30180</v>
-      </c>
-      <c r="O50" s="3">
-        <f>[9]Summ!$D28</f>
-        <v>35520</v>
-      </c>
-      <c r="P50" s="3">
-        <f>[2]Summ!$D28</f>
-        <v>34944</v>
       </c>
       <c r="Q50" s="3">
         <f>[3]Summ!$D28</f>
@@ -27634,19 +27725,20 @@
         <f>[8]Summ!$F28</f>
         <v>0</v>
       </c>
+      <c r="AL50" s="3"/>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:38">
       <c r="A51" s="3" t="str">
         <f>[5]Summ!A29</f>
         <v>informal cash transfers (incl gifts, remittances)</v>
       </c>
       <c r="B51" s="3">
+        <f>[9]Summ!$C29</f>
+        <v>0</v>
+      </c>
+      <c r="C51" s="3">
         <f>[8]Summ!$C29</f>
         <v>9600</v>
-      </c>
-      <c r="C51" s="3">
-        <f>[9]Summ!$C29</f>
-        <v>0</v>
       </c>
       <c r="D51" s="3">
         <f>[2]Summ!$C29</f>
@@ -27677,27 +27769,27 @@
         <v>0</v>
       </c>
       <c r="K51" s="3">
-        <f>[8]Summ!$D29</f>
-        <v>0</v>
-      </c>
-      <c r="L51" s="3">
         <f>[4]Summ!$D29</f>
         <v>4800</v>
+      </c>
+      <c r="L51" s="3">
+        <f>[8]Summ!$D29</f>
+        <v>0</v>
       </c>
       <c r="M51" s="3">
         <f>[10]Summ!$D29</f>
         <v>1500</v>
       </c>
       <c r="N51" s="3">
+        <f>[9]Summ!$D29</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <f>[2]Summ!$D29</f>
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
         <f>[6]Summ!$D29</f>
-        <v>0</v>
-      </c>
-      <c r="O51" s="3">
-        <f>[9]Summ!$D29</f>
-        <v>0</v>
-      </c>
-      <c r="P51" s="3">
-        <f>[2]Summ!$D29</f>
         <v>0</v>
       </c>
       <c r="Q51" s="3">
@@ -27784,18 +27876,19 @@
         <f>[8]Summ!$F29</f>
         <v>0</v>
       </c>
+      <c r="AL51" s="3"/>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:38">
       <c r="A52" s="3" t="str">
         <f>[5]Summ!A30</f>
         <v>other (gifts, wild food sales, fishing, etc)</v>
       </c>
       <c r="B52" s="3">
+        <f>[9]Summ!$C30</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="3">
         <f>[8]Summ!$C30</f>
-        <v>0</v>
-      </c>
-      <c r="C52" s="3">
-        <f>[9]Summ!$C30</f>
         <v>0</v>
       </c>
       <c r="D52" s="3">
@@ -27827,27 +27920,27 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <f>[8]Summ!$D30</f>
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
         <f>[4]Summ!$D30</f>
         <v>2330</v>
       </c>
+      <c r="L52" s="3">
+        <f>[8]Summ!$D30</f>
+        <v>0</v>
+      </c>
       <c r="M52" s="3">
         <f>[10]Summ!$D30</f>
         <v>0</v>
       </c>
       <c r="N52" s="3">
+        <f>[9]Summ!$D30</f>
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <f>[2]Summ!$D30</f>
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <f>[6]Summ!$D30</f>
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
-        <f>[9]Summ!$D30</f>
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <f>[2]Summ!$D30</f>
         <v>0</v>
       </c>
       <c r="Q52" s="3">
@@ -27934,21 +28027,22 @@
         <f>[8]Summ!$F30</f>
         <v>0</v>
       </c>
+      <c r="AL52" s="3"/>
     </row>
-    <row r="53" spans="1:37" s="4" customFormat="1">
+    <row r="53" spans="1:38" s="4" customFormat="1">
       <c r="A53" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B53" s="6">
-        <f t="shared" ref="B53" si="5">SUM(B43:B52)</f>
-        <v>58880</v>
+        <f t="shared" ref="B53:C53" si="5">SUM(B43:B52)</f>
+        <v>45760</v>
       </c>
       <c r="C53" s="6">
-        <f t="shared" ref="C53:J53" si="6">SUM(C43:C52)</f>
-        <v>45760</v>
+        <f t="shared" si="5"/>
+        <v>44804</v>
       </c>
       <c r="D53" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="C53:L53" si="6">SUM(D43:D52)</f>
         <v>34040</v>
       </c>
       <c r="E53" s="6">
@@ -27973,31 +28067,31 @@
       </c>
       <c r="J53" s="6">
         <f t="shared" si="6"/>
-        <v>25140</v>
+        <v>26340</v>
       </c>
       <c r="K53" s="6">
-        <f t="shared" ref="K53:N53" si="7">SUM(K43:K52)</f>
-        <v>75184</v>
+        <f t="shared" si="6"/>
+        <v>67890</v>
       </c>
       <c r="L53" s="6">
-        <f t="shared" si="7"/>
-        <v>67890</v>
+        <f t="shared" si="6"/>
+        <v>61504</v>
       </c>
       <c r="M53" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="K53:N53" si="7">SUM(M43:M52)</f>
         <v>55439.5</v>
       </c>
       <c r="N53" s="6">
-        <f t="shared" si="7"/>
-        <v>55290</v>
+        <f>SUM(N43:N52)</f>
+        <v>52310</v>
       </c>
       <c r="O53" s="6">
         <f>SUM(O43:O52)</f>
-        <v>52310</v>
+        <v>52264</v>
       </c>
       <c r="P53" s="6">
-        <f>SUM(P43:P52)</f>
-        <v>52264</v>
+        <f t="shared" ref="P53" si="8">SUM(P43:P52)</f>
+        <v>48090</v>
       </c>
       <c r="Q53" s="6">
         <f>SUM(Q43:Q52)</f>
@@ -28012,19 +28106,19 @@
         <v>32760</v>
       </c>
       <c r="T53" s="6">
-        <f t="shared" ref="T53:W53" si="8">SUM(T43:T52)</f>
+        <f t="shared" ref="T53:W53" si="9">SUM(T43:T52)</f>
         <v>179275</v>
       </c>
       <c r="U53" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>136102.90322580645</v>
       </c>
       <c r="V53" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>133244</v>
       </c>
       <c r="W53" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>122224</v>
       </c>
       <c r="X53" s="6">
@@ -28041,38 +28135,38 @@
       </c>
       <c r="AA53" s="6">
         <f>SUM(AA43:AA52)</f>
-        <v>98820</v>
+        <v>92820</v>
       </c>
       <c r="AB53" s="6">
         <f>SUM(AB43:AB52)</f>
         <v>88508.924050632922</v>
       </c>
       <c r="AC53" s="6">
-        <f t="shared" ref="AC53:AI53" si="9">SUM(AC43:AC52)</f>
+        <f t="shared" ref="AC53:AI53" si="10">SUM(AC43:AC52)</f>
         <v>340312.90322580643</v>
       </c>
       <c r="AD53" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>309500</v>
       </c>
       <c r="AE53" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>302250</v>
       </c>
       <c r="AF53" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>300233.92405063292</v>
       </c>
       <c r="AG53" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>272820</v>
       </c>
       <c r="AH53" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>230645</v>
       </c>
       <c r="AI53" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>220350</v>
       </c>
       <c r="AJ53" s="6">
@@ -28083,24 +28177,25 @@
         <f>SUM(AK43:AK52)</f>
         <v>211716</v>
       </c>
+      <c r="AL53" s="6"/>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:38">
       <c r="A56" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:38">
       <c r="A57" s="3" t="str">
         <f>[5]Summ!A32</f>
         <v>staple food</v>
       </c>
       <c r="B57" s="3">
-        <f>[8]Summ!$C32</f>
-        <v>10446</v>
-      </c>
-      <c r="C57" s="3">
         <f>[9]Summ!$C32</f>
         <v>14140</v>
+      </c>
+      <c r="C57" s="3">
+        <f>[8]Summ!$C32</f>
+        <v>10686</v>
       </c>
       <c r="D57" s="3">
         <f>[2]Summ!$C32</f>
@@ -28128,31 +28223,31 @@
       </c>
       <c r="J57" s="3">
         <f>[5]Summ!C32</f>
-        <v>6840</v>
+        <v>10260</v>
       </c>
       <c r="K57" s="3">
+        <f>[4]Summ!$D32</f>
+        <v>4608</v>
+      </c>
+      <c r="L57" s="3">
         <f>[8]Summ!$D32</f>
         <v>7980</v>
-      </c>
-      <c r="L57" s="3">
-        <f>[4]Summ!$D32</f>
-        <v>4608</v>
       </c>
       <c r="M57" s="3">
         <f>[10]Summ!$D32</f>
         <v>2455</v>
       </c>
       <c r="N57" s="3">
+        <f>[9]Summ!$D32</f>
+        <v>12804</v>
+      </c>
+      <c r="O57" s="3">
+        <f>[2]Summ!$D32</f>
+        <v>5870</v>
+      </c>
+      <c r="P57" s="3">
         <f>[6]Summ!$D32</f>
         <v>5880</v>
-      </c>
-      <c r="O57" s="3">
-        <f>[9]Summ!$D32</f>
-        <v>12804</v>
-      </c>
-      <c r="P57" s="3">
-        <f>[2]Summ!$D32</f>
-        <v>5870</v>
       </c>
       <c r="Q57" s="3">
         <f>[3]Summ!$D32</f>
@@ -28196,7 +28291,7 @@
       </c>
       <c r="AA57" s="3">
         <f>[5]Summ!E32</f>
-        <v>7920</v>
+        <v>7740</v>
       </c>
       <c r="AB57" s="3">
         <f>[3]Summ!$E32</f>
@@ -28238,19 +28333,23 @@
         <f>[8]Summ!$F32</f>
         <v>8010</v>
       </c>
+      <c r="AL57" s="3">
+        <f>[8]Summ!$C32</f>
+        <v>10686</v>
+      </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:38">
       <c r="A58" s="3" t="str">
         <f>[5]Summ!A33</f>
         <v>non-staple food</v>
       </c>
       <c r="B58" s="3">
+        <f>[9]Summ!$C33</f>
+        <v>5386.12</v>
+      </c>
+      <c r="C58" s="3">
         <f>[8]Summ!$C33</f>
         <v>12220</v>
-      </c>
-      <c r="C58" s="3">
-        <f>[9]Summ!$C33</f>
-        <v>5386.12</v>
       </c>
       <c r="D58" s="3">
         <f>[2]Summ!$C33</f>
@@ -28281,28 +28380,28 @@
         <v>6042</v>
       </c>
       <c r="K58" s="3">
-        <f>[8]Summ!$D33</f>
-        <v>17604</v>
-      </c>
-      <c r="L58" s="3">
         <f>[4]Summ!$D33</f>
         <v>5065.3999999999996</v>
+      </c>
+      <c r="L58" s="3">
+        <f>[8]Summ!$D33</f>
+        <v>17607</v>
       </c>
       <c r="M58" s="3">
         <f>[10]Summ!$D33</f>
         <v>4397</v>
       </c>
       <c r="N58" s="3">
+        <f>[9]Summ!$D33</f>
+        <v>5940.12</v>
+      </c>
+      <c r="O58" s="3">
+        <f>[2]Summ!$D33</f>
+        <v>11028</v>
+      </c>
+      <c r="P58" s="3">
         <f>[6]Summ!$D33</f>
         <v>7590.0480000000007</v>
-      </c>
-      <c r="O58" s="3">
-        <f>[9]Summ!$D33</f>
-        <v>5940.12</v>
-      </c>
-      <c r="P58" s="3">
-        <f>[2]Summ!$D33</f>
-        <v>11028</v>
       </c>
       <c r="Q58" s="3">
         <f>[3]Summ!$D33</f>
@@ -28388,19 +28487,23 @@
         <f>[8]Summ!$F33</f>
         <v>40761.199999999997</v>
       </c>
+      <c r="AL58" s="3">
+        <f>[8]Summ!$C33</f>
+        <v>12220</v>
+      </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:38">
       <c r="A59" s="3" t="str">
         <f>[5]Summ!A34</f>
         <v>HH items</v>
       </c>
       <c r="B59" s="3">
-        <f>[8]Summ!$C34</f>
-        <v>2811</v>
-      </c>
-      <c r="C59" s="3">
         <f>[9]Summ!$C34</f>
         <v>1220</v>
+      </c>
+      <c r="C59" s="3">
+        <f>[8]Summ!$C34</f>
+        <v>2830</v>
       </c>
       <c r="D59" s="3">
         <f>[2]Summ!$C34</f>
@@ -28431,28 +28534,28 @@
         <v>840</v>
       </c>
       <c r="K59" s="3">
-        <f>[8]Summ!$D34</f>
-        <v>3742</v>
-      </c>
-      <c r="L59" s="3">
         <f>[4]Summ!$D34</f>
         <v>3700</v>
+      </c>
+      <c r="L59" s="3">
+        <f>[8]Summ!$D34</f>
+        <v>3770</v>
       </c>
       <c r="M59" s="3">
         <f>[10]Summ!$D34</f>
         <v>3227</v>
       </c>
       <c r="N59" s="3">
+        <f>[9]Summ!$D34</f>
+        <v>1320</v>
+      </c>
+      <c r="O59" s="3">
+        <f>[2]Summ!$D34</f>
+        <v>2550</v>
+      </c>
+      <c r="P59" s="3">
         <f>[6]Summ!$D34</f>
         <v>3910</v>
-      </c>
-      <c r="O59" s="3">
-        <f>[9]Summ!$D34</f>
-        <v>1320</v>
-      </c>
-      <c r="P59" s="3">
-        <f>[2]Summ!$D34</f>
-        <v>2550</v>
       </c>
       <c r="Q59" s="3">
         <f>[3]Summ!$D34</f>
@@ -28538,19 +28641,23 @@
         <f>[8]Summ!$F34</f>
         <v>7340</v>
       </c>
+      <c r="AL59" s="3">
+        <f>[8]Summ!$C34</f>
+        <v>2830</v>
+      </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:38">
       <c r="A60" s="3" t="str">
         <f>[5]Summ!A35</f>
         <v>water</v>
       </c>
       <c r="B60" s="3">
+        <f>[9]Summ!$C35</f>
+        <v>1200</v>
+      </c>
+      <c r="C60" s="3">
         <f>[8]Summ!$C35</f>
         <v>360</v>
-      </c>
-      <c r="C60" s="3">
-        <f>[9]Summ!$C35</f>
-        <v>1200</v>
       </c>
       <c r="D60" s="3">
         <f>[2]Summ!$C35</f>
@@ -28581,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="K60" s="3">
+        <f>[4]Summ!$D35</f>
+        <v>7200</v>
+      </c>
+      <c r="L60" s="3">
         <f>[8]Summ!$D35</f>
         <v>360</v>
       </c>
-      <c r="L60" s="3">
-        <f>[4]Summ!$D35</f>
-        <v>7200</v>
-      </c>
       <c r="M60" s="3">
         <f>[10]Summ!$D35</f>
         <v>0</v>
       </c>
       <c r="N60" s="3">
-        <f>[6]Summ!$D35</f>
-        <v>0</v>
-      </c>
-      <c r="O60" s="3">
         <f>[9]Summ!$D35</f>
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="O60" s="3">
         <f>[2]Summ!$D35</f>
         <v>600</v>
+      </c>
+      <c r="P60" s="3">
+        <f>[6]Summ!$D35</f>
+        <v>0</v>
       </c>
       <c r="Q60" s="3">
         <f>[3]Summ!$D35</f>
@@ -28688,19 +28795,23 @@
         <f>[8]Summ!$F35</f>
         <v>720</v>
       </c>
+      <c r="AL60" s="3">
+        <f>[8]Summ!$C35</f>
+        <v>360</v>
+      </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:38">
       <c r="A61" s="3" t="str">
         <f>[5]Summ!A36</f>
         <v>inputs</v>
       </c>
       <c r="B61" s="3">
-        <f>[8]Summ!$C36</f>
-        <v>0</v>
-      </c>
-      <c r="C61" s="3">
         <f>[9]Summ!$C36</f>
         <v>480</v>
+      </c>
+      <c r="C61" s="3">
+        <f>[8]Summ!$C36</f>
+        <v>0</v>
       </c>
       <c r="D61" s="3">
         <f>[2]Summ!$C36</f>
@@ -28728,31 +28839,31 @@
       </c>
       <c r="J61" s="3">
         <f>[5]Summ!C36</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K61" s="3">
-        <f>[8]Summ!$D36</f>
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
         <f>[4]Summ!$D36</f>
         <v>2425</v>
+      </c>
+      <c r="L61" s="3">
+        <f>[8]Summ!$D36</f>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <f>[10]Summ!$D36</f>
         <v>1450</v>
       </c>
       <c r="N61" s="3">
+        <f>[9]Summ!$D36</f>
+        <v>950</v>
+      </c>
+      <c r="O61" s="3">
+        <f>[2]Summ!$D36</f>
+        <v>2700</v>
+      </c>
+      <c r="P61" s="3">
         <f>[6]Summ!$D36</f>
         <v>5000</v>
-      </c>
-      <c r="O61" s="3">
-        <f>[9]Summ!$D36</f>
-        <v>950</v>
-      </c>
-      <c r="P61" s="3">
-        <f>[2]Summ!$D36</f>
-        <v>2700</v>
       </c>
       <c r="Q61" s="3">
         <f>[3]Summ!$D36</f>
@@ -28764,7 +28875,7 @@
       </c>
       <c r="S61" s="3">
         <f>[5]Summ!D36</f>
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="T61" s="3">
         <f>[2]Summ!$E36</f>
@@ -28796,7 +28907,7 @@
       </c>
       <c r="AA61" s="3">
         <f>[5]Summ!E36</f>
-        <v>300</v>
+        <v>5100</v>
       </c>
       <c r="AB61" s="3">
         <f>[3]Summ!$E36</f>
@@ -28828,7 +28939,7 @@
       </c>
       <c r="AI61" s="3">
         <f>[5]Summ!F36</f>
-        <v>9900</v>
+        <v>14900</v>
       </c>
       <c r="AJ61" s="3">
         <f>[9]Summ!$F36</f>
@@ -28838,19 +28949,23 @@
         <f>[8]Summ!$F36</f>
         <v>22855</v>
       </c>
+      <c r="AL61" s="3">
+        <f>[8]Summ!$C36</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:38">
       <c r="A62" s="3" t="str">
         <f>[5]Summ!A37</f>
         <v>social serv.</v>
       </c>
       <c r="B62" s="3">
+        <f>[9]Summ!$C37</f>
+        <v>5000</v>
+      </c>
+      <c r="C62" s="3">
         <f>[8]Summ!$C37</f>
         <v>1000</v>
-      </c>
-      <c r="C62" s="3">
-        <f>[9]Summ!$C37</f>
-        <v>5000</v>
       </c>
       <c r="D62" s="3">
         <f>[2]Summ!$C37</f>
@@ -28878,31 +28993,31 @@
       </c>
       <c r="J62" s="3">
         <f>[5]Summ!C37</f>
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="K62" s="3">
+        <f>[4]Summ!$D37</f>
+        <v>1530</v>
+      </c>
+      <c r="L62" s="3">
         <f>[8]Summ!$D37</f>
         <v>1000</v>
-      </c>
-      <c r="L62" s="3">
-        <f>[4]Summ!$D37</f>
-        <v>1530</v>
       </c>
       <c r="M62" s="3">
         <f>[10]Summ!$D37</f>
         <v>1450</v>
       </c>
       <c r="N62" s="3">
+        <f>[9]Summ!$D37</f>
+        <v>8400</v>
+      </c>
+      <c r="O62" s="3">
+        <f>[2]Summ!$D37</f>
+        <v>2000</v>
+      </c>
+      <c r="P62" s="3">
         <f>[6]Summ!$D37</f>
         <v>1600</v>
-      </c>
-      <c r="O62" s="3">
-        <f>[9]Summ!$D37</f>
-        <v>8400</v>
-      </c>
-      <c r="P62" s="3">
-        <f>[2]Summ!$D37</f>
-        <v>2000</v>
       </c>
       <c r="Q62" s="3">
         <f>[3]Summ!$D37</f>
@@ -28946,7 +29061,7 @@
       </c>
       <c r="AA62" s="3">
         <f>[5]Summ!E37</f>
-        <v>480</v>
+        <v>16000</v>
       </c>
       <c r="AB62" s="3">
         <f>[3]Summ!$E37</f>
@@ -28988,19 +29103,23 @@
         <f>[8]Summ!$F37</f>
         <v>31280</v>
       </c>
+      <c r="AL62" s="3">
+        <f>[8]Summ!$C37</f>
+        <v>1000</v>
+      </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:38">
       <c r="A63" s="3" t="str">
         <f>[5]Summ!A38</f>
         <v>clothes</v>
       </c>
       <c r="B63" s="3">
-        <f>[8]Summ!$C38</f>
-        <v>1671</v>
-      </c>
-      <c r="C63" s="3">
         <f>[9]Summ!$C38</f>
         <v>2800</v>
+      </c>
+      <c r="C63" s="3">
+        <f>[8]Summ!$C38</f>
+        <v>1600</v>
       </c>
       <c r="D63" s="3">
         <f>[2]Summ!$C38</f>
@@ -29028,31 +29147,31 @@
       </c>
       <c r="J63" s="3">
         <f>[5]Summ!C38</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K63" s="3">
-        <f>[8]Summ!$D38</f>
-        <v>1943</v>
-      </c>
-      <c r="L63" s="3">
         <f>[4]Summ!$D38</f>
         <v>2000</v>
+      </c>
+      <c r="L63" s="3">
+        <f>[8]Summ!$D38</f>
+        <v>1900</v>
       </c>
       <c r="M63" s="3">
         <f>[10]Summ!$D38</f>
         <v>1350</v>
       </c>
       <c r="N63" s="3">
+        <f>[9]Summ!$D38</f>
+        <v>3800</v>
+      </c>
+      <c r="O63" s="3">
+        <f>[2]Summ!$D38</f>
+        <v>3000</v>
+      </c>
+      <c r="P63" s="3">
         <f>[6]Summ!$D38</f>
         <v>2000</v>
-      </c>
-      <c r="O63" s="3">
-        <f>[9]Summ!$D38</f>
-        <v>3800</v>
-      </c>
-      <c r="P63" s="3">
-        <f>[2]Summ!$D38</f>
-        <v>3000</v>
       </c>
       <c r="Q63" s="3">
         <f>[3]Summ!$D38</f>
@@ -29138,19 +29257,23 @@
         <f>[8]Summ!$F38</f>
         <v>7986</v>
       </c>
+      <c r="AL63" s="3">
+        <f>[8]Summ!$C38</f>
+        <v>1600</v>
+      </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:38">
       <c r="A64" s="3" t="str">
         <f>[5]Summ!A39</f>
         <v>tax &amp; gifts</v>
       </c>
       <c r="B64" s="3">
-        <f>[8]Summ!$C39</f>
-        <v>407</v>
-      </c>
-      <c r="C64" s="3">
         <f>[9]Summ!$C39</f>
         <v>1200</v>
+      </c>
+      <c r="C64" s="3">
+        <f>[8]Summ!$C39</f>
+        <v>400</v>
       </c>
       <c r="D64" s="3">
         <f>[2]Summ!$C39</f>
@@ -29178,31 +29301,31 @@
       </c>
       <c r="J64" s="3">
         <f>[5]Summ!C39</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="K64" s="3">
-        <f>[8]Summ!$D39</f>
-        <v>429</v>
-      </c>
-      <c r="L64" s="3">
         <f>[4]Summ!$D39</f>
         <v>480</v>
+      </c>
+      <c r="L64" s="3">
+        <f>[8]Summ!$D39</f>
+        <v>450</v>
       </c>
       <c r="M64" s="3">
         <f>[10]Summ!$D39</f>
         <v>1450</v>
       </c>
       <c r="N64" s="3">
+        <f>[9]Summ!$D39</f>
+        <v>1200</v>
+      </c>
+      <c r="O64" s="3">
+        <f>[2]Summ!$D39</f>
+        <v>1500</v>
+      </c>
+      <c r="P64" s="3">
         <f>[6]Summ!$D39</f>
         <v>25</v>
-      </c>
-      <c r="O64" s="3">
-        <f>[9]Summ!$D39</f>
-        <v>1200</v>
-      </c>
-      <c r="P64" s="3">
-        <f>[2]Summ!$D39</f>
-        <v>1500</v>
       </c>
       <c r="Q64" s="3">
         <f>[3]Summ!$D39</f>
@@ -29214,7 +29337,7 @@
       </c>
       <c r="S64" s="3">
         <f>[5]Summ!D39</f>
-        <v>1440</v>
+        <v>2400</v>
       </c>
       <c r="T64" s="3">
         <f>[2]Summ!$E39</f>
@@ -29246,7 +29369,7 @@
       </c>
       <c r="AA64" s="3">
         <f>[5]Summ!E39</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="AB64" s="3">
         <f>[3]Summ!$E39</f>
@@ -29288,19 +29411,23 @@
         <f>[8]Summ!$F39</f>
         <v>0</v>
       </c>
+      <c r="AL64" s="3">
+        <f>[8]Summ!$C39</f>
+        <v>400</v>
+      </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:38">
       <c r="A65" s="3" t="str">
         <f>[5]Summ!A40</f>
         <v>transport &amp; communication</v>
       </c>
       <c r="B65" s="3">
-        <f>[8]Summ!$C40</f>
-        <v>953</v>
-      </c>
-      <c r="C65" s="3">
         <f>[9]Summ!$C40</f>
         <v>2420</v>
+      </c>
+      <c r="C65" s="3">
+        <f>[8]Summ!$C40</f>
+        <v>950</v>
       </c>
       <c r="D65" s="3">
         <f>[2]Summ!$C40</f>
@@ -29328,31 +29455,31 @@
       </c>
       <c r="J65" s="3">
         <f>[5]Summ!C40</f>
-        <v>78</v>
+        <v>1260</v>
       </c>
       <c r="K65" s="3">
-        <f>[8]Summ!$D40</f>
-        <v>987</v>
-      </c>
-      <c r="L65" s="3">
         <f>[4]Summ!$D40</f>
         <v>780</v>
+      </c>
+      <c r="L65" s="3">
+        <f>[8]Summ!$D40</f>
+        <v>315</v>
       </c>
       <c r="M65" s="3">
         <f>[10]Summ!$D40</f>
         <v>2400</v>
       </c>
       <c r="N65" s="3">
+        <f>[9]Summ!$D40</f>
+        <v>3600</v>
+      </c>
+      <c r="O65" s="3">
+        <f>[2]Summ!$D40</f>
+        <v>768</v>
+      </c>
+      <c r="P65" s="3">
         <f>[6]Summ!$D40</f>
         <v>1296</v>
-      </c>
-      <c r="O65" s="3">
-        <f>[9]Summ!$D40</f>
-        <v>3600</v>
-      </c>
-      <c r="P65" s="3">
-        <f>[2]Summ!$D40</f>
-        <v>768</v>
       </c>
       <c r="Q65" s="3">
         <f>[3]Summ!$D40</f>
@@ -29396,7 +29523,7 @@
       </c>
       <c r="AA65" s="3">
         <f>[5]Summ!E40</f>
-        <v>9600</v>
+        <v>10600</v>
       </c>
       <c r="AB65" s="3">
         <f>[3]Summ!$E40</f>
@@ -29438,19 +29565,23 @@
         <f>[8]Summ!$F40</f>
         <v>29524</v>
       </c>
+      <c r="AL65" s="3">
+        <f>[8]Summ!$C40</f>
+        <v>950</v>
+      </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:38">
       <c r="A66" s="3" t="str">
         <f>[5]Summ!A41</f>
         <v>other (entertainment, etc.)</v>
       </c>
       <c r="B66" s="3">
-        <f>[8]Summ!$C41</f>
-        <v>3071</v>
-      </c>
-      <c r="C66" s="3">
         <f>[9]Summ!$C41</f>
         <v>2400</v>
+      </c>
+      <c r="C66" s="3">
+        <f>[8]Summ!$C41</f>
+        <v>3200</v>
       </c>
       <c r="D66" s="3">
         <f>[2]Summ!$C41</f>
@@ -29481,28 +29612,28 @@
         <v>0</v>
       </c>
       <c r="K66" s="3">
-        <f>[8]Summ!$D41</f>
-        <v>3414</v>
-      </c>
-      <c r="L66" s="3">
         <f>[4]Summ!$D41</f>
         <v>1710</v>
+      </c>
+      <c r="L66" s="3">
+        <f>[8]Summ!$D41</f>
+        <v>3500</v>
       </c>
       <c r="M66" s="3">
         <f>[10]Summ!$D41</f>
         <v>1072</v>
       </c>
       <c r="N66" s="3">
+        <f>[9]Summ!$D41</f>
+        <v>2300</v>
+      </c>
+      <c r="O66" s="3">
+        <f>[2]Summ!$D41</f>
+        <v>300</v>
+      </c>
+      <c r="P66" s="3">
         <f>[6]Summ!$D41</f>
         <v>9240</v>
-      </c>
-      <c r="O66" s="3">
-        <f>[9]Summ!$D41</f>
-        <v>2300</v>
-      </c>
-      <c r="P66" s="3">
-        <f>[2]Summ!$D41</f>
-        <v>300</v>
       </c>
       <c r="Q66" s="3">
         <f>[3]Summ!$D41</f>
@@ -29514,7 +29645,7 @@
       </c>
       <c r="S66" s="3">
         <f>[5]Summ!D41</f>
-        <v>5348</v>
+        <v>3000</v>
       </c>
       <c r="T66" s="3">
         <f>[2]Summ!$E41</f>
@@ -29546,7 +29677,7 @@
       </c>
       <c r="AA66" s="3">
         <f>[5]Summ!E41</f>
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="AB66" s="3">
         <f>[3]Summ!$E41</f>
@@ -29578,7 +29709,7 @@
       </c>
       <c r="AI66" s="3">
         <f>[5]Summ!F41</f>
-        <v>52800</v>
+        <v>49200</v>
       </c>
       <c r="AJ66" s="3">
         <f>[9]Summ!$F41</f>
@@ -29588,19 +29719,23 @@
         <f>[8]Summ!$F41</f>
         <v>17100</v>
       </c>
+      <c r="AL66" s="3">
+        <f>[8]Summ!$C41</f>
+        <v>3200</v>
+      </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:38">
       <c r="A67" s="3" t="str">
         <f>[5]Summ!A43</f>
         <v>income minus expenditure</v>
       </c>
       <c r="B67" s="3">
-        <f>[8]Summ!$C43</f>
-        <v>25941</v>
-      </c>
-      <c r="C67" s="3">
         <f>[9]Summ!$C43</f>
         <v>9513.8800000000047</v>
+      </c>
+      <c r="C67" s="3">
+        <f>[8]Summ!$C43</f>
+        <v>11558</v>
       </c>
       <c r="D67" s="3">
         <f>[2]Summ!$C43</f>
@@ -29628,31 +29763,31 @@
       </c>
       <c r="J67" s="3">
         <f>[5]Summ!C43</f>
-        <v>11340</v>
+        <v>3688</v>
       </c>
       <c r="K67" s="3">
-        <f>[8]Summ!$D43</f>
-        <v>37725</v>
-      </c>
-      <c r="L67" s="3">
         <f>[4]Summ!$D43</f>
         <v>38391.599999999999</v>
+      </c>
+      <c r="L67" s="3">
+        <f>[8]Summ!$D43</f>
+        <v>24622</v>
       </c>
       <c r="M67" s="3">
         <f>[10]Summ!$D43</f>
         <v>36188.5</v>
       </c>
       <c r="N67" s="3">
-        <f>[6]Summ!$D43</f>
-        <v>18748.951999999997</v>
-      </c>
-      <c r="O67" s="3">
         <f>[9]Summ!$D43</f>
         <v>10495.880000000005</v>
       </c>
-      <c r="P67" s="3">
+      <c r="O67" s="3">
         <f>[2]Summ!$D43</f>
         <v>21948</v>
+      </c>
+      <c r="P67" s="3">
+        <f>[6]Summ!$D43</f>
+        <v>11548.951999999997</v>
       </c>
       <c r="Q67" s="3">
         <f>[3]Summ!$D43</f>
@@ -29664,7 +29799,7 @@
       </c>
       <c r="S67" s="3">
         <f>[5]Summ!D43</f>
-        <v>4016</v>
+        <v>5224</v>
       </c>
       <c r="T67" s="3">
         <f>[2]Summ!$E43</f>
@@ -29696,7 +29831,7 @@
       </c>
       <c r="AA67" s="3">
         <f>[5]Summ!E43</f>
-        <v>62084</v>
+        <v>8944</v>
       </c>
       <c r="AB67" s="3">
         <f>[3]Summ!$E43</f>
@@ -29728,7 +29863,7 @@
       </c>
       <c r="AI67" s="3">
         <f>[5]Summ!F43</f>
-        <v>27131.200000000012</v>
+        <v>25731.200000000012</v>
       </c>
       <c r="AJ67" s="3">
         <f>[9]Summ!$F43</f>
@@ -29738,157 +29873,165 @@
         <f>[8]Summ!$F43</f>
         <v>46139.799999999988</v>
       </c>
+      <c r="AL67" s="3">
+        <f>[8]Summ!$C43</f>
+        <v>11558</v>
+      </c>
     </row>
-    <row r="68" spans="1:37" s="4" customFormat="1">
+    <row r="68" spans="1:38" s="4" customFormat="1">
       <c r="A68" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B68" s="6">
-        <f t="shared" ref="B68:AK68" si="10">SUM(B57:B67)</f>
-        <v>58880</v>
+        <f t="shared" ref="B68:C68" si="11">SUM(B57:B67)</f>
+        <v>45760</v>
       </c>
       <c r="C68" s="6">
-        <f t="shared" si="10"/>
-        <v>45760</v>
+        <f t="shared" si="11"/>
+        <v>44804</v>
       </c>
       <c r="D68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="B68:AK68" si="12">SUM(D57:D67)</f>
         <v>34040</v>
       </c>
       <c r="E68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>33715.908313376669</v>
       </c>
       <c r="F68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>29838</v>
       </c>
       <c r="G68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>29470.815170008718</v>
       </c>
       <c r="H68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>27280</v>
       </c>
       <c r="I68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>26492</v>
       </c>
       <c r="J68" s="6">
-        <f t="shared" si="10"/>
-        <v>25140</v>
+        <f t="shared" si="12"/>
+        <v>26340</v>
       </c>
       <c r="K68" s="6">
-        <f t="shared" si="10"/>
-        <v>75184</v>
+        <f t="shared" ref="K68:L68" si="13">SUM(K57:K67)</f>
+        <v>67890</v>
       </c>
       <c r="L68" s="6">
-        <f t="shared" si="10"/>
-        <v>67890</v>
+        <f t="shared" si="13"/>
+        <v>61504</v>
       </c>
       <c r="M68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>55439.5</v>
       </c>
       <c r="N68" s="6">
-        <f t="shared" si="10"/>
-        <v>55290</v>
+        <f t="shared" ref="N68:P68" si="14">SUM(N57:N67)</f>
+        <v>52310</v>
       </c>
       <c r="O68" s="6">
-        <f t="shared" si="10"/>
-        <v>52310</v>
+        <f t="shared" si="14"/>
+        <v>52264</v>
       </c>
       <c r="P68" s="6">
-        <f t="shared" si="10"/>
-        <v>52264</v>
+        <f t="shared" si="14"/>
+        <v>48090</v>
       </c>
       <c r="Q68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>44569.908313376669</v>
       </c>
       <c r="R68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>43771.660854402784</v>
       </c>
       <c r="S68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32760</v>
       </c>
       <c r="T68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>179275</v>
       </c>
       <c r="U68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>136102.90322580645</v>
       </c>
       <c r="V68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>133244</v>
       </c>
       <c r="W68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>122224</v>
       </c>
       <c r="X68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>122160</v>
       </c>
       <c r="Y68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>117880</v>
       </c>
       <c r="Z68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>100995</v>
       </c>
       <c r="AA68" s="6">
-        <f t="shared" si="10"/>
-        <v>98820</v>
+        <f t="shared" si="12"/>
+        <v>92820</v>
       </c>
       <c r="AB68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>88508.924050632922</v>
       </c>
       <c r="AC68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>340312.90322580643</v>
       </c>
       <c r="AD68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>309500</v>
       </c>
       <c r="AE68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>302250</v>
       </c>
       <c r="AF68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>300233.92405063292</v>
       </c>
       <c r="AG68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>272820</v>
       </c>
       <c r="AH68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>230645</v>
       </c>
       <c r="AI68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>220350</v>
       </c>
       <c r="AJ68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>217995</v>
       </c>
       <c r="AK68" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>211716</v>
       </c>
+      <c r="AL68" s="6">
+        <f t="shared" ref="AL68" si="15">SUM(AL57:AL67)</f>
+        <v>44804</v>
+      </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:38">
       <c r="B69" s="3"/>
     </row>
   </sheetData>
